--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A5D273-4934-47C5-8491-3163DE120FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF76C83B-24FD-4478-9681-61F70B4C5826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,21 +42,13 @@
     <sheet name="20" sheetId="27" r:id="rId27"/>
     <sheet name="19" sheetId="28" r:id="rId28"/>
     <sheet name="18" sheetId="29" r:id="rId29"/>
-    <sheet name="17" sheetId="30" r:id="rId30"/>
-    <sheet name="16" sheetId="31" r:id="rId31"/>
-    <sheet name="15" sheetId="32" r:id="rId32"/>
-    <sheet name="14" sheetId="33" r:id="rId33"/>
-    <sheet name="13" sheetId="34" r:id="rId34"/>
-    <sheet name="12" sheetId="35" r:id="rId35"/>
-    <sheet name="11" sheetId="36" r:id="rId36"/>
-    <sheet name="10" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="77">
   <si>
     <t>Columns on Logic</t>
   </si>
@@ -207,8 +199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.455
 Method:                 Least Squares   F-statistic:                     10.72
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.01e-49
-Time:                        23:09:59   Log-Likelihood:                -153.95
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.01e-49
+Time:                        20:51:34   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             401.9
 Df Residuals:                     490   BIC:                             603.3
 Df Model:                          46                                         
@@ -216,7 +208,7 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5095      0.389      1.310      0.191      -0.255       1.274
+Ones                  0.0735      0.354      0.208      0.836      -0.622       0.769
 NEMScr                0.0007      0.001      0.733      0.464      -0.001       0.003
 Ranking              -0.0005      0.001     -0.699      0.485      -0.002       0.001
 LangScr               0.0003      0.000      0.966      0.334      -0.000       0.001
@@ -245,33 +237,33 @@
 S2_BEST_GRD          -0.0015      0.003     -0.517      0.605      -0.007       0.004
 S2_WORST_GRD      -9.255e-05      0.003     -0.028      0.978      -0.007       0.006
 S2_VS_S1             -0.0036      0.005     -0.702      0.483      -0.014       0.006
-SchoolRegion_1       -0.3220      0.124     -2.589      0.010      -0.566      -0.078
-SchoolRegion_2       -0.0663      0.060     -1.098      0.273      -0.185       0.052
-SchoolRegion_3       -0.0746      0.090     -0.832      0.406      -0.251       0.102
-EdTypeCode_1         -0.0640      0.084     -0.758      0.449      -0.230       0.102
-EdTypeCode_2          0.0368      0.115      0.319      0.750      -0.190       0.263
-SchoolType_1          0.1391      0.223      0.625      0.532      -0.298       0.576
-SchoolType_2          0.1163      0.218      0.532      0.595      -0.313       0.546
-SchoolType_3         -0.0077      0.214     -0.036      0.971      -0.428       0.413
-SchoolType_4          0.1183      0.211      0.560      0.576      -0.296       0.533
-MotherEd_1           -0.1260      0.071     -1.778      0.076      -0.265       0.013
-MotherEd_2           -0.1795      0.107     -1.681      0.093      -0.389       0.030
-MotherEd_3           -0.1840      0.072     -2.552      0.011      -0.326      -0.042
-MotherEd_4           -0.1891      0.089     -2.119      0.035      -0.364      -0.014
-MotherEd_5           -0.2705      0.108     -2.514      0.012      -0.482      -0.059
-MotherEd_6           -0.1321      0.080     -1.658      0.098      -0.289       0.024
-MotherEd_7           -0.1779      0.083     -2.145      0.032      -0.341      -0.015
+SchoolRegion_1        0.2556      0.136      1.885      0.060      -0.011       0.522
+SchoolRegion_2        0.3220      0.124      2.589      0.010       0.078       0.566
+SchoolRegion_3        0.2473      0.153      1.621      0.106      -0.052       0.547
+EdTypeCode_1          0.1008      0.088      1.149      0.251      -0.072       0.273
+EdTypeCode_2          0.0640      0.084      0.758      0.449      -0.102       0.230
+SchoolType_1         -0.0228      0.088     -0.261      0.794      -0.195       0.149
+SchoolType_2         -0.1468      0.076     -1.937      0.053      -0.296       0.002
+SchoolType_3         -0.0209      0.072     -0.290      0.772      -0.162       0.120
+SchoolType_4         -0.1391      0.223     -0.625      0.532      -0.576       0.298
+MotherEd_1            0.0112      0.080      0.140      0.889      -0.146       0.168
+MotherEd_2            0.0051      0.069      0.073      0.942      -0.131       0.141
+MotherEd_3            0.0096      0.104      0.092      0.927      -0.194       0.213
+MotherEd_4            0.0631      0.068      0.925      0.355      -0.071       0.197
+MotherEd_5            0.0570      0.077      0.737      0.461      -0.095       0.209
+MotherEd_6           -0.0814      0.105     -0.777      0.437      -0.287       0.124
+MotherEd_7            0.1891      0.089      2.119      0.035       0.014       0.364
 Campus_1              0.2247      0.127      1.771      0.077      -0.025       0.474
 PostulationType_1     0.1533      0.082      1.873      0.062      -0.007       0.314
 ==============================================================================
 Omnibus:                       33.854   Durbin-Watson:                   1.930
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.392
 Skew:                           0.475   Prob(JB):                     6.92e-12
-Kurtosis:                       4.181   Cond. No.                     4.35e+04
+Kurtosis:                       4.181   Cond. No.                     3.28e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 4.35e+04. This might indicate that there are
+[2] The condition number is large, 3.28e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -280,8 +272,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.456
 Method:                 Least Squares   F-statistic:                     10.98
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.03e-50
-Time:                        23:09:59   Log-Likelihood:                -153.95
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.03e-50
+Time:                        20:51:34   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             399.9
 Df Residuals:                     491   BIC:                             597.1
 Df Model:                          45                                         
@@ -289,7 +281,7 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5098      0.388      1.313      0.190      -0.253       1.273
+Ones                  0.0739      0.353      0.209      0.834      -0.620       0.768
 NEMScr                0.0007      0.001      0.735      0.463      -0.001       0.003
 Ranking              -0.0005      0.001     -0.701      0.484      -0.002       0.001
 LangScr               0.0003      0.000      0.968      0.334      -0.000       0.001
@@ -317,33 +309,33 @@
 S2_GRD_6TO7          -0.0605      0.031     -1.943      0.053      -0.122       0.001
 S2_BEST_GRD          -0.0015      0.003     -0.531      0.596      -0.007       0.004
 S2_VS_S1             -0.0037      0.004     -1.003      0.316      -0.011       0.004
-SchoolRegion_1       -0.3219      0.124     -2.592      0.010      -0.566      -0.078
-SchoolRegion_2       -0.0663      0.060     -1.099      0.272      -0.185       0.052
-SchoolRegion_3       -0.0747      0.090     -0.834      0.405      -0.251       0.101
-EdTypeCode_1         -0.0640      0.084     -0.760      0.448      -0.230       0.102
-EdTypeCode_2          0.0366      0.115      0.318      0.750      -0.189       0.263
-SchoolType_1          0.1393      0.222      0.627      0.531      -0.297       0.576
-SchoolType_2          0.1163      0.218      0.533      0.594      -0.312       0.545
-SchoolType_3         -0.0076      0.214     -0.036      0.972      -0.427       0.412
-SchoolType_4          0.1183      0.211      0.561      0.575      -0.296       0.533
-MotherEd_1           -0.1260      0.071     -1.781      0.076      -0.265       0.013
-MotherEd_2           -0.1794      0.107     -1.683      0.093      -0.389       0.030
-MotherEd_3           -0.1841      0.072     -2.555      0.011      -0.326      -0.043
-MotherEd_4           -0.1892      0.089     -2.123      0.034      -0.364      -0.014
-MotherEd_5           -0.2705      0.107     -2.518      0.012      -0.482      -0.059
-MotherEd_6           -0.1321      0.080     -1.660      0.098      -0.288       0.024
-MotherEd_7           -0.1779      0.083     -2.147      0.032      -0.341      -0.015
+SchoolRegion_1        0.2556      0.135      1.887      0.060      -0.011       0.522
+SchoolRegion_2        0.3219      0.124      2.592      0.010       0.078       0.566
+SchoolRegion_3        0.2472      0.152      1.623      0.105      -0.052       0.547
+EdTypeCode_1          0.1007      0.088      1.150      0.251      -0.071       0.273
+EdTypeCode_2          0.0640      0.084      0.760      0.448      -0.102       0.230
+SchoolType_1         -0.0229      0.087     -0.263      0.793      -0.195       0.149
+SchoolType_2         -0.1469      0.076     -1.939      0.053      -0.296       0.002
+SchoolType_3         -0.0210      0.072     -0.293      0.770      -0.162       0.120
+SchoolType_4         -0.1393      0.222     -0.627      0.531      -0.576       0.297
+MotherEd_1            0.0113      0.080      0.142      0.887      -0.146       0.168
+MotherEd_2            0.0051      0.069      0.074      0.941      -0.131       0.141
+MotherEd_3            0.0098      0.103      0.095      0.925      -0.193       0.213
+MotherEd_4            0.0631      0.068      0.927      0.354      -0.071       0.197
+MotherEd_5            0.0571      0.077      0.740      0.460      -0.094       0.209
+MotherEd_6           -0.0814      0.105     -0.778      0.437      -0.287       0.124
+MotherEd_7            0.1892      0.089      2.123      0.034       0.014       0.364
 Campus_1              0.2249      0.127      1.776      0.076      -0.024       0.474
 PostulationType_1     0.1533      0.082      1.875      0.061      -0.007       0.314
 ==============================================================================
 Omnibus:                       33.869   Durbin-Watson:                   1.930
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.428
 Skew:                           0.475   Prob(JB):                     6.80e-12
-Kurtosis:                       4.182   Cond. No.                     4.35e+04
+Kurtosis:                       4.182   Cond. No.                     3.28e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 4.35e+04. This might indicate that there are
+[2] The condition number is large, 3.28e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -352,8 +344,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.457
 Method:                 Least Squares   F-statistic:                     11.25
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.78e-50
-Time:                        23:10:00   Log-Likelihood:                -153.95
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.78e-50
+Time:                        20:51:34   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             397.9
 Df Residuals:                     492   BIC:                             590.8
 Df Model:                          44                                         
@@ -361,60 +353,60 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5022      0.324      1.549      0.122      -0.135       1.139
-NEMScr                0.0007      0.001      0.735      0.463      -0.001       0.003
+Ones                  0.0728      0.352      0.207      0.836      -0.618       0.764
+NEMScr                0.0007      0.001      0.734      0.463      -0.001       0.003
 Ranking              -0.0005      0.001     -0.701      0.484      -0.002       0.001
-LangScr               0.0003      0.000      0.973      0.331      -0.000       0.001
-MathScr              -0.0001      0.000     -0.263      0.793      -0.001       0.001
-ScienScr           9.261e-05      0.000      0.285      0.775      -0.001       0.001
-S1_DRP                0.0273      0.023      1.206      0.228      -0.017       0.072
-S1_BAD                0.0092      0.030      0.306      0.759      -0.050       0.068
-S1_CVL               -0.0022      0.006     -0.357      0.721      -0.014       0.010
-S1_GRD_1TO19          0.0563      0.038      1.501      0.134      -0.017       0.130
-S1_GRD_2TO29          0.0276      0.039      0.710      0.478      -0.049       0.104
-S1_GRD_3TO39          0.0174      0.037      0.468      0.640      -0.056       0.090
-S1_GRD_4TO49         -0.0414      0.039     -1.053      0.293      -0.119       0.036
-S1_GRD_5TO59         -0.0186      0.043     -0.433      0.665      -0.103       0.066
-S1_GRD_6TO7           0.0113      0.051      0.222      0.824      -0.089       0.111
-S1_BEST_GRD          -0.0015      0.003     -0.537      0.591      -0.007       0.004
-S1_WORST_GRD          0.0001      0.003      0.037      0.970      -0.006       0.006
-S2_DRP               -0.0056      0.011     -0.505      0.614      -0.027       0.016
-S2_BAD                0.0102      0.013      0.765      0.444      -0.016       0.036
-S2_CVL               -0.0253      0.020     -1.297      0.195      -0.064       0.013
-S2_GRD_1TO19         -0.0551      0.033     -1.689      0.092      -0.119       0.009
-S2_GRD_2TO29         -0.0080      0.023     -0.348      0.728      -0.053       0.037
+LangScr               0.0003      0.000      0.969      0.333      -0.000       0.001
+MathScr              -0.0001      0.000     -0.261      0.794      -0.001       0.001
+ScienScr           9.309e-05      0.000      0.287      0.774      -0.001       0.001
+S1_DRP                0.0273      0.023      1.206      0.229      -0.017       0.072
+S1_BAD                0.0094      0.030      0.315      0.753      -0.049       0.068
+S1_CVL               -0.0022      0.006     -0.356      0.722      -0.014       0.010
+S1_GRD_1TO19          0.0562      0.037      1.502      0.134      -0.017       0.130
+S1_GRD_2TO29          0.0277      0.039      0.712      0.477      -0.049       0.104
+S1_GRD_3TO39          0.0176      0.037      0.479      0.632      -0.055       0.090
+S1_GRD_4TO49         -0.0411      0.039     -1.063      0.288      -0.117       0.035
+S1_GRD_5TO59         -0.0181      0.041     -0.439      0.661      -0.099       0.063
+S1_GRD_6TO7           0.0119      0.049      0.243      0.808      -0.084       0.108
+S1_BEST_GRD          -0.0015      0.003     -0.539      0.590      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.509      0.611      -0.028       0.016
+S2_BAD                0.0101      0.013      0.765      0.445      -0.016       0.036
+S2_CVL               -0.0253      0.020     -1.296      0.196      -0.064       0.013
+S2_GRD_1TO19         -0.0552      0.033     -1.694      0.091      -0.119       0.009
+S2_GRD_2TO29         -0.0081      0.023     -0.351      0.726      -0.053       0.037
 S2_GRD_3TO39         -0.0558      0.021     -2.608      0.009      -0.098      -0.014
-S2_GRD_4TO49         -0.0740      0.022     -3.397      0.001      -0.117      -0.031
-S2_GRD_5TO59         -0.0575      0.023     -2.453      0.015      -0.103      -0.011
-S2_GRD_6TO7          -0.0605      0.031     -1.944      0.052      -0.122       0.001
-S2_BEST_GRD          -0.0015      0.003     -0.532      0.595      -0.007       0.004
-S2_VS_S1             -0.0037      0.004     -1.004      0.316      -0.011       0.004
-SchoolRegion_1       -0.3218      0.124     -2.594      0.010      -0.566      -0.078
-SchoolRegion_2       -0.0663      0.060     -1.100      0.272      -0.185       0.052
-SchoolRegion_3       -0.0745      0.089     -0.834      0.404      -0.250       0.101
-EdTypeCode_1         -0.0644      0.083     -0.772      0.440      -0.228       0.100
-EdTypeCode_2          0.0370      0.115      0.323      0.747      -0.188       0.262
-SchoolType_1          0.1467      0.076      1.942      0.053      -0.002       0.295
-SchoolType_2          0.1237      0.064      1.930      0.054      -0.002       0.250
-SchoolType_4          0.1257      0.037      3.426      0.001       0.054       0.198
-MotherEd_1           -0.1260      0.071     -1.783      0.075      -0.265       0.013
-MotherEd_2           -0.1794      0.106     -1.685      0.093      -0.389       0.030
-MotherEd_3           -0.1840      0.072     -2.558      0.011      -0.325      -0.043
-MotherEd_4           -0.1892      0.089     -2.125      0.034      -0.364      -0.014
-MotherEd_5           -0.2706      0.107     -2.521      0.012      -0.481      -0.060
-MotherEd_6           -0.1321      0.079     -1.662      0.097      -0.288       0.024
-MotherEd_7           -0.1779      0.083     -2.149      0.032      -0.340      -0.015
-Campus_1              0.2248      0.126      1.778      0.076      -0.024       0.473
-PostulationType_1     0.1534      0.082      1.880      0.061      -0.007       0.314
+S2_GRD_4TO49         -0.0740      0.022     -3.391      0.001      -0.117      -0.031
+S2_GRD_5TO59         -0.0574      0.023     -2.460      0.014      -0.103      -0.012
+S2_GRD_6TO7          -0.0604      0.031     -1.945      0.052      -0.122       0.001
+S2_BEST_GRD          -0.0015      0.003     -0.540      0.590      -0.007       0.004
+S2_VS_S1             -0.0037      0.003     -1.086      0.278      -0.010       0.003
+SchoolRegion_1        0.2560      0.135      1.897      0.058      -0.009       0.521
+SchoolRegion_2        0.3222      0.124      2.600      0.010       0.079       0.566
+SchoolRegion_3        0.2476      0.152      1.630      0.104      -0.051       0.546
+EdTypeCode_1          0.1009      0.087      1.155      0.249      -0.071       0.272
+EdTypeCode_2          0.0642      0.084      0.762      0.446      -0.101       0.230
+SchoolType_1         -0.0230      0.087     -0.263      0.792      -0.194       0.148
+SchoolType_2         -0.1468      0.076     -1.941      0.053      -0.295       0.002
+SchoolType_3         -0.0210      0.072     -0.293      0.770      -0.162       0.120
+SchoolType_4         -0.1393      0.222     -0.627      0.531      -0.576       0.297
+MotherEd_1            0.0111      0.080      0.140      0.889      -0.145       0.168
+MotherEd_2            0.0050      0.069      0.072      0.942      -0.131       0.141
+MotherEd_3            0.0098      0.103      0.095      0.924      -0.193       0.213
+MotherEd_4            0.0629      0.068      0.928      0.354      -0.070       0.196
+MotherEd_5            0.0569      0.077      0.740      0.460      -0.094       0.208
+MotherEd_6           -0.0813      0.104     -0.778      0.437      -0.287       0.124
+MotherEd_7            0.1890      0.089      2.126      0.034       0.014       0.364
+Campus_1              0.2253      0.126      1.789      0.074      -0.022       0.473
+PostulationType_1     0.1534      0.082      1.881      0.061      -0.007       0.314
 ==============================================================================
-Omnibus:                       33.888   Durbin-Watson:                   1.930
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.446
-Skew:                           0.475   Prob(JB):                     6.74e-12
-Kurtosis:                       4.182   Cond. No.                     2.84e+04
+Omnibus:                       33.906   Durbin-Watson:                   1.930
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.507
+Skew:                           0.475   Prob(JB):                     6.54e-12
+Kurtosis:                       4.183   Cond. No.                     3.26e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 2.84e+04. This might indicate that there are
+[2] The condition number is large, 3.26e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -423,8 +415,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     11.54
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.21e-51
-Time:                        23:10:00   Log-Likelihood:                -153.95
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.22e-51
+Time:                        20:51:34   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             395.9
 Df Residuals:                     493   BIC:                             584.5
 Df Model:                          43                                         
@@ -432,59 +424,59 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5014      0.323      1.552      0.121      -0.134       1.136
-NEMScr                0.0007      0.001      0.734      0.463      -0.001       0.003
-Ranking              -0.0005      0.001     -0.701      0.484      -0.002       0.001
-LangScr               0.0003      0.000      0.974      0.331      -0.000       0.001
-MathScr              -0.0001      0.000     -0.261      0.794      -0.001       0.001
-ScienScr           9.279e-05      0.000      0.286      0.775      -0.001       0.001
+Ones                  0.0764      0.348      0.220      0.826      -0.607       0.760
+NEMScr                0.0007      0.001      0.739      0.460      -0.001       0.003
+Ranking              -0.0005      0.001     -0.706      0.481      -0.002       0.001
+LangScr               0.0003      0.000      0.967      0.334      -0.000       0.001
+MathScr              -0.0001      0.000     -0.260      0.795      -0.001       0.001
+ScienScr           9.294e-05      0.000      0.287      0.774      -0.001       0.001
 S1_DRP                0.0273      0.023      1.207      0.228      -0.017       0.072
-S1_BAD                0.0094      0.030      0.315      0.753      -0.049       0.068
+S1_BAD                0.0095      0.030      0.318      0.751      -0.049       0.068
 S1_CVL               -0.0022      0.006     -0.356      0.722      -0.014       0.010
-S1_GRD_1TO19          0.0562      0.037      1.504      0.133      -0.017       0.130
-S1_GRD_2TO29          0.0276      0.039      0.712      0.477      -0.049       0.104
-S1_GRD_3TO39          0.0176      0.037      0.479      0.632      -0.055       0.090
-S1_GRD_4TO49         -0.0411      0.039     -1.067      0.287      -0.117       0.035
-S1_GRD_5TO59         -0.0181      0.041     -0.441      0.660      -0.099       0.063
-S1_GRD_6TO7           0.0119      0.049      0.243      0.808      -0.084       0.108
-S1_BEST_GRD          -0.0015      0.003     -0.539      0.590      -0.007       0.004
-S2_DRP               -0.0056      0.011     -0.509      0.611      -0.027       0.016
+S1_GRD_1TO19          0.0563      0.037      1.511      0.131      -0.017       0.130
+S1_GRD_2TO29          0.0277      0.039      0.712      0.477      -0.049       0.104
+S1_GRD_3TO39          0.0177      0.037      0.482      0.630      -0.055       0.090
+S1_GRD_4TO49         -0.0410      0.039     -1.063      0.288      -0.117       0.035
+S1_GRD_5TO59         -0.0180      0.041     -0.437      0.662      -0.099       0.063
+S1_GRD_6TO7           0.0120      0.049      0.246      0.806      -0.084       0.108
+S1_BEST_GRD          -0.0015      0.003     -0.538      0.591      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.511      0.609      -0.028       0.016
 S2_BAD                0.0101      0.013      0.766      0.444      -0.016       0.036
-S2_CVL               -0.0253      0.019     -1.298      0.195      -0.064       0.013
-S2_GRD_1TO19         -0.0552      0.033     -1.696      0.090      -0.119       0.009
-S2_GRD_2TO29         -0.0080      0.023     -0.350      0.727      -0.053       0.037
-S2_GRD_3TO39         -0.0558      0.021     -2.611      0.009      -0.098      -0.014
-S2_GRD_4TO49         -0.0739      0.022     -3.400      0.001      -0.117      -0.031
-S2_GRD_5TO59         -0.0574      0.023     -2.463      0.014      -0.103      -0.012
-S2_GRD_6TO7          -0.0604      0.031     -1.947      0.052      -0.121       0.001
+S2_CVL               -0.0253      0.020     -1.297      0.195      -0.064       0.013
+S2_GRD_1TO19         -0.0552      0.033     -1.696      0.091      -0.119       0.009
+S2_GRD_2TO29         -0.0081      0.023     -0.353      0.724      -0.053       0.037
+S2_GRD_3TO39         -0.0559      0.021     -2.615      0.009      -0.098      -0.014
+S2_GRD_4TO49         -0.0741      0.022     -3.401      0.001      -0.117      -0.031
+S2_GRD_5TO59         -0.0574      0.023     -2.467      0.014      -0.103      -0.012
+S2_GRD_6TO7          -0.0606      0.031     -1.953      0.051      -0.121       0.000
 S2_BEST_GRD          -0.0015      0.003     -0.541      0.589      -0.007       0.004
-S2_VS_S1             -0.0037      0.003     -1.087      0.278      -0.010       0.003
-SchoolRegion_1       -0.3221      0.124     -2.602      0.010      -0.565      -0.079
-SchoolRegion_2       -0.0662      0.060     -1.101      0.271      -0.184       0.052
-SchoolRegion_3       -0.0744      0.089     -0.834      0.404      -0.249       0.101
-EdTypeCode_1         -0.0646      0.083     -0.775      0.439      -0.228       0.099
-EdTypeCode_2          0.0370      0.114      0.324      0.746      -0.188       0.262
-SchoolType_1          0.1466      0.075      1.944      0.052      -0.002       0.295
-SchoolType_2          0.1237      0.064      1.932      0.054      -0.002       0.249
-SchoolType_4          0.1256      0.037      3.432      0.001       0.054       0.198
-MotherEd_1           -0.1260      0.071     -1.785      0.075      -0.265       0.013
-MotherEd_2           -0.1792      0.106     -1.687      0.092      -0.388       0.030
-MotherEd_3           -0.1839      0.072     -2.561      0.011      -0.325      -0.043
-MotherEd_4           -0.1890      0.089     -2.128      0.034      -0.363      -0.014
-MotherEd_5           -0.2703      0.107     -2.525      0.012      -0.481      -0.060
-MotherEd_6           -0.1321      0.079     -1.663      0.097      -0.288       0.024
-MotherEd_7           -0.1779      0.083     -2.151      0.032      -0.340      -0.015
-Campus_1              0.2252      0.126      1.790      0.074      -0.022       0.472
-PostulationType_1     0.1535      0.081      1.886      0.060      -0.006       0.313
+S2_VS_S1             -0.0037      0.003     -1.086      0.278      -0.010       0.003
+SchoolRegion_1        0.2558      0.135      1.898      0.058      -0.009       0.521
+SchoolRegion_2        0.3221      0.124      2.602      0.010       0.079       0.565
+SchoolRegion_3        0.2473      0.152      1.630      0.104      -0.051       0.545
+EdTypeCode_1          0.1011      0.087      1.160      0.247      -0.070       0.272
+EdTypeCode_2          0.0639      0.084      0.760      0.447      -0.101       0.229
+SchoolType_1         -0.0228      0.087     -0.262      0.794      -0.194       0.148
+SchoolType_2         -0.1467      0.076     -1.941      0.053      -0.295       0.002
+SchoolType_3         -0.0208      0.072     -0.291      0.771      -0.161       0.120
+SchoolType_4         -0.1387      0.222     -0.626      0.532      -0.574       0.297
+MotherEd_1            0.0072      0.058      0.124      0.902      -0.106       0.121
+MotherEd_3            0.0059      0.088      0.067      0.947      -0.166       0.178
+MotherEd_4            0.0590      0.040      1.473      0.141      -0.020       0.138
+MotherEd_5            0.0530      0.054      0.978      0.328      -0.053       0.159
+MotherEd_6           -0.0853      0.089     -0.962      0.337      -0.260       0.089
+MotherEd_7            0.1851      0.070      2.631      0.009       0.047       0.323
+Campus_1              0.2251      0.126      1.789      0.074      -0.022       0.472
+PostulationType_1     0.1534      0.081      1.883      0.060      -0.007       0.313
 ==============================================================================
-Omnibus:                       33.924   Durbin-Watson:                   1.930
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.524
-Skew:                           0.475   Prob(JB):                     6.48e-12
-Kurtosis:                       4.183   Cond. No.                     2.83e+04
+Omnibus:                       33.871   Durbin-Watson:                   1.930
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.482
+Skew:                           0.474   Prob(JB):                     6.62e-12
+Kurtosis:                       4.183   Cond. No.                     3.23e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 2.83e+04. This might indicate that there are
+[2] The condition number is large, 3.23e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -492,1721 +484,1424 @@
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.459
-Method:                 Least Squares   F-statistic:                     11.83
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.54e-51
-Time:                        23:10:00   Log-Likelihood:                -153.98
-No. Observations:                 537   AIC:                             394.0
-Df Residuals:                     494   BIC:                             578.3
+Method:                 Least Squares   F-statistic:                     11.84
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.51e-51
+Time:                        20:51:34   Log-Likelihood:                -153.95
+No. Observations:                 537   AIC:                             393.9
+Df Residuals:                     494   BIC:                             578.2
 Df Model:                          42                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5128      0.319      1.606      0.109      -0.115       1.140
-NEMScr                0.0007      0.001      0.724      0.469      -0.001       0.003
-Ranking              -0.0005      0.001     -0.691      0.490      -0.002       0.001
-LangScr               0.0003      0.000      0.968      0.334      -0.000       0.001
-MathScr              -0.0001      0.000     -0.240      0.811      -0.001       0.001
-ScienScr           9.877e-05      0.000      0.306      0.760      -0.001       0.001
-S1_DRP                0.0249      0.020      1.226      0.221      -0.015       0.065
-S1_BAD                0.0047      0.023      0.207      0.836      -0.040       0.049
-S1_CVL               -0.0020      0.006     -0.326      0.744      -0.014       0.010
-S1_GRD_1TO19          0.0506      0.029      1.721      0.086      -0.007       0.108
-S1_GRD_2TO29          0.0208      0.027      0.780      0.436      -0.032       0.073
-S1_GRD_3TO39          0.0101      0.020      0.503      0.615      -0.029       0.050
-S1_GRD_4TO49         -0.0491      0.020     -2.465      0.014      -0.088      -0.010
-S1_GRD_5TO59         -0.0268      0.021     -1.286      0.199      -0.068       0.014
-S1_BEST_GRD          -0.0012      0.002     -0.482      0.630      -0.006       0.004
-S2_DRP               -0.0054      0.011     -0.493      0.622      -0.027       0.016
-S2_BAD                0.0107      0.013      0.831      0.406      -0.015       0.036
-S2_CVL               -0.0252      0.019     -1.295      0.196      -0.063       0.013
-S2_GRD_1TO19         -0.0551      0.033     -1.696      0.091      -0.119       0.009
-S2_GRD_2TO29         -0.0073      0.023     -0.322      0.748      -0.052       0.037
-S2_GRD_3TO39         -0.0551      0.021     -2.604      0.009      -0.097      -0.014
-S2_GRD_4TO49         -0.0727      0.021     -3.445      0.001      -0.114      -0.031
-S2_GRD_5TO59         -0.0556      0.022     -2.517      0.012      -0.099      -0.012
-S2_GRD_6TO7          -0.0582      0.030     -1.963      0.050      -0.117    6.44e-05
-S2_BEST_GRD          -0.0013      0.003     -0.505      0.614      -0.007       0.004
-S2_VS_S1             -0.0040      0.003     -1.228      0.220      -0.010       0.002
-SchoolRegion_1       -0.3216      0.124     -2.601      0.010      -0.564      -0.079
-SchoolRegion_2       -0.0661      0.060     -1.102      0.271      -0.184       0.052
-SchoolRegion_3       -0.0748      0.089     -0.841      0.401      -0.250       0.100
-EdTypeCode_1         -0.0638      0.083     -0.767      0.444      -0.227       0.100
-EdTypeCode_2          0.0366      0.114      0.321      0.749      -0.188       0.261
-SchoolType_1          0.1461      0.075      1.940      0.053      -0.002       0.294
-SchoolType_2          0.1224      0.064      1.920      0.055      -0.003       0.248
-SchoolType_4          0.1254      0.037      3.429      0.001       0.054       0.197
-MotherEd_1           -0.1268      0.070     -1.800      0.072      -0.265       0.012
-MotherEd_2           -0.1792      0.106     -1.688      0.092      -0.388       0.029
-MotherEd_3           -0.1838      0.072     -2.562      0.011      -0.325      -0.043
-MotherEd_4           -0.1894      0.089     -2.135      0.033      -0.364      -0.015
-MotherEd_5           -0.2707      0.107     -2.532      0.012      -0.481      -0.061
-MotherEd_6           -0.1324      0.079     -1.669      0.096      -0.288       0.023
-MotherEd_7           -0.1787      0.083     -2.165      0.031      -0.341      -0.017
-Campus_1              0.2268      0.126      1.807      0.071      -0.020       0.473
-PostulationType_1     0.1530      0.081      1.882      0.060      -0.007       0.313
+Ones                  0.0786      0.346      0.227      0.820      -0.601       0.759
+NEMScr                0.0007      0.001      0.743      0.458      -0.001       0.003
+Ranking              -0.0005      0.001     -0.710      0.478      -0.002       0.001
+LangScr               0.0003      0.000      0.969      0.333      -0.000       0.001
+MathScr              -0.0001      0.000     -0.267      0.790      -0.001       0.001
+ScienScr           9.323e-05      0.000      0.288      0.774      -0.001       0.001
+S1_DRP                0.0273      0.023      1.209      0.227      -0.017       0.072
+S1_BAD                0.0095      0.030      0.321      0.749      -0.049       0.068
+S1_CVL               -0.0022      0.006     -0.358      0.721      -0.014       0.010
+S1_GRD_1TO19          0.0563      0.037      1.511      0.131      -0.017       0.129
+S1_GRD_2TO29          0.0278      0.039      0.719      0.473      -0.048       0.104
+S1_GRD_3TO39          0.0177      0.037      0.481      0.630      -0.054       0.090
+S1_GRD_4TO49         -0.0410      0.039     -1.065      0.287      -0.117       0.035
+S1_GRD_5TO59         -0.0179      0.041     -0.437      0.663      -0.099       0.063
+S1_GRD_6TO7           0.0120      0.049      0.246      0.806      -0.084       0.108
+S1_BEST_GRD          -0.0015      0.003     -0.546      0.585      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.512      0.609      -0.027       0.016
+S2_BAD                0.0101      0.013      0.767      0.444      -0.016       0.036
+S2_CVL               -0.0252      0.019     -1.297      0.195      -0.063       0.013
+S2_GRD_1TO19         -0.0551      0.032     -1.697      0.090      -0.119       0.009
+S2_GRD_2TO29         -0.0081      0.023     -0.352      0.725      -0.053       0.037
+S2_GRD_3TO39         -0.0558      0.021     -2.617      0.009      -0.098      -0.014
+S2_GRD_4TO49         -0.0740      0.022     -3.405      0.001      -0.117      -0.031
+S2_GRD_5TO59         -0.0573      0.023     -2.471      0.014      -0.103      -0.012
+S2_GRD_6TO7          -0.0605      0.031     -1.955      0.051      -0.121       0.000
+S2_BEST_GRD          -0.0015      0.003     -0.541      0.589      -0.007       0.004
+S2_VS_S1             -0.0037      0.003     -1.092      0.275      -0.010       0.003
+SchoolRegion_1        0.2555      0.135      1.899      0.058      -0.009       0.520
+SchoolRegion_2        0.3218      0.124      2.604      0.009       0.079       0.565
+SchoolRegion_3        0.2470      0.151      1.631      0.104      -0.051       0.545
+EdTypeCode_1          0.1014      0.087      1.167      0.244      -0.069       0.272
+EdTypeCode_2          0.0640      0.084      0.763      0.446      -0.101       0.229
+SchoolType_1         -0.0226      0.087     -0.259      0.795      -0.193       0.148
+SchoolType_2         -0.1465      0.075     -1.942      0.053      -0.295       0.002
+SchoolType_3         -0.0205      0.071     -0.288      0.774      -0.161       0.120
+SchoolType_4         -0.1388      0.221     -0.627      0.531      -0.574       0.296
+MotherEd_1            0.0066      0.057      0.115      0.908      -0.106       0.119
+MotherEd_4            0.0584      0.039      1.494      0.136      -0.018       0.135
+MotherEd_5            0.0525      0.054      0.980      0.328      -0.053       0.158
+MotherEd_6           -0.0859      0.088     -0.974      0.330      -0.259       0.087
+MotherEd_7            0.1845      0.070      2.643      0.008       0.047       0.322
+Campus_1              0.2249      0.126      1.790      0.074      -0.022       0.472
+PostulationType_1     0.1534      0.081      1.885      0.060      -0.006       0.313
 ==============================================================================
-Omnibus:                       33.932   Durbin-Watson:                   1.928
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.746
-Skew:                           0.474   Prob(JB):                     5.80e-12
-Kurtosis:                       4.189   Cond. No.                     2.80e+04
+Omnibus:                       33.904   Durbin-Watson:                   1.930
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.526
+Skew:                           0.475   Prob(JB):                     6.47e-12
+Kurtosis:                       4.184   Cond. No.                     3.22e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 2.8e+04. This might indicate that there are
+[2] The condition number is large, 3.22e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
+Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.460
-Method:                 Least Squares   F-statistic:                     12.14
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.47e-52
-Time:                        23:10:00   Log-Likelihood:                -154.00
-No. Observations:                 537   AIC:                             392.0
-Df Residuals:                     495   BIC:                             572.0
+Method:                 Least Squares   F-statistic:                     12.15
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.31e-52
+Time:                        20:51:34   Log-Likelihood:                -153.96
+No. Observations:                 537   AIC:                             391.9
+Df Residuals:                     495   BIC:                             571.9
 Df Model:                          41                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5349      0.301      1.778      0.076      -0.056       1.126
-NEMScr                0.0007      0.001      0.717      0.474      -0.001       0.003
-Ranking              -0.0005      0.001     -0.685      0.494      -0.002       0.001
-LangScr               0.0003      0.000      0.968      0.333      -0.000       0.001
-MathScr              -0.0001      0.000     -0.239      0.811      -0.001       0.001
-ScienScr           9.661e-05      0.000      0.300      0.765      -0.001       0.001
-S1_DRP                0.0223      0.016      1.403      0.161      -0.009       0.053
-S1_CVL               -0.0017      0.006     -0.288      0.773      -0.013       0.010
-S1_GRD_1TO19          0.0482      0.027      1.781      0.076      -0.005       0.101
-S1_GRD_2TO29          0.0188      0.025      0.756      0.450      -0.030       0.068
-S1_GRD_3TO39          0.0082      0.018      0.460      0.646      -0.027       0.043
-S1_GRD_4TO49         -0.0512      0.017     -2.996      0.003      -0.085      -0.018
-S1_GRD_5TO59         -0.0287      0.018     -1.560      0.119      -0.065       0.007
-S1_BEST_GRD          -0.0013      0.002     -0.579      0.563      -0.006       0.003
-S2_DRP               -0.0053      0.011     -0.487      0.626      -0.027       0.016
-S2_BAD                0.0114      0.013      0.904      0.366      -0.013       0.036
-S2_CVL               -0.0252      0.019     -1.295      0.196      -0.063       0.013
-S2_GRD_1TO19         -0.0553      0.032     -1.702      0.089      -0.119       0.009
-S2_GRD_2TO29         -0.0072      0.023     -0.317      0.751      -0.052       0.037
-S2_GRD_3TO39         -0.0549      0.021     -2.600      0.010      -0.096      -0.013
-S2_GRD_4TO49         -0.0726      0.021     -3.446      0.001      -0.114      -0.031
-S2_GRD_5TO59         -0.0556      0.022     -2.521      0.012      -0.099      -0.012
-S2_GRD_6TO7          -0.0587      0.030     -1.983      0.048      -0.117      -0.001
-S2_BEST_GRD          -0.0013      0.003     -0.500      0.617      -0.007       0.004
-S2_VS_S1             -0.0040      0.003     -1.236      0.217      -0.010       0.002
-SchoolRegion_1       -0.3207      0.123     -2.598      0.010      -0.563      -0.078
-SchoolRegion_2       -0.0655      0.060     -1.094      0.275      -0.183       0.052
-SchoolRegion_3       -0.0742      0.089     -0.835      0.404      -0.249       0.100
-EdTypeCode_1         -0.0645      0.083     -0.776      0.438      -0.228       0.099
-EdTypeCode_2          0.0363      0.114      0.318      0.750      -0.188       0.261
-SchoolType_1          0.1460      0.075      1.940      0.053      -0.002       0.294
-SchoolType_2          0.1219      0.064      1.916      0.056      -0.003       0.247
-SchoolType_4          0.1255      0.037      3.439      0.001       0.054       0.197
-MotherEd_1           -0.1269      0.070     -1.803      0.072      -0.265       0.011
-MotherEd_2           -0.1787      0.106     -1.686      0.092      -0.387       0.030
-MotherEd_3           -0.1840      0.072     -2.568      0.011      -0.325      -0.043
-MotherEd_4           -0.1900      0.089     -2.144      0.032      -0.364      -0.016
-MotherEd_5           -0.2708      0.107     -2.535      0.012      -0.481      -0.061
-MotherEd_6           -0.1328      0.079     -1.676      0.094      -0.288       0.023
-MotherEd_7           -0.1794      0.082     -2.178      0.030      -0.341      -0.018
-Campus_1              0.2274      0.125      1.814      0.070      -0.019       0.474
-PostulationType_1     0.1532      0.081      1.886      0.060      -0.006       0.313
+Ones                  0.0795      0.346      0.230      0.818      -0.600       0.759
+NEMScr                0.0007      0.001      0.740      0.460      -0.001       0.003
+Ranking              -0.0005      0.001     -0.709      0.479      -0.002       0.001
+LangScr               0.0003      0.000      0.969      0.333      -0.000       0.001
+MathScr              -0.0001      0.000     -0.266      0.790      -0.001       0.001
+ScienScr           9.502e-05      0.000      0.294      0.769      -0.001       0.001
+S1_DRP                0.0272      0.023      1.207      0.228      -0.017       0.071
+S1_BAD                0.0093      0.030      0.314      0.754      -0.049       0.068
+S1_CVL               -0.0022      0.006     -0.355      0.723      -0.014       0.010
+S1_GRD_1TO19          0.0561      0.037      1.510      0.132      -0.017       0.129
+S1_GRD_2TO29          0.0275      0.039      0.713      0.476      -0.048       0.103
+S1_GRD_3TO39          0.0173      0.037      0.474      0.636      -0.054       0.089
+S1_GRD_4TO49         -0.0414      0.038     -1.079      0.281      -0.117       0.034
+S1_GRD_5TO59         -0.0183      0.041     -0.446      0.656      -0.099       0.062
+S1_GRD_6TO7           0.0117      0.049      0.240      0.811      -0.084       0.107
+S1_BEST_GRD          -0.0015      0.003     -0.543      0.588      -0.007       0.004
+S2_DRP               -0.0056      0.011     -0.509      0.611      -0.027       0.016
+S2_BAD                0.0102      0.013      0.773      0.440      -0.016       0.036
+S2_CVL               -0.0253      0.019     -1.300      0.194      -0.063       0.013
+S2_GRD_1TO19         -0.0551      0.032     -1.702      0.089      -0.119       0.009
+S2_GRD_2TO29         -0.0080      0.023     -0.351      0.726      -0.053       0.037
+S2_GRD_3TO39         -0.0557      0.021     -2.617      0.009      -0.098      -0.014
+S2_GRD_4TO49         -0.0739      0.022     -3.407      0.001      -0.117      -0.031
+S2_GRD_5TO59         -0.0573      0.023     -2.473      0.014      -0.103      -0.012
+S2_GRD_6TO7          -0.0605      0.031     -1.956      0.051      -0.121       0.000
+S2_BEST_GRD          -0.0015      0.003     -0.538      0.591      -0.007       0.004
+S2_VS_S1             -0.0038      0.003     -1.098      0.273      -0.010       0.003
+SchoolRegion_1        0.2557      0.134      1.902      0.058      -0.008       0.520
+SchoolRegion_2        0.3216      0.123      2.605      0.009       0.079       0.564
+SchoolRegion_3        0.2469      0.151      1.632      0.103      -0.050       0.544
+EdTypeCode_1          0.1011      0.087      1.165      0.244      -0.069       0.272
+EdTypeCode_2          0.0638      0.084      0.762      0.447      -0.101       0.228
+SchoolType_1         -0.0222      0.087     -0.256      0.798      -0.193       0.148
+SchoolType_2         -0.1452      0.074     -1.950      0.052      -0.291       0.001
+SchoolType_3         -0.0198      0.071     -0.279      0.780      -0.159       0.120
+SchoolType_4         -0.1382      0.221     -0.625      0.532      -0.573       0.296
+MotherEd_4            0.0569      0.037      1.545      0.123      -0.015       0.129
+MotherEd_5            0.0507      0.051      0.989      0.323      -0.050       0.151
+MotherEd_6           -0.0875      0.087     -1.006      0.315      -0.258       0.083
+MotherEd_7            0.1832      0.069      2.663      0.008       0.048       0.318
+Campus_1              0.2253      0.125      1.796      0.073      -0.021       0.472
+PostulationType_1     0.1536      0.081      1.891      0.059      -0.006       0.313
 ==============================================================================
-Omnibus:                       33.784   Durbin-Watson:                   1.928
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.680
-Skew:                           0.471   Prob(JB):                     6.00e-12
-Kurtosis:                       4.192   Cond. No.                     2.65e+04
+Omnibus:                       33.969   Durbin-Watson:                   1.930
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.600
+Skew:                           0.476   Prob(JB):                     6.24e-12
+Kurtosis:                       4.183   Cond. No.                     3.22e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 2.65e+04. This might indicate that there are
+[2] The condition number is large, 3.22e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
-Model:                            OLS   Adj. R-squared:                  0.461
-Method:                 Least Squares   F-statistic:                     12.47
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.29e-52
-Time:                        23:10:00   Log-Likelihood:                -154.04
-No. Observations:                 537   AIC:                             390.1
-Df Residuals:                     496   BIC:                             565.8
-Df Model:                          40                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.620
+Method:                 Least Squares   F-statistic:                              22.38
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.29e-88
+Time:                        20:51:34   Log-Likelihood:                         -153.99
+No. Observations:                 537   AIC:                                      390.0
+Df Residuals:                     496   BIC:                                      565.7
+Df Model:                          41                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.4959      0.253      1.963      0.050      -0.000       0.992
-NEMScr                0.0006      0.001      0.682      0.495      -0.001       0.002
-Ranking              -0.0005      0.001     -0.648      0.517      -0.002       0.001
-LangScr               0.0003      0.000      0.939      0.348      -0.000       0.001
-ScienScr           7.048e-05      0.000      0.233      0.816      -0.001       0.001
-S1_DRP                0.0223      0.016      1.405      0.161      -0.009       0.053
-S1_CVL               -0.0017      0.006     -0.288      0.774      -0.013       0.010
-S1_GRD_1TO19          0.0488      0.027      1.810      0.071      -0.004       0.102
-S1_GRD_2TO29          0.0197      0.025      0.801      0.423      -0.029       0.068
-S1_GRD_3TO39          0.0089      0.018      0.504      0.615      -0.026       0.043
-S1_GRD_4TO49         -0.0510      0.017     -2.990      0.003      -0.084      -0.017
-S1_GRD_5TO59         -0.0288      0.018     -1.564      0.118      -0.065       0.007
-S1_BEST_GRD          -0.0014      0.002     -0.586      0.558      -0.006       0.003
-S2_DRP               -0.0054      0.011     -0.490      0.624      -0.027       0.016
-S2_BAD                0.0113      0.013      0.899      0.369      -0.013       0.036
-S2_CVL               -0.0253      0.019     -1.302      0.193      -0.063       0.013
-S2_GRD_1TO19         -0.0552      0.032     -1.703      0.089      -0.119       0.008
-S2_GRD_2TO29         -0.0072      0.023     -0.316      0.752      -0.052       0.037
-S2_GRD_3TO39         -0.0551      0.021     -2.613      0.009      -0.096      -0.014
-S2_GRD_4TO49         -0.0731      0.021     -3.491      0.001      -0.114      -0.032
-S2_GRD_5TO59         -0.0558      0.022     -2.535      0.012      -0.099      -0.013
-S2_GRD_6TO7          -0.0597      0.029     -2.044      0.041      -0.117      -0.002
-S2_BEST_GRD          -0.0013      0.003     -0.501      0.616      -0.007       0.004
-S2_VS_S1             -0.0040      0.003     -1.224      0.222      -0.010       0.002
-SchoolRegion_1       -0.3219      0.123     -2.612      0.009      -0.564      -0.080
-SchoolRegion_2       -0.0659      0.060     -1.104      0.270      -0.183       0.051
-SchoolRegion_3       -0.0745      0.089     -0.839      0.402      -0.249       0.100
-EdTypeCode_1         -0.0636      0.083     -0.768      0.443      -0.227       0.099
-EdTypeCode_2          0.0385      0.114      0.339      0.735      -0.185       0.262
-SchoolType_1          0.1478      0.075      1.975      0.049       0.001       0.295
-SchoolType_2          0.1236      0.063      1.955      0.051      -0.001       0.248
-SchoolType_4          0.1266      0.036      3.497      0.001       0.055       0.198
-MotherEd_1           -0.1268      0.070     -1.803      0.072      -0.265       0.011
-MotherEd_2           -0.1768      0.106     -1.674      0.095      -0.384       0.031
-MotherEd_3           -0.1839      0.072     -2.569      0.010      -0.325      -0.043
-MotherEd_4           -0.1895      0.088     -2.142      0.033      -0.363      -0.016
-MotherEd_5           -0.2698      0.107     -2.530      0.012      -0.479      -0.060
-MotherEd_6           -0.1323      0.079     -1.672      0.095      -0.288       0.023
-MotherEd_7           -0.1790      0.082     -2.176      0.030      -0.341      -0.017
-Campus_1              0.2299      0.125      1.842      0.066      -0.015       0.475
-PostulationType_1     0.1520      0.081      1.877      0.061      -0.007       0.311
+NEMScr                0.0007      0.001      0.767      0.444      -0.001       0.003
+Ranking              -0.0005      0.001     -0.718      0.473      -0.002       0.001
+LangScr               0.0003      0.000      1.021      0.308      -0.000       0.001
+MathScr            -7.64e-05      0.000     -0.186      0.853      -0.001       0.001
+ScienScr              0.0001      0.000      0.330      0.741      -0.001       0.001
+S1_DRP                0.0290      0.021      1.373      0.170      -0.012       0.070
+S1_BAD                0.0115      0.028      0.412      0.680      -0.043       0.067
+S1_CVL               -0.0022      0.006     -0.352      0.725      -0.014       0.010
+S1_GRD_1TO19          0.0586      0.036      1.647      0.100      -0.011       0.128
+S1_GRD_2TO29          0.0301      0.037      0.815      0.416      -0.042       0.103
+S1_GRD_3TO39          0.0198      0.035      0.569      0.569      -0.049       0.088
+S1_GRD_4TO49         -0.0393      0.037     -1.055      0.292      -0.112       0.034
+S1_GRD_5TO59         -0.0164      0.040     -0.409      0.683      -0.095       0.062
+S1_GRD_6TO7           0.0133      0.048      0.276      0.783      -0.081       0.108
+S1_BEST_GRD          -0.0015      0.003     -0.539      0.590      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.511      0.609      -0.027       0.016
+S2_BAD                0.0100      0.013      0.763      0.446      -0.016       0.036
+S2_CVL               -0.0256      0.019     -1.323      0.186      -0.064       0.012
+S2_GRD_1TO19         -0.0548      0.032     -1.695      0.091      -0.118       0.009
+S2_GRD_2TO29         -0.0078      0.023     -0.341      0.733      -0.053       0.037
+S2_GRD_3TO39         -0.0557      0.021     -2.620      0.009      -0.098      -0.014
+S2_GRD_4TO49         -0.0739      0.022     -3.411      0.001      -0.116      -0.031
+S2_GRD_5TO59         -0.0576      0.023     -2.490      0.013      -0.103      -0.012
+S2_GRD_6TO7          -0.0613      0.031     -1.997      0.046      -0.122      -0.001
+S2_BEST_GRD          -0.0015      0.003     -0.542      0.588      -0.007       0.004
+S2_VS_S1             -0.0037      0.003     -1.093      0.275      -0.010       0.003
+SchoolRegion_1        0.2693      0.121      2.230      0.026       0.032       0.506
+SchoolRegion_2        0.3338      0.111      2.999      0.003       0.115       0.552
+SchoolRegion_3        0.2608      0.139      1.881      0.061      -0.012       0.533
+EdTypeCode_1          0.1018      0.087      1.175      0.241      -0.068       0.272
+EdTypeCode_2          0.0641      0.084      0.766      0.444      -0.100       0.229
+SchoolType_1         -0.0189      0.086     -0.221      0.825      -0.187       0.149
+SchoolType_2         -0.1420      0.073     -1.943      0.053      -0.286       0.002
+SchoolType_3         -0.0162      0.069     -0.235      0.814      -0.152       0.120
+SchoolType_4         -0.1366      0.221     -0.619      0.536      -0.571       0.297
+MotherEd_4            0.0571      0.037      1.554      0.121      -0.015       0.129
+MotherEd_5            0.0504      0.051      0.984      0.326      -0.050       0.151
+MotherEd_6           -0.0864      0.087     -0.996      0.320      -0.257       0.084
+MotherEd_7            0.1831      0.069      2.664      0.008       0.048       0.318
+Campus_1              0.2371      0.114      2.075      0.039       0.013       0.462
+PostulationType_1     0.1576      0.079      1.986      0.048       0.002       0.314
 ==============================================================================
-Omnibus:                       33.695   Durbin-Watson:                   1.927
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.606
-Skew:                           0.470   Prob(JB):                     6.22e-12
-Kurtosis:                       4.193   Cond. No.                     1.99e+04
+Omnibus:                       33.497   Durbin-Watson:                   1.930
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.703
+Skew:                           0.472   Prob(JB):                     9.77e-12
+Kurtosis:                       4.173   Cond. No.                     1.97e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.99e+04. This might indicate that there are
+[2] The condition number is large, 1.97e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
-Model:                            OLS   Adj. R-squared:                  0.462
-Method:                 Least Squares   F-statistic:                     12.81
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.66e-53
-Time:                        23:10:00   Log-Likelihood:                -154.06
-No. Observations:                 537   AIC:                             388.1
-Df Residuals:                     497   BIC:                             559.6
-Df Model:                          39                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.621
+Method:                 Least Squares   F-statistic:                              22.98
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.53e-88
+Time:                        20:51:34   Log-Likelihood:                         -154.01
+No. Observations:                 537   AIC:                                      388.0
+Df Residuals:                     497   BIC:                                      559.5
+Df Model:                          40                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5173      0.235      2.202      0.028       0.056       0.979
-NEMScr                0.0006      0.001      0.690      0.491      -0.001       0.002
-Ranking              -0.0005      0.001     -0.653      0.514      -0.002       0.001
-LangScr               0.0003      0.000      1.080      0.281      -0.000       0.001
-S1_DRP                0.0224      0.016      1.415      0.158      -0.009       0.053
-S1_CVL               -0.0017      0.006     -0.282      0.778      -0.013       0.010
-S1_GRD_1TO19          0.0482      0.027      1.798      0.073      -0.004       0.101
-S1_GRD_2TO29          0.0197      0.025      0.804      0.422      -0.028       0.068
-S1_GRD_3TO39          0.0086      0.018      0.492      0.623      -0.026       0.043
-S1_GRD_4TO49         -0.0509      0.017     -2.990      0.003      -0.084      -0.017
-S1_GRD_5TO59         -0.0285      0.018     -1.553      0.121      -0.065       0.008
-S1_BEST_GRD          -0.0014      0.002     -0.585      0.559      -0.006       0.003
-S2_DRP               -0.0053      0.011     -0.486      0.627      -0.027       0.016
-S2_BAD                0.0113      0.013      0.899      0.369      -0.013       0.036
-S2_CVL               -0.0251      0.019     -1.293      0.196      -0.063       0.013
-S2_GRD_1TO19         -0.0552      0.032     -1.705      0.089      -0.119       0.008
-S2_GRD_2TO29         -0.0075      0.023     -0.331      0.741      -0.052       0.037
-S2_GRD_3TO39         -0.0555      0.021     -2.649      0.008      -0.097      -0.014
-S2_GRD_4TO49         -0.0732      0.021     -3.496      0.001      -0.114      -0.032
-S2_GRD_5TO59         -0.0559      0.022     -2.539      0.011      -0.099      -0.013
-S2_GRD_6TO7          -0.0596      0.029     -2.042      0.042      -0.117      -0.002
-S2_BEST_GRD          -0.0013      0.003     -0.494      0.622      -0.007       0.004
-S2_VS_S1             -0.0040      0.003     -1.231      0.219      -0.010       0.002
-SchoolRegion_1       -0.3217      0.123     -2.613      0.009      -0.564      -0.080
-SchoolRegion_2       -0.0656      0.060     -1.099      0.272      -0.183       0.052
-SchoolRegion_3       -0.0745      0.089     -0.840      0.401      -0.249       0.100
-EdTypeCode_1         -0.0622      0.083     -0.753      0.452      -0.225       0.100
-EdTypeCode_2          0.0394      0.114      0.347      0.729      -0.184       0.262
-SchoolType_1          0.1490      0.075      1.999      0.046       0.003       0.296
-SchoolType_2          0.1243      0.063      1.971      0.049       0.000       0.248
-SchoolType_4          0.1262      0.036      3.493      0.001       0.055       0.197
-MotherEd_1           -0.1256      0.070     -1.792      0.074      -0.263       0.012
-MotherEd_2           -0.1763      0.105     -1.672      0.095      -0.384       0.031
-MotherEd_3           -0.1830      0.071     -2.563      0.011      -0.323      -0.043
-MotherEd_4           -0.1887      0.088     -2.136      0.033      -0.362      -0.015
-MotherEd_5           -0.2678      0.106     -2.522      0.012      -0.476      -0.059
-MotherEd_6           -0.1312      0.079     -1.662      0.097      -0.286       0.024
-MotherEd_7           -0.1776      0.082     -2.166      0.031      -0.339      -0.017
-Campus_1              0.2296      0.125      1.842      0.066      -0.015       0.475
-PostulationType_1     0.1529      0.081      1.891      0.059      -0.006       0.312
+NEMScr                0.0007      0.001      0.745      0.456      -0.001       0.002
+Ranking              -0.0005      0.001     -0.694      0.488      -0.002       0.001
+LangScr               0.0003      0.000      1.019      0.309      -0.000       0.001
+ScienScr           7.962e-05      0.000      0.277      0.782      -0.000       0.001
+S1_DRP                0.0281      0.021      1.367      0.172      -0.012       0.069
+S1_BAD                0.0103      0.027      0.380      0.704      -0.043       0.064
+S1_CVL               -0.0021      0.006     -0.351      0.726      -0.014       0.010
+S1_GRD_1TO19          0.0577      0.035      1.639      0.102      -0.011       0.127
+S1_GRD_2TO29          0.0294      0.037      0.800      0.424      -0.043       0.101
+S1_GRD_3TO39          0.0189      0.034      0.548      0.584      -0.049       0.086
+S1_GRD_4TO49         -0.0405      0.037     -1.107      0.269      -0.112       0.031
+S1_GRD_5TO59         -0.0178      0.039     -0.453      0.650      -0.095       0.059
+S1_GRD_6TO7           0.0117      0.047      0.248      0.804      -0.081       0.105
+S1_BEST_GRD          -0.0015      0.003     -0.540      0.590      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.512      0.609      -0.027       0.016
+S2_BAD                0.0101      0.013      0.767      0.444      -0.016       0.036
+S2_CVL               -0.0256      0.019     -1.321      0.187      -0.064       0.012
+S2_GRD_1TO19         -0.0549      0.032     -1.699      0.090      -0.118       0.009
+S2_GRD_2TO29         -0.0078      0.023     -0.341      0.733      -0.053       0.037
+S2_GRD_3TO39         -0.0558      0.021     -2.627      0.009      -0.098      -0.014
+S2_GRD_4TO49         -0.0742      0.022     -3.438      0.001      -0.117      -0.032
+S2_GRD_5TO59         -0.0575      0.023     -2.489      0.013      -0.103      -0.012
+S2_GRD_6TO7          -0.0617      0.031     -2.018      0.044      -0.122      -0.002
+S2_BEST_GRD          -0.0015      0.003     -0.538      0.591      -0.007       0.004
+S2_VS_S1             -0.0037      0.003     -1.091      0.276      -0.010       0.003
+SchoolRegion_1        0.2646      0.118      2.243      0.025       0.033       0.496
+SchoolRegion_2        0.3300      0.109      3.019      0.003       0.115       0.545
+SchoolRegion_3        0.2561      0.136      1.880      0.061      -0.012       0.524
+EdTypeCode_1          0.1027      0.086      1.189      0.235      -0.067       0.273
+EdTypeCode_2          0.0633      0.083      0.758      0.449      -0.101       0.227
+SchoolType_1         -0.0203      0.085     -0.238      0.812      -0.187       0.147
+SchoolType_2         -0.1446      0.072     -2.022      0.044      -0.285      -0.004
+SchoolType_3         -0.0182      0.068     -0.266      0.790      -0.152       0.116
+SchoolType_4         -0.1393      0.220     -0.633      0.527      -0.572       0.293
+MotherEd_4            0.0568      0.037      1.548      0.122      -0.015       0.129
+MotherEd_5            0.0506      0.051      0.989      0.323      -0.050       0.151
+MotherEd_6           -0.0863      0.087     -0.996      0.320      -0.257       0.084
+MotherEd_7            0.1829      0.069      2.663      0.008       0.048       0.318
+Campus_1              0.2348      0.113      2.069      0.039       0.012       0.458
+PostulationType_1     0.1551      0.078      1.986      0.048       0.002       0.308
 ==============================================================================
-Omnibus:                       34.175   Durbin-Watson:                   1.924
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.380
-Skew:                           0.475   Prob(JB):                     4.23e-12
-Kurtosis:                       4.199   Cond. No.                     1.64e+04
+Omnibus:                       33.610   Durbin-Watson:                   1.929
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.994
+Skew:                           0.472   Prob(JB):                     8.45e-12
+Kurtosis:                       4.178   Cond. No.                     1.70e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.64e+04. This might indicate that there are
+[2] The condition number is large, 1.7e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
-Model:                            OLS   Adj. R-squared:                  0.463
-Method:                 Least Squares   F-statistic:                     13.17
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.04e-53
-Time:                        23:10:00   Log-Likelihood:                -154.11
-No. Observations:                 537   AIC:                             386.2
-Df Residuals:                     498   BIC:                             553.4
-Df Model:                          38                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.622
+Method:                 Least Squares   F-statistic:                              23.61
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.22e-89
+Time:                        20:51:34   Log-Likelihood:                         -154.04
+No. Observations:                 537   AIC:                                      386.1
+Df Residuals:                     498   BIC:                                      553.2
+Df Model:                          39                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5079      0.232      2.186      0.029       0.051       0.964
-NEMScr                0.0006      0.001      0.664      0.507      -0.001       0.002
-Ranking              -0.0005      0.001     -0.629      0.529      -0.002       0.001
-LangScr               0.0003      0.000      1.107      0.269      -0.000       0.001
-S1_DRP                0.0211      0.015      1.394      0.164      -0.009       0.051
-S1_GRD_1TO19          0.0477      0.027      1.784      0.075      -0.005       0.100
-S1_GRD_2TO29          0.0195      0.025      0.796      0.426      -0.029       0.068
-S1_GRD_3TO39          0.0086      0.018      0.492      0.623      -0.026       0.043
-S1_GRD_4TO49         -0.0509      0.017     -2.989      0.003      -0.084      -0.017
-S1_GRD_5TO59         -0.0287      0.018     -1.568      0.117      -0.065       0.007
-S1_BEST_GRD          -0.0014      0.002     -0.601      0.548      -0.006       0.003
-S2_DRP               -0.0054      0.011     -0.498      0.618      -0.027       0.016
-S2_BAD                0.0109      0.012      0.878      0.381      -0.014       0.035
-S2_CVL               -0.0251      0.019     -1.297      0.195      -0.063       0.013
-S2_GRD_1TO19         -0.0553      0.032     -1.708      0.088      -0.119       0.008
-S2_GRD_2TO29         -0.0077      0.023     -0.341      0.733      -0.052       0.037
-S2_GRD_3TO39         -0.0559      0.021     -2.677      0.008      -0.097      -0.015
-S2_GRD_4TO49         -0.0734      0.021     -3.513      0.000      -0.114      -0.032
-S2_GRD_5TO59         -0.0563      0.022     -2.569      0.010      -0.099      -0.013
-S2_GRD_6TO7          -0.0606      0.029     -2.094      0.037      -0.117      -0.004
-S2_BEST_GRD          -0.0013      0.003     -0.494      0.622      -0.007       0.004
-S2_VS_S1             -0.0040      0.003     -1.228      0.220      -0.010       0.002
-SchoolRegion_1       -0.3249      0.122     -2.654      0.008      -0.565      -0.084
-SchoolRegion_2       -0.0652      0.060     -1.094      0.274      -0.182       0.052
-SchoolRegion_3       -0.0729      0.088     -0.824      0.410      -0.247       0.101
-EdTypeCode_1         -0.0595      0.082     -0.726      0.468      -0.220       0.102
-EdTypeCode_2          0.0421      0.113      0.373      0.710      -0.180       0.264
-SchoolType_1          0.1487      0.074      1.996      0.046       0.002       0.295
-SchoolType_2          0.1235      0.063      1.962      0.050      -0.000       0.247
-SchoolType_4          0.1261      0.036      3.495      0.001       0.055       0.197
-MotherEd_1           -0.1263      0.070     -1.805      0.072      -0.264       0.011
-MotherEd_2           -0.1766      0.105     -1.676      0.094      -0.384       0.030
-MotherEd_3           -0.1836      0.071     -2.573      0.010      -0.324      -0.043
-MotherEd_4           -0.1890      0.088     -2.141      0.033      -0.362      -0.016
-MotherEd_5           -0.2686      0.106     -2.533      0.012      -0.477      -0.060
-MotherEd_6           -0.1322      0.079     -1.679      0.094      -0.287       0.022
-MotherEd_7           -0.1782      0.082     -2.176      0.030      -0.339      -0.017
-Campus_1              0.2316      0.124      1.862      0.063      -0.013       0.476
-PostulationType_1     0.1648      0.069      2.397      0.017       0.030       0.300
+NEMScr                0.0007      0.001      0.732      0.465      -0.001       0.002
+Ranking              -0.0005      0.001     -0.688      0.492      -0.002       0.001
+LangScr               0.0003      0.000      1.009      0.313      -0.000       0.001
+ScienScr           7.651e-05      0.000      0.267      0.790      -0.000       0.001
+S1_DRP                0.0281      0.021      1.365      0.173      -0.012       0.068
+S1_BAD                0.0101      0.027      0.371      0.711      -0.043       0.063
+S1_CVL               -0.0022      0.006     -0.359      0.720      -0.014       0.010
+S1_GRD_1TO19          0.0577      0.035      1.641      0.101      -0.011       0.127
+S1_GRD_2TO29          0.0290      0.037      0.792      0.428      -0.043       0.101
+S1_GRD_3TO39          0.0186      0.034      0.541      0.589      -0.049       0.086
+S1_GRD_4TO49         -0.0407      0.037     -1.111      0.267      -0.113       0.031
+S1_GRD_5TO59         -0.0179      0.039     -0.455      0.649      -0.095       0.059
+S1_GRD_6TO7           0.0117      0.047      0.248      0.804      -0.081       0.105
+S1_BEST_GRD          -0.0014      0.003     -0.537      0.592      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.514      0.607      -0.027       0.016
+S2_BAD                0.0099      0.013      0.754      0.451      -0.016       0.036
+S2_CVL               -0.0255      0.019     -1.321      0.187      -0.063       0.012
+S2_GRD_1TO19         -0.0552      0.032     -1.711      0.088      -0.119       0.008
+S2_GRD_2TO29         -0.0081      0.023     -0.353      0.724      -0.053       0.037
+S2_GRD_3TO39         -0.0562      0.021     -2.652      0.008      -0.098      -0.015
+S2_GRD_4TO49         -0.0743      0.022     -3.447      0.001      -0.117      -0.032
+S2_GRD_5TO59         -0.0579      0.023     -2.512      0.012      -0.103      -0.013
+S2_GRD_6TO7          -0.0622      0.031     -2.037      0.042      -0.122      -0.002
+S2_BEST_GRD          -0.0014      0.003     -0.533      0.594      -0.007       0.004
+S2_VS_S1             -0.0037      0.003     -1.091      0.276      -0.010       0.003
+SchoolRegion_1        0.2627      0.118      2.235      0.026       0.032       0.494
+SchoolRegion_2        0.3275      0.109      3.013      0.003       0.114       0.541
+SchoolRegion_3        0.2549      0.136      1.874      0.061      -0.012       0.522
+EdTypeCode_1          0.1027      0.086      1.190      0.235      -0.067       0.272
+EdTypeCode_2          0.0616      0.083      0.742      0.459      -0.102       0.225
+SchoolType_2         -0.1329      0.052     -2.568      0.011      -0.235      -0.031
+SchoolType_3         -0.0062      0.046     -0.134      0.893      -0.097       0.085
+SchoolType_4         -0.1270      0.214     -0.594      0.553      -0.547       0.293
+MotherEd_4            0.0567      0.037      1.548      0.122      -0.015       0.129
+MotherEd_5            0.0510      0.051      0.999      0.318      -0.049       0.151
+MotherEd_6           -0.0854      0.086     -0.988      0.324      -0.255       0.085
+MotherEd_7            0.1824      0.069      2.661      0.008       0.048       0.317
+Campus_1              0.2318      0.113      2.057      0.040       0.010       0.453
+PostulationType_1     0.1543      0.078      1.980      0.048       0.001       0.307
 ==============================================================================
-Omnibus:                       34.536   Durbin-Watson:                   1.924
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               53.011
-Skew:                           0.479   Prob(JB):                     3.08e-12
-Kurtosis:                       4.205   Cond. No.                     1.62e+04
+Omnibus:                       33.404   Durbin-Watson:                   1.928
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.782
+Skew:                           0.469   Prob(JB):                     9.39e-12
+Kurtosis:                       4.179   Cond. No.                     1.69e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.62e+04. This might indicate that there are
+[2] The condition number is large, 1.69e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     13.55
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.94e-54
-Time:                        23:10:00   Log-Likelihood:                -154.17
-No. Observations:                 537   AIC:                             384.3
-Df Residuals:                     499   BIC:                             547.2
-Df Model:                          37                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.622
+Method:                 Least Squares   F-statistic:                              24.28
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    6.53e-90
+Time:                        20:51:34   Log-Likelihood:                         -154.05
+No. Observations:                 537   AIC:                                      384.1
+Df Residuals:                     499   BIC:                                      547.0
+Df Model:                          38                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5067      0.232      2.183      0.029       0.051       0.963
-NEMScr                0.0006      0.001      0.645      0.519      -0.001       0.002
-Ranking              -0.0004      0.001     -0.612      0.541      -0.002       0.001
-LangScr               0.0003      0.000      1.130      0.259      -0.000       0.001
-S1_DRP                0.0213      0.015      1.408      0.160      -0.008       0.051
-S1_GRD_1TO19          0.0466      0.026      1.758      0.079      -0.005       0.099
-S1_GRD_2TO29          0.0181      0.024      0.750      0.453      -0.029       0.066
-S1_GRD_3TO39          0.0075      0.017      0.436      0.663      -0.026       0.041
-S1_GRD_4TO49         -0.0523      0.016     -3.185      0.002      -0.085      -0.020
-S1_GRD_5TO59         -0.0290      0.018     -1.588      0.113      -0.065       0.007
-S1_BEST_GRD          -0.0013      0.002     -0.567      0.571      -0.006       0.003
-S2_DRP               -0.0046      0.011     -0.435      0.664      -0.026       0.016
-S2_BAD                0.0121      0.012      1.017      0.310      -0.011       0.036
-S2_CVL               -0.0247      0.019     -1.280      0.201      -0.063       0.013
-S2_GRD_1TO19         -0.0532      0.032     -1.675      0.094      -0.116       0.009
-S2_GRD_3TO39         -0.0529      0.019     -2.801      0.005      -0.090      -0.016
-S2_GRD_4TO49         -0.0696      0.018     -3.958      0.000      -0.104      -0.035
-S2_GRD_5TO59         -0.0527      0.019     -2.755      0.006      -0.090      -0.015
-S2_GRD_6TO7          -0.0566      0.027     -2.137      0.033      -0.109      -0.005
-S2_BEST_GRD          -0.0017      0.002     -0.715      0.475      -0.006       0.003
-S2_VS_S1             -0.0038      0.003     -1.195      0.232      -0.010       0.002
-SchoolRegion_1       -0.3273      0.122     -2.680      0.008      -0.567      -0.087
-SchoolRegion_2       -0.0664      0.059     -1.116      0.265      -0.183       0.050
-SchoolRegion_3       -0.0716      0.088     -0.811      0.418      -0.245       0.102
-EdTypeCode_1         -0.0600      0.082     -0.734      0.464      -0.221       0.101
-EdTypeCode_2          0.0419      0.113      0.371      0.711      -0.180       0.264
-SchoolType_1          0.1476      0.074      1.985      0.048       0.002       0.294
-SchoolType_2          0.1213      0.063      1.940      0.053      -0.002       0.244
-SchoolType_4          0.1260      0.036      3.495      0.001       0.055       0.197
-MotherEd_1           -0.1261      0.070     -1.804      0.072      -0.263       0.011
-MotherEd_2           -0.1777      0.105     -1.689      0.092      -0.384       0.029
-MotherEd_3           -0.1839      0.071     -2.580      0.010      -0.324      -0.044
-MotherEd_4           -0.1897      0.088     -2.152      0.032      -0.363      -0.017
-MotherEd_5           -0.2689      0.106     -2.538      0.011      -0.477      -0.061
-MotherEd_6           -0.1334      0.079     -1.697      0.090      -0.288       0.021
-MotherEd_7           -0.1787      0.082     -2.185      0.029      -0.339      -0.018
-Campus_1              0.2346      0.124      1.892      0.059      -0.009       0.478
-PostulationType_1     0.1658      0.069      2.415      0.016       0.031       0.301
+NEMScr                0.0007      0.001      0.728      0.467      -0.001       0.002
+Ranking              -0.0005      0.001     -0.687      0.493      -0.002       0.001
+LangScr               0.0003      0.000      1.005      0.315      -0.000       0.001
+ScienScr           7.913e-05      0.000      0.277      0.782      -0.000       0.001
+S1_DRP                0.0275      0.020      1.366      0.173      -0.012       0.067
+S1_BAD                0.0094      0.027      0.354      0.724      -0.043       0.062
+S1_CVL               -0.0021      0.006     -0.352      0.725      -0.014       0.010
+S1_GRD_1TO19          0.0570      0.035      1.641      0.101      -0.011       0.125
+S1_GRD_2TO29          0.0281      0.036      0.782      0.435      -0.043       0.099
+S1_GRD_3TO39          0.0178      0.034      0.527      0.598      -0.049       0.084
+S1_GRD_4TO49         -0.0415      0.036     -1.152      0.250      -0.112       0.029
+S1_GRD_5TO59         -0.0186      0.039     -0.477      0.634      -0.095       0.058
+S1_GRD_6TO7           0.0110      0.047      0.235      0.814      -0.081       0.103
+S1_BEST_GRD          -0.0014      0.003     -0.533      0.594      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.517      0.605      -0.027       0.016
+S2_BAD                0.0100      0.013      0.764      0.445      -0.016       0.036
+S2_CVL               -0.0254      0.019     -1.318      0.188      -0.063       0.012
+S2_GRD_1TO19         -0.0548      0.032     -1.708      0.088      -0.118       0.008
+S2_GRD_2TO29         -0.0077      0.023     -0.341      0.733      -0.052       0.037
+S2_GRD_3TO39         -0.0560      0.021     -2.652      0.008      -0.098      -0.015
+S2_GRD_4TO49         -0.0741      0.021     -3.452      0.001      -0.116      -0.032
+S2_GRD_5TO59         -0.0577      0.023     -2.512      0.012      -0.103      -0.013
+S2_GRD_6TO7          -0.0617      0.030     -2.038      0.042      -0.121      -0.002
+S2_BEST_GRD          -0.0015      0.003     -0.547      0.585      -0.007       0.004
+S2_VS_S1             -0.0037      0.003     -1.090      0.276      -0.010       0.003
+SchoolRegion_1        0.2627      0.117      2.237      0.026       0.032       0.493
+SchoolRegion_2        0.3277      0.109      3.018      0.003       0.114       0.541
+SchoolRegion_3        0.2551      0.136      1.878      0.061      -0.012       0.522
+EdTypeCode_1          0.1019      0.086      1.184      0.237      -0.067       0.271
+EdTypeCode_2          0.0619      0.083      0.746      0.456      -0.101       0.225
+SchoolType_2         -0.1278      0.035     -3.639      0.000      -0.197      -0.059
+SchoolType_4         -0.1209      0.209     -0.579      0.563      -0.531       0.289
+MotherEd_4            0.0569      0.037      1.554      0.121      -0.015       0.129
+MotherEd_5            0.0507      0.051      0.995      0.320      -0.049       0.151
+MotherEd_6           -0.0853      0.086     -0.988      0.324      -0.255       0.084
+MotherEd_7            0.1834      0.068      2.691      0.007       0.050       0.317
+Campus_1              0.2325      0.112      2.067      0.039       0.012       0.453
+PostulationType_1     0.1545      0.078      1.985      0.048       0.002       0.307
 ==============================================================================
-Omnibus:                       33.919   Durbin-Watson:                   1.923
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.952
-Skew:                           0.472   Prob(JB):                     5.23e-12
-Kurtosis:                       4.196   Cond. No.                     1.62e+04
+Omnibus:                       33.357   Durbin-Watson:                   1.929
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.723
+Skew:                           0.468   Prob(JB):                     9.68e-12
+Kurtosis:                       4.179   Cond. No.                     1.69e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.62e+04. This might indicate that there are
+[2] The condition number is large, 1.69e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
-Model:                            OLS   Adj. R-squared:                  0.465
-Method:                 Least Squares   F-statistic:                     13.95
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           8.31e-55
-Time:                        23:10:00   Log-Likelihood:                -154.24
-No. Observations:                 537   AIC:                             382.5
-Df Residuals:                     500   BIC:                             541.1
-Df Model:                          36                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.623
+Method:                 Least Squares   F-statistic:                              24.99
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.33e-90
+Time:                        20:51:34   Log-Likelihood:                         -154.08
+No. Observations:                 537   AIC:                                      382.2
+Df Residuals:                     500   BIC:                                      540.7
+Df Model:                          37                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5224      0.228      2.291      0.022       0.074       0.970
-NEMScr                0.0006      0.001      0.636      0.525      -0.001       0.002
-Ranking              -0.0004      0.001     -0.595      0.552      -0.002       0.001
-LangScr               0.0003      0.000      1.146      0.252      -0.000       0.001
-S1_DRP                0.0213      0.015      1.412      0.158      -0.008       0.051
-S1_GRD_1TO19          0.0457      0.026      1.734      0.084      -0.006       0.098
-S1_GRD_2TO29          0.0183      0.024      0.757      0.449      -0.029       0.066
-S1_GRD_3TO39          0.0076      0.017      0.442      0.659      -0.026       0.041
-S1_GRD_4TO49         -0.0523      0.016     -3.184      0.002      -0.085      -0.020
-S1_GRD_5TO59         -0.0287      0.018     -1.574      0.116      -0.065       0.007
-S1_BEST_GRD          -0.0012      0.002     -0.539      0.590      -0.006       0.003
-S2_DRP               -0.0046      0.011     -0.435      0.664      -0.026       0.016
-S2_BAD                0.0122      0.012      1.019      0.309      -0.011       0.036
-S2_CVL               -0.0245      0.019     -1.271      0.204      -0.062       0.013
-S2_GRD_1TO19         -0.0535      0.032     -1.688      0.092      -0.116       0.009
-S2_GRD_3TO39         -0.0525      0.019     -2.786      0.006      -0.089      -0.015
-S2_GRD_4TO49         -0.0696      0.018     -3.963      0.000      -0.104      -0.035
-S2_GRD_5TO59         -0.0532      0.019     -2.790      0.005      -0.091      -0.016
-S2_GRD_6TO7          -0.0563      0.026     -2.129      0.034      -0.108      -0.004
-S2_BEST_GRD          -0.0018      0.002     -0.747      0.456      -0.006       0.003
-S2_VS_S1             -0.0037      0.003     -1.158      0.247      -0.010       0.003
-SchoolRegion_1       -0.3283      0.122     -2.692      0.007      -0.568      -0.089
-SchoolRegion_2       -0.0678      0.059     -1.143      0.254      -0.184       0.049
-SchoolRegion_3       -0.0721      0.088     -0.817      0.414      -0.245       0.101
-EdTypeCode_1         -0.0804      0.061     -1.327      0.185      -0.200       0.039
-SchoolType_1          0.1481      0.074      1.993      0.047       0.002       0.294
-SchoolType_2          0.1198      0.062      1.921      0.055      -0.003       0.242
-SchoolType_4          0.1265      0.036      3.515      0.000       0.056       0.197
-MotherEd_1           -0.1256      0.070     -1.798      0.073      -0.263       0.012
-MotherEd_2           -0.1753      0.105     -1.671      0.095      -0.381       0.031
-MotherEd_3           -0.1822      0.071     -2.564      0.011      -0.322      -0.043
-MotherEd_4           -0.1896      0.088     -2.153      0.032      -0.363      -0.017
-MotherEd_5           -0.2677      0.106     -2.530      0.012      -0.476      -0.060
-MotherEd_6           -0.1327      0.079     -1.690      0.092      -0.287       0.022
-MotherEd_7           -0.1774      0.082     -2.173      0.030      -0.338      -0.017
-Campus_1              0.2325      0.124      1.880      0.061      -0.011       0.476
-PostulationType_1     0.1665      0.069      2.428      0.016       0.032       0.301
+NEMScr                0.0007      0.001      0.734      0.463      -0.001       0.002
+Ranking              -0.0005      0.001     -0.690      0.491      -0.002       0.001
+LangScr               0.0003      0.000      1.023      0.307      -0.000       0.001
+ScienScr           9.177e-05      0.000      0.328      0.743      -0.000       0.001
+S1_DRP                0.0257      0.019      1.383      0.167      -0.011       0.062
+S1_BAD                0.0055      0.021      0.265      0.791      -0.036       0.047
+S1_CVL               -0.0019      0.006     -0.323      0.746      -0.014       0.010
+S1_GRD_1TO19          0.0522      0.028      1.863      0.063      -0.003       0.107
+S1_GRD_2TO29          0.0220      0.025      0.882      0.378      -0.027       0.071
+S1_GRD_3TO39          0.0112      0.019      0.600      0.549      -0.025       0.048
+S1_GRD_4TO49         -0.0487      0.019     -2.555      0.011      -0.086      -0.011
+S1_GRD_5TO59         -0.0264      0.020     -1.297      0.195      -0.066       0.014
+S1_BEST_GRD          -0.0012      0.002     -0.479      0.632      -0.006       0.004
+S2_DRP               -0.0055      0.011     -0.502      0.616      -0.027       0.016
+S2_BAD                0.0105      0.013      0.823      0.411      -0.015       0.036
+S2_CVL               -0.0254      0.019     -1.319      0.188      -0.063       0.012
+S2_GRD_1TO19         -0.0548      0.032     -1.707      0.088      -0.118       0.008
+S2_GRD_2TO29         -0.0071      0.022     -0.314      0.753      -0.051       0.037
+S2_GRD_3TO39         -0.0553      0.021     -2.647      0.008      -0.096      -0.014
+S2_GRD_4TO49         -0.0728      0.021     -3.507      0.000      -0.114      -0.032
+S2_GRD_5TO59         -0.0560      0.022     -2.567      0.011      -0.099      -0.013
+S2_GRD_6TO7          -0.0596      0.029     -2.059      0.040      -0.116      -0.003
+S2_BEST_GRD          -0.0013      0.003     -0.511      0.609      -0.007       0.004
+S2_VS_S1             -0.0040      0.003     -1.235      0.217      -0.010       0.002
+SchoolRegion_1        0.2653      0.117      2.271      0.024       0.036       0.495
+SchoolRegion_2        0.3299      0.108      3.052      0.002       0.118       0.542
+SchoolRegion_3        0.2572      0.135      1.899      0.058      -0.009       0.523
+EdTypeCode_1          0.1009      0.086      1.175      0.240      -0.068       0.270
+EdTypeCode_2          0.0613      0.083      0.740      0.460      -0.102       0.224
+SchoolType_2         -0.1273      0.035     -3.635      0.000      -0.196      -0.058
+SchoolType_4         -0.1213      0.209     -0.582      0.561      -0.531       0.288
+MotherEd_4            0.0564      0.036      1.544      0.123      -0.015       0.128
+MotherEd_5            0.0506      0.051      0.994      0.321      -0.049       0.151
+MotherEd_6           -0.0854      0.086     -0.989      0.323      -0.255       0.084
+MotherEd_7            0.1834      0.068      2.694      0.007       0.050       0.317
+Campus_1              0.2362      0.111      2.123      0.034       0.018       0.455
+PostulationType_1     0.1552      0.078      1.997      0.046       0.002       0.308
 ==============================================================================
-Omnibus:                       34.346   Durbin-Watson:                   1.922
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.724
-Skew:                           0.476   Prob(JB):                     3.56e-12
-Kurtosis:                       4.203   Cond. No.                     1.60e+04
+Omnibus:                       33.277   Durbin-Watson:                   1.927
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.765
+Skew:                           0.466   Prob(JB):                     9.47e-12
+Kurtosis:                       4.183   Cond. No.                     1.68e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.6e+04. This might indicate that there are
+[2] The condition number is large, 1.68e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
-Model:                            OLS   Adj. R-squared:                  0.466
-Method:                 Least Squares   F-statistic:                     14.36
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.37e-55
-Time:                        23:10:00   Log-Likelihood:                -154.35
-No. Observations:                 537   AIC:                             380.7
-Df Residuals:                     501   BIC:                             535.0
-Df Model:                          35                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.624
+Method:                 Least Squares   F-statistic:                              25.73
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.69e-91
+Time:                        20:51:34   Log-Likelihood:                         -154.12
+No. Observations:                 537   AIC:                                      380.2
+Df Residuals:                     501   BIC:                                      534.5
+Df Model:                          36                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5209      0.228      2.286      0.023       0.073       0.968
-NEMScr                0.0006      0.001      0.627      0.531      -0.001       0.002
-Ranking              -0.0004      0.001     -0.591      0.555      -0.002       0.001
-LangScr               0.0003      0.000      1.157      0.248      -0.000       0.001
-S1_DRP                0.0221      0.015      1.472      0.142      -0.007       0.052
-S1_GRD_1TO19          0.0446      0.026      1.699      0.090      -0.007       0.096
-S1_GRD_2TO29          0.0165      0.024      0.696      0.487      -0.030       0.063
-S1_GRD_3TO39          0.0070      0.017      0.411      0.681      -0.027       0.041
-S1_GRD_4TO49         -0.0531      0.016     -3.261      0.001      -0.085      -0.021
-S1_GRD_5TO59         -0.0292      0.018     -1.607      0.109      -0.065       0.006
-S1_BEST_GRD          -0.0013      0.002     -0.557      0.578      -0.006       0.003
-S2_BAD                0.0136      0.011      1.184      0.237      -0.009       0.036
-S2_CVL               -0.0245      0.019     -1.269      0.205      -0.062       0.013
-S2_GRD_1TO19         -0.0512      0.031     -1.639      0.102      -0.113       0.010
-S2_GRD_3TO39         -0.0512      0.019     -2.755      0.006      -0.088      -0.015
-S2_GRD_4TO49         -0.0687      0.017     -3.943      0.000      -0.103      -0.034
-S2_GRD_5TO59         -0.0529      0.019     -2.778      0.006      -0.090      -0.015
-S2_GRD_6TO7          -0.0561      0.026     -2.121      0.034      -0.108      -0.004
-S2_BEST_GRD          -0.0017      0.002     -0.723      0.470      -0.006       0.003
-S2_VS_S1             -0.0036      0.003     -1.133      0.258      -0.010       0.003
-SchoolRegion_1       -0.3282      0.122     -2.693      0.007      -0.568      -0.089
-SchoolRegion_2       -0.0687      0.059     -1.160      0.247      -0.185       0.048
-SchoolRegion_3       -0.0726      0.088     -0.824      0.410      -0.246       0.101
-EdTypeCode_1         -0.0809      0.061     -1.336      0.182      -0.200       0.038
-SchoolType_1          0.1483      0.074      1.999      0.046       0.003       0.294
-SchoolType_2          0.1202      0.062      1.929      0.054      -0.002       0.243
-SchoolType_4          0.1261      0.036      3.507      0.000       0.055       0.197
-MotherEd_1           -0.1274      0.070     -1.830      0.068      -0.264       0.009
-MotherEd_2           -0.1754      0.105     -1.673      0.095      -0.381       0.031
-MotherEd_3           -0.1828      0.071     -2.575      0.010      -0.322      -0.043
-MotherEd_4           -0.1907      0.088     -2.168      0.031      -0.363      -0.018
-MotherEd_5           -0.2693      0.106     -2.548      0.011      -0.477      -0.062
-MotherEd_6           -0.1350      0.078     -1.725      0.085      -0.289       0.019
-MotherEd_7           -0.1787      0.082     -2.192      0.029      -0.339      -0.019
-Campus_1              0.2347      0.124      1.900      0.058      -0.008       0.477
-PostulationType_1     0.1660      0.068      2.424      0.016       0.031       0.301
+NEMScr                0.0007      0.001      0.748      0.455      -0.001       0.002
+Ranking              -0.0005      0.001     -0.698      0.485      -0.002       0.001
+LangScr               0.0003      0.000      1.066      0.287      -0.000       0.001
+ScienScr           9.928e-05      0.000      0.357      0.722      -0.000       0.001
+S1_DRP                0.0230      0.015      1.492      0.136      -0.007       0.053
+S1_CVL               -0.0016      0.006     -0.267      0.790      -0.013       0.010
+S1_GRD_1TO19          0.0497      0.026      1.881      0.061      -0.002       0.102
+S1_GRD_2TO29          0.0201      0.024      0.842      0.400      -0.027       0.067
+S1_GRD_3TO39          0.0092      0.017      0.540      0.590      -0.024       0.043
+S1_GRD_4TO49         -0.0510      0.017     -3.028      0.003      -0.084      -0.018
+S1_GRD_5TO59         -0.0287      0.018     -1.566      0.118      -0.065       0.007
+S1_BEST_GRD          -0.0014      0.002     -0.589      0.556      -0.006       0.003
+S2_DRP               -0.0054      0.011     -0.492      0.623      -0.027       0.016
+S2_BAD                0.0114      0.012      0.915      0.361      -0.013       0.036
+S2_CVL               -0.0255      0.019     -1.327      0.185      -0.063       0.012
+S2_GRD_1TO19         -0.0549      0.032     -1.711      0.088      -0.118       0.008
+S2_GRD_2TO29         -0.0068      0.022     -0.305      0.761      -0.051       0.037
+S2_GRD_3TO39         -0.0550      0.021     -2.638      0.009      -0.096      -0.014
+S2_GRD_4TO49         -0.0726      0.021     -3.503      0.001      -0.113      -0.032
+S2_GRD_5TO59         -0.0560      0.022     -2.571      0.010      -0.099      -0.013
+S2_GRD_6TO7          -0.0603      0.029     -2.092      0.037      -0.117      -0.004
+S2_BEST_GRD          -0.0013      0.003     -0.499      0.618      -0.006       0.004
+S2_VS_S1             -0.0040      0.003     -1.254      0.210      -0.010       0.002
+SchoolRegion_1        0.2715      0.114      2.375      0.018       0.047       0.496
+SchoolRegion_2        0.3345      0.107      3.139      0.002       0.125       0.544
+SchoolRegion_3        0.2634      0.133      1.976      0.049       0.001       0.525
+EdTypeCode_1          0.1017      0.086      1.186      0.236      -0.067       0.270
+EdTypeCode_2          0.0626      0.083      0.756      0.450      -0.100       0.225
+SchoolType_2         -0.1273      0.035     -3.638      0.000      -0.196      -0.059
+SchoolType_4         -0.1221      0.208     -0.586      0.558      -0.531       0.287
+MotherEd_4            0.0568      0.036      1.560      0.119      -0.015       0.128
+MotherEd_5            0.0504      0.051      0.991      0.322      -0.049       0.150
+MotherEd_6           -0.0848      0.086     -0.983      0.326      -0.254       0.085
+MotherEd_7            0.1837      0.068      2.701      0.007       0.050       0.317
+Campus_1              0.2422      0.109      2.227      0.026       0.029       0.456
+PostulationType_1     0.1575      0.077      2.041      0.042       0.006       0.309
 ==============================================================================
-Omnibus:                       34.007   Durbin-Watson:                   1.922
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.445
-Skew:                           0.471   Prob(JB):                     4.09e-12
-Kurtosis:                       4.207   Cond. No.                     1.60e+04
+Omnibus:                       32.894   Durbin-Watson:                   1.927
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.322
+Skew:                           0.461   Prob(JB):                     1.18e-11
+Kurtosis:                       4.183   Cond. No.                     1.65e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.6e+04. This might indicate that there are
+[2] The condition number is large, 1.65e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.501
-Model:                            OLS   Adj. R-squared:                  0.467
-Method:                 Least Squares   F-statistic:                     14.80
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.61e-56
-Time:                        23:10:00   Log-Likelihood:                -154.44
-No. Observations:                 537   AIC:                             378.9
-Df Residuals:                     502   BIC:                             528.9
-Df Model:                          34                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.624
+Method:                 Least Squares   F-statistic:                              26.51
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    5.36e-92
+Time:                        20:51:34   Log-Likelihood:                         -154.15
+No. Observations:                 537   AIC:                                      378.3
+Df Residuals:                     502   BIC:                                      528.3
+Df Model:                          35                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5398      0.223      2.421      0.016       0.102       0.978
-NEMScr                0.0006      0.001      0.620      0.535      -0.001       0.002
-Ranking              -0.0004      0.001     -0.591      0.555      -0.002       0.001
-LangScr               0.0003      0.000      1.134      0.257      -0.000       0.001
-S1_DRP                0.0209      0.015      1.421      0.156      -0.008       0.050
-S1_GRD_1TO19          0.0418      0.025      1.650      0.099      -0.008       0.092
-S1_GRD_2TO29          0.0141      0.023      0.613      0.540      -0.031       0.059
-S1_GRD_4TO49         -0.0560      0.015     -3.827      0.000      -0.085      -0.027
-S1_GRD_5TO59         -0.0324      0.016     -1.970      0.049      -0.065   -9.29e-05
-S1_BEST_GRD          -0.0010      0.002     -0.465      0.642      -0.005       0.003
-S2_BAD                0.0133      0.011      1.166      0.244      -0.009       0.036
-S2_CVL               -0.0252      0.019     -1.316      0.189      -0.063       0.012
-S2_GRD_1TO19         -0.0504      0.031     -1.619      0.106      -0.112       0.011
-S2_GRD_3TO39         -0.0509      0.019     -2.744      0.006      -0.087      -0.014
-S2_GRD_4TO49         -0.0690      0.017     -3.968      0.000      -0.103      -0.035
-S2_GRD_5TO59         -0.0536      0.019     -2.829      0.005      -0.091      -0.016
-S2_GRD_6TO7          -0.0579      0.026     -2.226      0.026      -0.109      -0.007
-S2_BEST_GRD          -0.0017      0.002     -0.738      0.461      -0.006       0.003
-S2_VS_S1             -0.0034      0.003     -1.094      0.275      -0.010       0.003
-SchoolRegion_1       -0.3251      0.122     -2.675      0.008      -0.564      -0.086
-SchoolRegion_2       -0.0684      0.059     -1.156      0.248      -0.185       0.048
-SchoolRegion_3       -0.0739      0.088     -0.839      0.402      -0.247       0.099
-EdTypeCode_1         -0.0815      0.060     -1.347      0.179      -0.200       0.037
-SchoolType_1          0.1479      0.074      1.995      0.047       0.002       0.294
-SchoolType_2          0.1203      0.062      1.933      0.054      -0.002       0.243
-SchoolType_4          0.1269      0.036      3.537      0.000       0.056       0.197
-MotherEd_1           -0.1298      0.069     -1.871      0.062      -0.266       0.006
-MotherEd_2           -0.1780      0.105     -1.702      0.089      -0.383       0.027
-MotherEd_3           -0.1845      0.071     -2.607      0.009      -0.324      -0.045
-MotherEd_4           -0.1920      0.088     -2.187      0.029      -0.365      -0.019
-MotherEd_5           -0.2714      0.105     -2.573      0.010      -0.479      -0.064
-MotherEd_6           -0.1377      0.078     -1.768      0.078      -0.291       0.015
-MotherEd_7           -0.1813      0.081     -2.233      0.026      -0.341      -0.022
-Campus_1              0.2330      0.123      1.889      0.060      -0.009       0.475
-PostulationType_1     0.1654      0.068      2.417      0.016       0.031       0.300
+NEMScr                0.0006      0.001      0.719      0.473      -0.001       0.002
+Ranking              -0.0005      0.001     -0.672      0.502      -0.002       0.001
+LangScr               0.0003      0.000      1.081      0.280      -0.000       0.001
+ScienScr            9.31e-05      0.000      0.336      0.737      -0.000       0.001
+S1_DRP                0.0217      0.015      1.485      0.138      -0.007       0.050
+S1_GRD_1TO19          0.0491      0.026      1.866      0.063      -0.003       0.101
+S1_GRD_2TO29          0.0198      0.024      0.832      0.406      -0.027       0.067
+S1_GRD_3TO39          0.0091      0.017      0.534      0.594      -0.024       0.043
+S1_GRD_4TO49         -0.0510      0.017     -3.028      0.003      -0.084      -0.018
+S1_GRD_5TO59         -0.0289      0.018     -1.580      0.115      -0.065       0.007
+S1_BEST_GRD          -0.0014      0.002     -0.604      0.546      -0.006       0.003
+S2_DRP               -0.0055      0.011     -0.504      0.615      -0.027       0.016
+S2_BAD                0.0110      0.012      0.892      0.373      -0.013       0.035
+S2_CVL               -0.0255      0.019     -1.328      0.185      -0.063       0.012
+S2_GRD_1TO19         -0.0550      0.032     -1.716      0.087      -0.118       0.008
+S2_GRD_2TO29         -0.0071      0.022     -0.318      0.751      -0.051       0.037
+S2_GRD_3TO39         -0.0554      0.021     -2.671      0.008      -0.096      -0.015
+S2_GRD_4TO49         -0.0729      0.021     -3.524      0.000      -0.114      -0.032
+S2_GRD_5TO59         -0.0565      0.022     -2.602      0.010      -0.099      -0.014
+S2_GRD_6TO7          -0.0612      0.029     -2.143      0.033      -0.117      -0.005
+S2_BEST_GRD          -0.0013      0.003     -0.499      0.618      -0.006       0.004
+S2_VS_S1             -0.0040      0.003     -1.249      0.212      -0.010       0.002
+SchoolRegion_1        0.2726      0.114      2.389      0.017       0.048       0.497
+SchoolRegion_2        0.3355      0.106      3.153      0.002       0.126       0.545
+SchoolRegion_3        0.2657      0.133      1.999      0.046       0.005       0.527
+EdTypeCode_1          0.1017      0.086      1.188      0.236      -0.067       0.270
+EdTypeCode_2          0.0597      0.082      0.729      0.466      -0.101       0.221
+SchoolType_2         -0.1272      0.035     -3.639      0.000      -0.196      -0.059
+SchoolType_4         -0.1224      0.208     -0.588      0.557      -0.531       0.286
+MotherEd_4            0.0566      0.036      1.555      0.121      -0.015       0.128
+MotherEd_5            0.0500      0.051      0.984      0.325      -0.050       0.150
+MotherEd_6           -0.0852      0.086     -0.989      0.323      -0.254       0.084
+MotherEd_7            0.1840      0.068      2.709      0.007       0.051       0.317
+Campus_1              0.2420      0.109      2.227      0.026       0.029       0.455
+PostulationType_1     0.1680      0.066      2.541      0.011       0.038       0.298
 ==============================================================================
-Omnibus:                       34.300   Durbin-Watson:                   1.922
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.815
-Skew:                           0.475   Prob(JB):                     3.40e-12
-Kurtosis:                       4.208   Cond. No.                     1.56e+04
+Omnibus:                       33.326   Durbin-Watson:                   1.927
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.078
+Skew:                           0.465   Prob(JB):                     8.10e-12
+Kurtosis:                       4.190   Cond. No.                     1.65e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.56e+04. This might indicate that there are
+[2] The condition number is large, 1.65e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.500
-Model:                            OLS   Adj. R-squared:                  0.468
-Method:                 Least Squares   F-statistic:                     15.27
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.85e-56
-Time:                        23:10:00   Log-Likelihood:                -154.55
-No. Observations:                 537   AIC:                             377.1
-Df Residuals:                     503   BIC:                             522.8
-Df Model:                          33                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.625
+Method:                 Least Squares   F-statistic:                              27.33
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.07e-92
+Time:                        20:51:34   Log-Likelihood:                         -154.21
+No. Observations:                 537   AIC:                                      376.4
+Df Residuals:                     503   BIC:                                      522.1
+Df Model:                          34                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5338      0.222      2.400      0.017       0.097       0.971
-NEMScr                0.0006      0.001      0.615      0.539      -0.001       0.002
-Ranking              -0.0004      0.001     -0.594      0.553      -0.002       0.001
-LangScr               0.0003      0.000      1.162      0.246      -0.000       0.001
-S1_DRP                0.0222      0.014      1.537      0.125      -0.006       0.051
-S1_GRD_1TO19          0.0424      0.025      1.676      0.094      -0.007       0.092
-S1_GRD_2TO29          0.0090      0.020      0.445      0.656      -0.031       0.049
-S1_GRD_4TO49         -0.0553      0.015     -3.802      0.000      -0.084      -0.027
-S1_GRD_5TO59         -0.0302      0.016     -1.919      0.056      -0.061       0.001
-S2_BAD                0.0126      0.011      1.112      0.267      -0.010       0.035
-S2_CVL               -0.0254      0.019     -1.324      0.186      -0.063       0.012
-S2_GRD_1TO19         -0.0496      0.031     -1.595      0.111      -0.111       0.011
-S2_GRD_3TO39         -0.0515      0.018     -2.783      0.006      -0.088      -0.015
-S2_GRD_4TO49         -0.0713      0.017     -4.285      0.000      -0.104      -0.039
-S2_GRD_5TO59         -0.0568      0.018     -3.226      0.001      -0.091      -0.022
-S2_GRD_6TO7          -0.0589      0.026     -2.269      0.024      -0.110      -0.008
-S2_BEST_GRD          -0.0025      0.002     -1.375      0.170      -0.006       0.001
-S2_VS_S1             -0.0023      0.002     -1.159      0.247      -0.006       0.002
-SchoolRegion_1       -0.3245      0.121     -2.671      0.008      -0.563      -0.086
-SchoolRegion_2       -0.0693      0.059     -1.174      0.241      -0.185       0.047
-SchoolRegion_3       -0.0788      0.087     -0.902      0.367      -0.250       0.093
-EdTypeCode_1         -0.0828      0.060     -1.372      0.171      -0.201       0.036
-SchoolType_1          0.1458      0.074      1.972      0.049       0.001       0.291
-SchoolType_2          0.1197      0.062      1.924      0.055      -0.003       0.242
-SchoolType_4          0.1256      0.036      3.515      0.000       0.055       0.196
-MotherEd_1           -0.1308      0.069     -1.888      0.060      -0.267       0.005
-MotherEd_2           -0.1723      0.104     -1.660      0.097      -0.376       0.032
-MotherEd_3           -0.1841      0.071     -2.603      0.010      -0.323      -0.045
-MotherEd_4           -0.1902      0.088     -2.170      0.030      -0.362      -0.018
-MotherEd_5           -0.2708      0.105     -2.570      0.010      -0.478      -0.064
-MotherEd_6           -0.1377      0.078     -1.769      0.077      -0.291       0.015
-MotherEd_7           -0.1805      0.081     -2.225      0.026      -0.340      -0.021
-Campus_1              0.2272      0.123      1.853      0.065      -0.014       0.468
-PostulationType_1     0.1654      0.068      2.420      0.016       0.031       0.300
+NEMScr                0.0006      0.001      0.693      0.488      -0.001       0.002
+Ranking              -0.0005      0.001     -0.649      0.517      -0.002       0.001
+LangScr               0.0003      0.000      1.088      0.277      -0.000       0.001
+ScienScr           9.495e-05      0.000      0.343      0.732      -0.000       0.001
+S1_DRP                0.0218      0.015      1.495      0.135      -0.007       0.050
+S1_GRD_1TO19          0.0481      0.026      1.843      0.066      -0.003       0.099
+S1_GRD_2TO29          0.0184      0.023      0.788      0.431      -0.028       0.064
+S1_GRD_3TO39          0.0080      0.017      0.480      0.631      -0.025       0.041
+S1_GRD_4TO49         -0.0524      0.016     -3.224      0.001      -0.084      -0.020
+S1_GRD_5TO59         -0.0292      0.018     -1.602      0.110      -0.065       0.007
+S1_BEST_GRD          -0.0013      0.002     -0.571      0.568      -0.006       0.003
+S2_DRP               -0.0047      0.011     -0.444      0.657      -0.026       0.016
+S2_BAD                0.0121      0.012      1.020      0.308      -0.011       0.035
+S2_CVL               -0.0252      0.019     -1.313      0.190      -0.063       0.012
+S2_GRD_1TO19         -0.0531      0.031     -1.688      0.092      -0.115       0.009
+S2_GRD_3TO39         -0.0527      0.019     -2.801      0.005      -0.090      -0.016
+S2_GRD_4TO49         -0.0694      0.017     -3.973      0.000      -0.104      -0.035
+S2_GRD_5TO59         -0.0531      0.019     -2.798      0.005      -0.090      -0.016
+S2_GRD_6TO7          -0.0577      0.026     -2.196      0.029      -0.109      -0.006
+S2_BEST_GRD          -0.0017      0.002     -0.710      0.478      -0.006       0.003
+S2_VS_S1             -0.0039      0.003     -1.218      0.224      -0.010       0.002
+SchoolRegion_1        0.2718      0.114      2.384      0.017       0.048       0.496
+SchoolRegion_2        0.3359      0.106      3.160      0.002       0.127       0.545
+SchoolRegion_3        0.2673      0.133      2.015      0.044       0.007       0.528
+EdTypeCode_1          0.1027      0.086      1.201      0.230      -0.065       0.271
+EdTypeCode_2          0.0603      0.082      0.737      0.462      -0.101       0.221
+SchoolType_2         -0.1268      0.035     -3.633      0.000      -0.195      -0.058
+SchoolType_4         -0.1269      0.207     -0.612      0.541      -0.535       0.281
+MotherEd_4            0.0571      0.036      1.572      0.117      -0.014       0.128
+MotherEd_5            0.0494      0.051      0.975      0.330      -0.050       0.149
+MotherEd_6           -0.0852      0.086     -0.990      0.323      -0.254       0.084
+MotherEd_7            0.1843      0.068      2.716      0.007       0.051       0.318
+Campus_1              0.2429      0.109      2.239      0.026       0.030       0.456
+PostulationType_1     0.1685      0.066      2.550      0.011       0.039       0.298
 ==============================================================================
-Omnibus:                       33.896   Durbin-Watson:                   1.922
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.995
-Skew:                           0.472   Prob(JB):                     5.12e-12
-Kurtosis:                       4.198   Cond. No.                     1.56e+04
+Omnibus:                       32.789   Durbin-Watson:                   1.926
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.175
+Skew:                           0.460   Prob(JB):                     1.27e-11
+Kurtosis:                       4.182   Cond. No.                     1.65e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.56e+04. This might indicate that there are
+[2] The condition number is large, 1.65e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.500
-Model:                            OLS   Adj. R-squared:                  0.469
-Method:                 Least Squares   F-statistic:                     15.77
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.06e-57
-Time:                        23:10:00   Log-Likelihood:                -154.66
-No. Observations:                 537   AIC:                             375.3
-Df Residuals:                     504   BIC:                             516.8
-Df Model:                          32                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.626
+Method:                 Least Squares   F-statistic:                              28.21
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.11e-93
+Time:                        20:51:34   Log-Likelihood:                         -154.27
+No. Observations:                 537   AIC:                                      374.5
+Df Residuals:                     504   BIC:                                      516.0
+Df Model:                          33                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5500      0.219      2.508      0.012       0.119       0.981
-NEMScr                0.0006      0.001      0.607      0.544      -0.001       0.002
-Ranking              -0.0004      0.001     -0.595      0.552      -0.002       0.001
-LangScr               0.0003      0.000      1.170      0.243      -0.000       0.001
-S1_DRP                0.0204      0.014      1.472      0.142      -0.007       0.048
-S1_GRD_1TO19          0.0415      0.025      1.649      0.100      -0.008       0.091
-S1_GRD_4TO49         -0.0578      0.013     -4.284      0.000      -0.084      -0.031
-S1_GRD_5TO59         -0.0321      0.015     -2.119      0.035      -0.062      -0.002
-S2_BAD                0.0123      0.011      1.089      0.277      -0.010       0.035
-S2_CVL               -0.0255      0.019     -1.330      0.184      -0.063       0.012
-S2_GRD_1TO19         -0.0484      0.031     -1.564      0.119      -0.109       0.012
-S2_GRD_3TO39         -0.0513      0.018     -2.777      0.006      -0.088      -0.015
-S2_GRD_4TO49         -0.0717      0.017     -4.314      0.000      -0.104      -0.039
-S2_GRD_5TO59         -0.0578      0.017     -3.306      0.001      -0.092      -0.023
-S2_GRD_6TO7          -0.0600      0.026     -2.328      0.020      -0.111      -0.009
-S2_BEST_GRD          -0.0025      0.002     -1.376      0.169      -0.006       0.001
-S2_VS_S1             -0.0023      0.002     -1.151      0.250      -0.006       0.002
-SchoolRegion_1       -0.3208      0.121     -2.649      0.008      -0.559      -0.083
-SchoolRegion_2       -0.0681      0.059     -1.155      0.249      -0.184       0.048
-SchoolRegion_3       -0.0747      0.087     -0.861      0.389      -0.245       0.096
-EdTypeCode_1         -0.0843      0.060     -1.400      0.162      -0.203       0.034
-SchoolType_1          0.1452      0.074      1.966      0.050    7.48e-05       0.290
-SchoolType_2          0.1191      0.062      1.917      0.056      -0.003       0.241
-SchoolType_4          0.1268      0.036      3.561      0.000       0.057       0.197
-MotherEd_1           -0.1293      0.069     -1.871      0.062      -0.265       0.006
-MotherEd_2           -0.1692      0.103     -1.635      0.103      -0.372       0.034
-MotherEd_3           -0.1841      0.071     -2.605      0.009      -0.323      -0.045
-MotherEd_4           -0.1886      0.088     -2.155      0.032      -0.361      -0.017
-MotherEd_5           -0.2738      0.105     -2.606      0.009      -0.480      -0.067
-MotherEd_6           -0.1378      0.078     -1.772      0.077      -0.291       0.015
-MotherEd_7           -0.1799      0.081     -2.220      0.027      -0.339      -0.021
-Campus_1              0.2269      0.123      1.852      0.065      -0.014       0.468
-PostulationType_1     0.1650      0.068      2.416      0.016       0.031       0.299
+NEMScr                0.0006      0.001      0.745      0.457      -0.001       0.002
+Ranking              -0.0005      0.001     -0.684      0.494      -0.002       0.001
+LangScr               0.0003      0.000      1.490      0.137      -0.000       0.001
+S1_DRP                0.0225      0.014      1.564      0.119      -0.006       0.051
+S1_GRD_1TO19          0.0477      0.026      1.831      0.068      -0.003       0.099
+S1_GRD_2TO29          0.0189      0.023      0.808      0.419      -0.027       0.065
+S1_GRD_3TO39          0.0081      0.017      0.482      0.630      -0.025       0.041
+S1_GRD_4TO49         -0.0522      0.016     -3.220      0.001      -0.084      -0.020
+S1_GRD_5TO59         -0.0287      0.018     -1.580      0.115      -0.064       0.007
+S1_BEST_GRD          -0.0013      0.002     -0.565      0.573      -0.006       0.003
+S2_DRP               -0.0046      0.011     -0.429      0.668      -0.025       0.016
+S2_BAD                0.0123      0.012      1.040      0.299      -0.011       0.036
+S2_CVL               -0.0250      0.019     -1.307      0.192      -0.063       0.013
+S2_GRD_1TO19         -0.0528      0.031     -1.682      0.093      -0.115       0.009
+S2_GRD_3TO39         -0.0531      0.019     -2.830      0.005      -0.090      -0.016
+S2_GRD_4TO49         -0.0690      0.017     -3.963      0.000      -0.103      -0.035
+S2_GRD_5TO59         -0.0530      0.019     -2.796      0.005      -0.090      -0.016
+S2_GRD_6TO7          -0.0573      0.026     -2.187      0.029      -0.109      -0.006
+S2_BEST_GRD          -0.0016      0.002     -0.697      0.486      -0.006       0.003
+S2_VS_S1             -0.0039      0.003     -1.238      0.216      -0.010       0.002
+SchoolRegion_1        0.2815      0.110      2.552      0.011       0.065       0.498
+SchoolRegion_2        0.3439      0.104      3.319      0.001       0.140       0.547
+SchoolRegion_3        0.2766      0.130      2.131      0.034       0.022       0.532
+EdTypeCode_1          0.1020      0.085      1.194      0.233      -0.066       0.270
+EdTypeCode_2          0.0591      0.082      0.724      0.470      -0.101       0.220
+SchoolType_2         -0.1260      0.035     -3.622      0.000      -0.194      -0.058
+SchoolType_4         -0.1292      0.207     -0.624      0.533      -0.536       0.278
+MotherEd_4            0.0578      0.036      1.595      0.111      -0.013       0.129
+MotherEd_5            0.0493      0.051      0.974      0.330      -0.050       0.149
+MotherEd_6           -0.0829      0.086     -0.968      0.334      -0.251       0.085
+MotherEd_7            0.1830      0.068      2.703      0.007       0.050       0.316
+Campus_1              0.2510      0.106      2.371      0.018       0.043       0.459
+PostulationType_1     0.1721      0.065      2.640      0.009       0.044       0.300
 ==============================================================================
-Omnibus:                       34.321   Durbin-Watson:                   1.925
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.491
-Skew:                           0.477   Prob(JB):                     4.00e-12
-Kurtosis:                       4.197   Cond. No.                     1.55e+04
+Omnibus:                       33.165   Durbin-Watson:                   1.922
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.698
+Skew:                           0.464   Prob(JB):                     9.80e-12
+Kurtosis:                       4.185   Cond. No.                     1.40e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.55e+04. This might indicate that there are
+[2] The condition number is large, 1.4e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.500
-Model:                            OLS   Adj. R-squared:                  0.469
-Method:                 Least Squares   F-statistic:                     16.28
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.47e-57
-Time:                        23:10:00   Log-Likelihood:                -154.85
-No. Observations:                 537   AIC:                             373.7
-Df Residuals:                     505   BIC:                             510.8
-Df Model:                          31                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
+Model:                            OLS   Adj. R-squared (uncentered):              0.626
+Method:                 Least Squares   F-statistic:                              29.13
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    4.23e-94
+Time:                        20:51:34   Log-Likelihood:                         -154.37
+No. Observations:                 537   AIC:                                      372.7
+Df Residuals:                     505   BIC:                                      509.9
+Df Model:                          32                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5750      0.215      2.674      0.008       0.152       0.997
-NEMScr             2.743e-05      0.000      0.125      0.900      -0.000       0.000
-LangScr               0.0003      0.000      1.191      0.234      -0.000       0.001
-S1_DRP                0.0215      0.014      1.570      0.117      -0.005       0.048
-S1_GRD_1TO19          0.0393      0.025      1.579      0.115      -0.010       0.088
-S1_GRD_4TO49         -0.0576      0.013     -4.273      0.000      -0.084      -0.031
-S1_GRD_5TO59         -0.0315      0.015     -2.088      0.037      -0.061      -0.002
-S2_BAD                0.0132      0.011      1.178      0.239      -0.009       0.035
-S2_CVL               -0.0251      0.019     -1.311      0.190      -0.063       0.012
-S2_GRD_1TO19         -0.0486      0.031     -1.574      0.116      -0.109       0.012
-S2_GRD_3TO39         -0.0514      0.018     -2.782      0.006      -0.088      -0.015
-S2_GRD_4TO49         -0.0715      0.017     -4.306      0.000      -0.104      -0.039
-S2_GRD_5TO59         -0.0574      0.017     -3.292      0.001      -0.092      -0.023
-S2_GRD_6TO7          -0.0597      0.026     -2.317      0.021      -0.110      -0.009
-S2_BEST_GRD          -0.0024      0.002     -1.330      0.184      -0.006       0.001
-S2_VS_S1             -0.0023      0.002     -1.180      0.239      -0.006       0.002
-SchoolRegion_1       -0.3269      0.121     -2.712      0.007      -0.564      -0.090
-SchoolRegion_2       -0.0703      0.059     -1.196      0.232      -0.186       0.045
-SchoolRegion_3       -0.0750      0.087     -0.865      0.387      -0.245       0.095
-EdTypeCode_1         -0.0728      0.057     -1.278      0.202      -0.185       0.039
-SchoolType_1          0.1446      0.074      1.959      0.051      -0.000       0.290
-SchoolType_2          0.1189      0.062      1.915      0.056      -0.003       0.241
-SchoolType_4          0.1255      0.036      3.533      0.000       0.056       0.195
-MotherEd_1           -0.1298      0.069     -1.879      0.061      -0.266       0.006
-MotherEd_2           -0.1671      0.103     -1.617      0.107      -0.370       0.036
-MotherEd_3           -0.1832      0.071     -2.594      0.010      -0.322      -0.044
-MotherEd_4           -0.1896      0.087     -2.167      0.031      -0.361      -0.018
-MotherEd_5           -0.2746      0.105     -2.615      0.009      -0.481      -0.068
-MotherEd_6           -0.1387      0.078     -1.785      0.075      -0.291       0.014
-MotherEd_7           -0.1797      0.081     -2.218      0.027      -0.339      -0.021
-Campus_1              0.2324      0.122      1.904      0.058      -0.007       0.472
-PostulationType_1     0.1651      0.068      2.419      0.016       0.031       0.299
+NEMScr                0.0006      0.001      0.731      0.465      -0.001       0.002
+Ranking              -0.0005      0.001     -0.675      0.500      -0.002       0.001
+LangScr               0.0003      0.000      1.497      0.135      -0.000       0.001
+S1_DRP                0.0232      0.014      1.620      0.106      -0.005       0.051
+S1_GRD_1TO19          0.0465      0.026      1.796      0.073      -0.004       0.097
+S1_GRD_2TO29          0.0171      0.023      0.745      0.457      -0.028       0.062
+S1_GRD_3TO39          0.0075      0.017      0.449      0.654      -0.025       0.040
+S1_GRD_4TO49         -0.0532      0.016     -3.308      0.001      -0.085      -0.022
+S1_GRD_5TO59         -0.0293      0.018     -1.616      0.107      -0.065       0.006
+S1_BEST_GRD          -0.0013      0.002     -0.582      0.561      -0.006       0.003
+S2_BAD                0.0137      0.011      1.201      0.230      -0.009       0.036
+S2_CVL               -0.0250      0.019     -1.304      0.193      -0.063       0.013
+S2_GRD_1TO19         -0.0504      0.031     -1.632      0.103      -0.111       0.010
+S2_GRD_3TO39         -0.0518      0.018     -2.799      0.005      -0.088      -0.015
+S2_GRD_4TO49         -0.0681      0.017     -3.943      0.000      -0.102      -0.034
+S2_GRD_5TO59         -0.0528      0.019     -2.786      0.006      -0.090      -0.016
+S2_GRD_6TO7          -0.0570      0.026     -2.179      0.030      -0.108      -0.006
+S2_BEST_GRD          -0.0016      0.002     -0.676      0.499      -0.006       0.003
+S2_VS_S1             -0.0038      0.003     -1.211      0.227      -0.010       0.002
+SchoolRegion_1        0.2794      0.110      2.537      0.011       0.063       0.496
+SchoolRegion_2        0.3429      0.104      3.313      0.001       0.140       0.546
+SchoolRegion_3        0.2753      0.130      2.123      0.034       0.021       0.530
+EdTypeCode_1          0.1033      0.085      1.211      0.226      -0.064       0.271
+EdTypeCode_2          0.0601      0.082      0.737      0.462      -0.100       0.220
+SchoolType_2         -0.1255      0.035     -3.613      0.000      -0.194      -0.057
+SchoolType_4         -0.1385      0.206     -0.673      0.501      -0.543       0.266
+MotherEd_4            0.0566      0.036      1.569      0.117      -0.014       0.128
+MotherEd_5            0.0477      0.050      0.946      0.345      -0.051       0.147
+MotherEd_6           -0.0839      0.086     -0.980      0.328      -0.252       0.084
+MotherEd_7            0.1838      0.068      2.719      0.007       0.051       0.317
+Campus_1              0.2523      0.106      2.386      0.017       0.045       0.460
+PostulationType_1     0.1715      0.065      2.634      0.009       0.044       0.299
 ==============================================================================
-Omnibus:                       34.465   Durbin-Watson:                   1.924
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.428
-Skew:                           0.481   Prob(JB):                     4.12e-12
-Kurtosis:                       4.191   Cond. No.                     1.25e+04
+Omnibus:                       32.863   Durbin-Watson:                   1.921
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.446
+Skew:                           0.459   Prob(JB):                     1.11e-11
+Kurtosis:                       4.188   Cond. No.                     1.40e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.25e+04. This might indicate that there are
+[2] The condition number is large, 1.4e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.500
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     16.86
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.56e-58
-Time:                        23:10:00   Log-Likelihood:                -154.85
-No. Observations:                 537   AIC:                             371.7
-Df Residuals:                     506   BIC:                             504.6
-Df Model:                          30                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
+Model:                            OLS   Adj. R-squared (uncentered):              0.627
+Method:                 Least Squares   F-statistic:                              30.11
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    8.41e-95
+Time:                        20:51:34   Log-Likelihood:                         -154.48
+No. Observations:                 537   AIC:                                      371.0
+Df Residuals:                     506   BIC:                                      503.8
+Df Model:                          31                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5869      0.193      3.047      0.002       0.208       0.965
-LangScr               0.0003      0.000      1.217      0.224      -0.000       0.001
-S1_DRP                0.0217      0.014      1.588      0.113      -0.005       0.048
-S1_GRD_1TO19          0.0394      0.025      1.583      0.114      -0.009       0.088
-S1_GRD_4TO49         -0.0575      0.013     -4.275      0.000      -0.084      -0.031
-S1_GRD_5TO59         -0.0314      0.015     -2.087      0.037      -0.061      -0.002
-S2_BAD                0.0133      0.011      1.187      0.236      -0.009       0.035
-S2_CVL               -0.0250      0.019     -1.310      0.191      -0.063       0.013
-S2_GRD_1TO19         -0.0487      0.031     -1.576      0.116      -0.109       0.012
-S2_GRD_3TO39         -0.0514      0.018     -2.784      0.006      -0.088      -0.015
-S2_GRD_4TO49         -0.0713      0.017     -4.312      0.000      -0.104      -0.039
-S2_GRD_5TO59         -0.0571      0.017     -3.319      0.001      -0.091      -0.023
-S2_GRD_6TO7          -0.0591      0.025     -2.337      0.020      -0.109      -0.009
-S2_BEST_GRD          -0.0024      0.002     -1.334      0.183      -0.006       0.001
-S2_VS_S1             -0.0024      0.002     -1.190      0.235      -0.006       0.002
-SchoolRegion_1       -0.3271      0.120     -2.716      0.007      -0.564      -0.091
-SchoolRegion_2       -0.0710      0.059     -1.213      0.226      -0.186       0.044
-SchoolRegion_3       -0.0752      0.087     -0.869      0.385      -0.245       0.095
-EdTypeCode_1         -0.0732      0.057     -1.287      0.199      -0.185       0.039
-SchoolType_1          0.1440      0.074      1.957      0.051      -0.001       0.289
-SchoolType_2          0.1192      0.062      1.924      0.055      -0.003       0.241
-SchoolType_4          0.1258      0.035      3.551      0.000       0.056       0.195
-MotherEd_1           -0.1303      0.069     -1.890      0.059      -0.266       0.005
-MotherEd_2           -0.1685      0.103     -1.643      0.101      -0.370       0.033
-MotherEd_3           -0.1841      0.070     -2.624      0.009      -0.322      -0.046
-MotherEd_4           -0.1907      0.087     -2.194      0.029      -0.361      -0.020
-MotherEd_5           -0.2765      0.104     -2.663      0.008      -0.480      -0.073
-MotherEd_6           -0.1397      0.077     -1.807      0.071      -0.291       0.012
-MotherEd_7           -0.1812      0.080     -2.265      0.024      -0.338      -0.024
-Campus_1              0.2318      0.122      1.902      0.058      -0.008       0.471
-PostulationType_1     0.1660      0.068      2.448      0.015       0.033       0.299
+NEMScr                0.0007      0.001      0.750      0.453      -0.001       0.002
+Ranking              -0.0005      0.001     -0.694      0.488      -0.002       0.001
+LangScr               0.0003      0.000      1.519      0.129   -9.87e-05       0.001
+S1_DRP                0.0223      0.014      1.574      0.116      -0.006       0.050
+S1_GRD_1TO19          0.0438      0.025      1.741      0.082      -0.006       0.093
+S1_GRD_2TO29          0.0148      0.022      0.662      0.508      -0.029       0.059
+S1_GRD_4TO49         -0.0562      0.015     -3.861      0.000      -0.085      -0.028
+S1_GRD_5TO59         -0.0327      0.016     -1.996      0.046      -0.065      -0.001
+S1_BEST_GRD          -0.0010      0.002     -0.479      0.632      -0.005       0.003
+S2_BAD                0.0135      0.011      1.187      0.236      -0.009       0.036
+S2_CVL               -0.0259      0.019     -1.366      0.173      -0.063       0.011
+S2_GRD_1TO19         -0.0496      0.031     -1.609      0.108      -0.110       0.011
+S2_GRD_3TO39         -0.0515      0.018     -2.786      0.006      -0.088      -0.015
+S2_GRD_4TO49         -0.0684      0.017     -3.964      0.000      -0.102      -0.035
+S2_GRD_5TO59         -0.0536      0.019     -2.840      0.005      -0.091      -0.017
+S2_GRD_6TO7          -0.0592      0.026     -2.305      0.022      -0.110      -0.009
+S2_BEST_GRD          -0.0016      0.002     -0.682      0.495      -0.006       0.003
+S2_VS_S1             -0.0037      0.003     -1.175      0.241      -0.010       0.002
+SchoolRegion_1        0.2828      0.110      2.575      0.010       0.067       0.498
+SchoolRegion_2        0.3450      0.103      3.339      0.001       0.142       0.548
+SchoolRegion_3        0.2766      0.130      2.136      0.033       0.022       0.531
+EdTypeCode_1          0.1043      0.085      1.225      0.221      -0.063       0.272
+EdTypeCode_2          0.0606      0.082      0.744      0.457      -0.100       0.221
+SchoolType_2         -0.1261      0.035     -3.636      0.000      -0.194      -0.058
+SchoolType_4         -0.1380      0.206     -0.671      0.503      -0.542       0.266
+MotherEd_4            0.0564      0.036      1.565      0.118      -0.014       0.127
+MotherEd_5            0.0468      0.050      0.930      0.353      -0.052       0.146
+MotherEd_6           -0.0835      0.086     -0.976      0.330      -0.252       0.085
+MotherEd_7            0.1857      0.067      2.754      0.006       0.053       0.318
+Campus_1              0.2557      0.105      2.427      0.016       0.049       0.463
+PostulationType_1     0.1725      0.065      2.653      0.008       0.045       0.300
 ==============================================================================
-Omnibus:                       34.359   Durbin-Watson:                   1.924
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.237
-Skew:                           0.480   Prob(JB):                     4.54e-12
-Kurtosis:                       4.189   Cond. No.                     8.23e+03
+Omnibus:                       33.024   Durbin-Watson:                   1.922
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.551
+Skew:                           0.462   Prob(JB):                     1.05e-11
+Kurtosis:                       4.185   Cond. No.                     1.39e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 8.23e+03. This might indicate that there are
+[2] The condition number is large, 1.39e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.499
-Model:                            OLS   Adj. R-squared:                  0.471
-Method:                 Least Squares   F-statistic:                     17.42
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.20e-58
-Time:                        23:10:00   Log-Likelihood:                -155.25
-No. Observations:                 537   AIC:                             370.5
-Df Residuals:                     507   BIC:                             499.1
-Df Model:                          29                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
+Model:                            OLS   Adj. R-squared (uncentered):              0.627
+Method:                 Least Squares   F-statistic:                              31.15
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.67e-95
+Time:                        20:51:34   Log-Likelihood:                         -154.60
+No. Observations:                 537   AIC:                                      369.2
+Df Residuals:                     507   BIC:                                      497.8
+Df Model:                          30                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5590      0.190      2.944      0.003       0.186       0.932
-LangScr               0.0003      0.000      1.192      0.234      -0.000       0.001
-S1_DRP                0.0221      0.014      1.620      0.106      -0.005       0.049
-S1_GRD_1TO19          0.0375      0.025      1.513      0.131      -0.011       0.086
-S1_GRD_4TO49         -0.0584      0.013     -4.354      0.000      -0.085      -0.032
-S1_GRD_5TO59         -0.0318      0.015     -2.117      0.035      -0.061      -0.002
-S2_BAD                0.0125      0.011      1.120      0.263      -0.009       0.034
-S2_CVL               -0.0242      0.019     -1.272      0.204      -0.062       0.013
-S2_GRD_1TO19         -0.0461      0.031     -1.500      0.134      -0.106       0.014
-S2_GRD_3TO39         -0.0523      0.018     -2.839      0.005      -0.088      -0.016
-S2_GRD_4TO49         -0.0716      0.017     -4.327      0.000      -0.104      -0.039
-S2_GRD_5TO59         -0.0574      0.017     -3.336      0.001      -0.091      -0.024
-S2_GRD_6TO7          -0.0595      0.025     -2.354      0.019      -0.109      -0.010
-S2_BEST_GRD          -0.0023      0.002     -1.313      0.190      -0.006       0.001
-S2_VS_S1             -0.0024      0.002     -1.195      0.233      -0.006       0.002
-SchoolRegion_1       -0.3256      0.120     -2.705      0.007      -0.562      -0.089
-SchoolRegion_2       -0.0392      0.046     -0.859      0.391      -0.129       0.051
-EdTypeCode_1         -0.0719      0.057     -1.264      0.207      -0.184       0.040
-SchoolType_1          0.1417      0.074      1.928      0.054      -0.003       0.286
-SchoolType_2          0.1236      0.062      2.000      0.046       0.002       0.245
-SchoolType_4          0.1276      0.035      3.611      0.000       0.058       0.197
-MotherEd_1           -0.1323      0.069     -1.921      0.055      -0.268       0.003
-MotherEd_2           -0.1681      0.103     -1.639      0.102      -0.370       0.033
-MotherEd_3           -0.1833      0.070     -2.614      0.009      -0.321      -0.046
-MotherEd_4           -0.1921      0.087     -2.211      0.027      -0.363      -0.021
-MotherEd_5           -0.2768      0.104     -2.667      0.008      -0.481      -0.073
-MotherEd_6           -0.1408      0.077     -1.822      0.069      -0.293       0.011
-MotherEd_7           -0.1816      0.080     -2.271      0.024      -0.339      -0.025
-Campus_1              0.2608      0.117      2.224      0.027       0.030       0.491
-PostulationType_1     0.1660      0.068      2.448      0.015       0.033       0.299
+NEMScr                0.0006      0.001      0.735      0.463      -0.001       0.002
+Ranking              -0.0005      0.001     -0.689      0.491      -0.002       0.001
+LangScr               0.0003      0.000      1.536      0.125   -9.48e-05       0.001
+S1_DRP                0.0235      0.014      1.688      0.092      -0.004       0.051
+S1_GRD_1TO19          0.0441      0.025      1.756      0.080      -0.005       0.093
+S1_GRD_2TO29          0.0097      0.020      0.493      0.622      -0.029       0.048
+S1_GRD_4TO49         -0.0555      0.014     -3.836      0.000      -0.084      -0.027
+S1_GRD_5TO59         -0.0304      0.016     -1.942      0.053      -0.061       0.000
+S2_BAD                0.0127      0.011      1.129      0.260      -0.009       0.035
+S2_CVL               -0.0260      0.019     -1.368      0.172      -0.063       0.011
+S2_GRD_1TO19         -0.0486      0.031     -1.582      0.114      -0.109       0.012
+S2_GRD_3TO39         -0.0520      0.018     -2.821      0.005      -0.088      -0.016
+S2_GRD_4TO49         -0.0708      0.017     -4.287      0.000      -0.103      -0.038
+S2_GRD_5TO59         -0.0568      0.018     -3.240      0.001      -0.091      -0.022
+S2_GRD_6TO7          -0.0601      0.026     -2.345      0.019      -0.110      -0.010
+S2_BEST_GRD          -0.0023      0.002     -1.347      0.179      -0.006       0.001
+S2_VS_S1             -0.0025      0.002     -1.295      0.196      -0.006       0.001
+SchoolRegion_1        0.2787      0.109      2.548      0.011       0.064       0.494
+SchoolRegion_2        0.3424      0.103      3.321      0.001       0.140       0.545
+SchoolRegion_3        0.2688      0.128      2.093      0.037       0.017       0.521
+EdTypeCode_1          0.1040      0.085      1.222      0.222      -0.063       0.271
+EdTypeCode_2          0.0649      0.081      0.802      0.423      -0.094       0.224
+SchoolType_2         -0.1250      0.035     -3.614      0.000      -0.193      -0.057
+SchoolType_4         -0.1419      0.205     -0.691      0.490      -0.545       0.262
+MotherEd_4            0.0541      0.036      1.515      0.130      -0.016       0.124
+MotherEd_5            0.0457      0.050      0.909      0.364      -0.053       0.144
+MotherEd_6           -0.0844      0.085     -0.988      0.324      -0.252       0.083
+MotherEd_7            0.1844      0.067      2.740      0.006       0.052       0.317
+Campus_1              0.2476      0.104      2.383      0.018       0.043       0.452
+PostulationType_1     0.1720      0.065      2.648      0.008       0.044       0.300
 ==============================================================================
-Omnibus:                       33.304   Durbin-Watson:                   1.921
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.901
-Skew:                           0.466   Prob(JB):                     8.85e-12
-Kurtosis:                       4.186   Cond. No.                     8.13e+03
+Omnibus:                       32.781   Durbin-Watson:                   1.920
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               49.975
+Skew:                           0.461   Prob(JB):                     1.41e-11
+Kurtosis:                       4.176   Cond. No.                     1.38e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 8.13e+03. This might indicate that there are
+[2] The condition number is large, 1.38e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.498
-Model:                            OLS   Adj. R-squared:                  0.471
-Method:                 Least Squares   F-statistic:                     18.03
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.97e-59
-Time:                        23:10:00   Log-Likelihood:                -155.65
-No. Observations:                 537   AIC:                             369.3
-Df Residuals:                     508   BIC:                             493.6
-Df Model:                          28                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
+Model:                            OLS   Adj. R-squared (uncentered):              0.628
+Method:                 Least Squares   F-statistic:                              32.27
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.27e-96
+Time:                        20:51:34   Log-Likelihood:                         -154.73
+No. Observations:                 537   AIC:                                      367.5
+Df Residuals:                     508   BIC:                                      491.7
+Df Model:                          29                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5313      0.187      2.840      0.005       0.164       0.899
-LangScr               0.0003      0.000      1.145      0.253      -0.000       0.001
-S1_DRP                0.0226      0.014      1.661      0.097      -0.004       0.049
-S1_GRD_1TO19          0.0389      0.025      1.574      0.116      -0.010       0.087
-S1_GRD_4TO49         -0.0585      0.013     -4.362      0.000      -0.085      -0.032
-S1_GRD_5TO59         -0.0320      0.015     -2.128      0.034      -0.061      -0.002
-S2_BAD                0.0119      0.011      1.074      0.283      -0.010       0.034
-S2_CVL               -0.0246      0.019     -1.289      0.198      -0.062       0.013
-S2_GRD_1TO19         -0.0461      0.031     -1.502      0.134      -0.106       0.014
-S2_GRD_3TO39         -0.0535      0.018     -2.917      0.004      -0.090      -0.017
-S2_GRD_4TO49         -0.0731      0.016     -4.448      0.000      -0.105      -0.041
-S2_GRD_5TO59         -0.0570      0.017     -3.318      0.001      -0.091      -0.023
-S2_GRD_6TO7          -0.0605      0.025     -2.398      0.017      -0.110      -0.011
-S2_BEST_GRD          -0.0023      0.002     -1.284      0.200      -0.006       0.001
-S2_VS_S1             -0.0024      0.002     -1.211      0.226      -0.006       0.001
-SchoolRegion_1       -0.3220      0.120     -2.677      0.008      -0.558      -0.086
-EdTypeCode_1         -0.0682      0.057     -1.204      0.229      -0.180       0.043
-SchoolType_1          0.1383      0.073      1.885      0.060      -0.006       0.282
-SchoolType_2          0.1221      0.062      1.978      0.048       0.001       0.243
-SchoolType_4          0.1259      0.035      3.568      0.000       0.057       0.195
-MotherEd_1           -0.1324      0.069     -1.923      0.055      -0.268       0.003
-MotherEd_2           -0.1682      0.103     -1.640      0.102      -0.370       0.033
-MotherEd_3           -0.1815      0.070     -2.590      0.010      -0.319      -0.044
-MotherEd_4           -0.1929      0.087     -2.221      0.027      -0.363      -0.022
-MotherEd_5           -0.2746      0.104     -2.648      0.008      -0.478      -0.071
-MotherEd_6           -0.1404      0.077     -1.819      0.070      -0.292       0.011
-MotherEd_7           -0.1842      0.080     -2.306      0.022      -0.341      -0.027
-Campus_1              0.2901      0.112      2.587      0.010       0.070       0.510
-PostulationType_1     0.1652      0.068      2.438      0.015       0.032       0.298
+NEMScr                0.0007      0.001      0.756      0.450      -0.001       0.002
+Ranking              -0.0005      0.001     -0.711      0.477      -0.002       0.001
+LangScr               0.0004      0.000      1.616      0.107   -7.64e-05       0.001
+S1_DRP                0.0218      0.013      1.618      0.106      -0.005       0.048
+S1_GRD_1TO19          0.0434      0.025      1.731      0.084      -0.006       0.093
+S1_GRD_4TO49         -0.0582      0.013     -4.340      0.000      -0.085      -0.032
+S1_GRD_5TO59         -0.0326      0.015     -2.175      0.030      -0.062      -0.003
+S2_BAD                0.0124      0.011      1.108      0.268      -0.010       0.034
+S2_CVL               -0.0263      0.019     -1.386      0.166      -0.063       0.011
+S2_GRD_1TO19         -0.0471      0.031     -1.542      0.124      -0.107       0.013
+S2_GRD_3TO39         -0.0518      0.018     -2.813      0.005      -0.088      -0.016
+S2_GRD_4TO49         -0.0711      0.016     -4.312      0.000      -0.103      -0.039
+S2_GRD_5TO59         -0.0579      0.017     -3.324      0.001      -0.092      -0.024
+S2_GRD_6TO7          -0.0617      0.025     -2.430      0.015      -0.112      -0.012
+S2_BEST_GRD          -0.0023      0.002     -1.331      0.184      -0.006       0.001
+S2_VS_S1             -0.0025      0.002     -1.307      0.192      -0.006       0.001
+SchoolRegion_1        0.2825      0.109      2.592      0.010       0.068       0.497
+SchoolRegion_2        0.3436      0.103      3.336      0.001       0.141       0.546
+SchoolRegion_3        0.2753      0.128      2.158      0.031       0.025       0.526
+EdTypeCode_1          0.1077      0.085      1.272      0.204      -0.059       0.274
+EdTypeCode_2          0.0653      0.081      0.806      0.420      -0.094       0.224
+SchoolType_2         -0.1258      0.035     -3.646      0.000      -0.194      -0.058
+SchoolType_4         -0.1416      0.205     -0.690      0.491      -0.545       0.262
+MotherEd_4            0.0552      0.036      1.551      0.121      -0.015       0.125
+MotherEd_5            0.0450      0.050      0.895      0.371      -0.054       0.144
+MotherEd_6           -0.0879      0.085     -1.033      0.302      -0.255       0.079
+MotherEd_7            0.1835      0.067      2.729      0.007       0.051       0.316
+Campus_1              0.2530      0.103      2.451      0.015       0.050       0.456
+PostulationType_1     0.1733      0.065      2.671      0.008       0.046       0.301
 ==============================================================================
-Omnibus:                       33.527   Durbin-Watson:                   1.918
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.867
-Skew:                           0.471   Prob(JB):                     9.00e-12
-Kurtosis:                       4.177   Cond. No.                     8.04e+03
+Omnibus:                       33.143   Durbin-Watson:                   1.924
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.255
+Skew:                           0.467   Prob(JB):                     1.22e-11
+Kurtosis:                       4.172   Cond. No.                     1.38e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 8.04e+03. This might indicate that there are
+[2] The condition number is large, 1.38e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.497
-Model:                            OLS   Adj. R-squared:                  0.471
-Method:                 Least Squares   F-statistic:                     18.65
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.57e-59
-Time:                        23:10:00   Log-Likelihood:                -156.25
-No. Observations:                 537   AIC:                             368.5
-Df Residuals:                     509   BIC:                             488.5
-Df Model:                          27                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
+Model:                            OLS   Adj. R-squared (uncentered):              0.628
+Method:                 Least Squares   F-statistic:                              33.44
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.05e-97
+Time:                        20:51:34   Log-Likelihood:                         -154.98
+No. Observations:                 537   AIC:                                      366.0
+Df Residuals:                     509   BIC:                                      486.0
+Df Model:                          28                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5609      0.185      3.031      0.003       0.197       0.925
-LangScr               0.0003      0.000      1.199      0.231      -0.000       0.001
-S1_DRP                0.0185      0.013      1.415      0.158      -0.007       0.044
-S1_GRD_1TO19          0.0434      0.024      1.781      0.076      -0.004       0.091
-S1_GRD_4TO49         -0.0584      0.013     -4.358      0.000      -0.085      -0.032
-S1_GRD_5TO59         -0.0307      0.015     -2.052      0.041      -0.060      -0.001
-S2_CVL               -0.0243      0.019     -1.276      0.202      -0.062       0.013
-S2_GRD_1TO19         -0.0494      0.031     -1.616      0.107      -0.109       0.011
-S2_GRD_3TO39         -0.0598      0.017     -3.443      0.001      -0.094      -0.026
-S2_GRD_4TO49         -0.0788      0.016     -5.060      0.000      -0.109      -0.048
-S2_GRD_5TO59         -0.0623      0.016     -3.778      0.000      -0.095      -0.030
-S2_GRD_6TO7          -0.0662      0.025     -2.684      0.008      -0.115      -0.018
-S2_BEST_GRD          -0.0023      0.002     -1.289      0.198      -0.006       0.001
-S2_VS_S1             -0.0021      0.002     -1.074      0.283      -0.006       0.002
-SchoolRegion_1       -0.3174      0.120     -2.640      0.009      -0.554      -0.081
-EdTypeCode_1         -0.0648      0.057     -1.145      0.253      -0.176       0.046
-SchoolType_1          0.1364      0.073      1.859      0.064      -0.008       0.281
-SchoolType_2          0.1246      0.062      2.020      0.044       0.003       0.246
-SchoolType_4          0.1254      0.035      3.555      0.000       0.056       0.195
-MotherEd_1           -0.1337      0.069     -1.941      0.053      -0.269       0.002
-MotherEd_2           -0.1714      0.103     -1.672      0.095      -0.373       0.030
-MotherEd_3           -0.1828      0.070     -2.608      0.009      -0.320      -0.045
-MotherEd_4           -0.1975      0.087     -2.276      0.023      -0.368      -0.027
-MotherEd_5           -0.2674      0.104     -2.583      0.010      -0.471      -0.064
-MotherEd_6           -0.1405      0.077     -1.819      0.069      -0.292       0.011
-MotherEd_7           -0.1848      0.080     -2.313      0.021      -0.342      -0.028
-Campus_1              0.2810      0.112      2.513      0.012       0.061       0.501
-PostulationType_1     0.1611      0.068      2.380      0.018       0.028       0.294
+NEMScr                0.0007      0.001      0.798      0.425      -0.001       0.002
+Ranking              -0.0005      0.001     -0.760      0.448      -0.002       0.001
+LangScr               0.0003      0.000      1.591      0.112   -8.18e-05       0.001
+S1_DRP                0.0219      0.013      1.628      0.104      -0.005       0.048
+S1_GRD_1TO19          0.0429      0.025      1.715      0.087      -0.006       0.092
+S1_GRD_4TO49         -0.0574      0.013     -4.299      0.000      -0.084      -0.031
+S1_GRD_5TO59         -0.0320      0.015     -2.138      0.033      -0.061      -0.003
+S2_BAD                0.0127      0.011      1.139      0.255      -0.009       0.035
+S2_CVL               -0.0261      0.019     -1.376      0.170      -0.063       0.011
+S2_GRD_1TO19         -0.0472      0.031     -1.547      0.122      -0.107       0.013
+S2_GRD_3TO39         -0.0514      0.018     -2.797      0.005      -0.088      -0.015
+S2_GRD_4TO49         -0.0713      0.016     -4.326      0.000      -0.104      -0.039
+S2_GRD_5TO59         -0.0572      0.017     -3.293      0.001      -0.091      -0.023
+S2_GRD_6TO7          -0.0611      0.025     -2.409      0.016      -0.111      -0.011
+S2_BEST_GRD          -0.0024      0.002     -1.374      0.170      -0.006       0.001
+S2_VS_S1             -0.0025      0.002     -1.309      0.191      -0.006       0.001
+SchoolRegion_1        0.2862      0.109      2.629      0.009       0.072       0.500
+SchoolRegion_2        0.3472      0.103      3.377      0.001       0.145       0.549
+SchoolRegion_3        0.2737      0.128      2.146      0.032       0.023       0.524
+EdTypeCode_1          0.0943      0.082      1.144      0.253      -0.068       0.256
+EdTypeCode_2          0.0580      0.080      0.723      0.470      -0.100       0.216
+SchoolType_2         -0.1254      0.034     -3.635      0.000      -0.193      -0.058
+MotherEd_4            0.0551      0.036      1.549      0.122      -0.015       0.125
+MotherEd_5            0.0451      0.050      0.899      0.369      -0.053       0.144
+MotherEd_6           -0.0862      0.085     -1.014      0.311      -0.253       0.081
+MotherEd_7            0.1841      0.067      2.739      0.006       0.052       0.316
+Campus_1              0.2568      0.103      2.492      0.013       0.054       0.459
+PostulationType_1     0.1722      0.065      2.657      0.008       0.045       0.299
 ==============================================================================
-Omnibus:                       33.445   Durbin-Watson:                   1.919
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               49.998
-Skew:                           0.475   Prob(JB):                     1.39e-11
-Kurtosis:                       4.153   Cond. No.                     7.99e+03
+Omnibus:                       32.937   Durbin-Watson:                   1.932
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.298
+Skew:                           0.462   Prob(JB):                     1.20e-11
+Kurtosis:                       4.181   Cond. No.                     1.35e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 7.99e+03. This might indicate that there are
+[2] The condition number is large, 1.35e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.496
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     19.32
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.10e-60
-Time:                        23:10:00   Log-Likelihood:                -156.86
-No. Observations:                 537   AIC:                             367.7
-Df Residuals:                     510   BIC:                             483.4
-Df Model:                          26                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
+Model:                            OLS   Adj. R-squared (uncentered):              0.629
+Method:                 Least Squares   F-statistic:                              34.69
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.53e-97
+Time:                        20:51:34   Log-Likelihood:                         -155.25
+No. Observations:                 537   AIC:                                      364.5
+Df Residuals:                     510   BIC:                                      480.2
+Df Model:                          27                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6154      0.178      3.457      0.001       0.266       0.965
-LangScr               0.0003      0.000      1.243      0.214      -0.000       0.001
-S1_DRP                0.0122      0.012      1.043      0.297      -0.011       0.035
-S1_GRD_1TO19          0.0396      0.024      1.642      0.101      -0.008       0.087
-S1_GRD_4TO49         -0.0529      0.012     -4.273      0.000      -0.077      -0.029
-S1_GRD_5TO59         -0.0227      0.013     -1.749      0.081      -0.048       0.003
-S2_CVL               -0.0239      0.019     -1.252      0.211      -0.061       0.014
-S2_GRD_1TO19         -0.0432      0.030     -1.438      0.151      -0.102       0.016
-S2_GRD_3TO39         -0.0587      0.017     -3.381      0.001      -0.093      -0.025
-S2_GRD_4TO49         -0.0806      0.015     -5.209      0.000      -0.111      -0.050
-S2_GRD_5TO59         -0.0639      0.016     -3.895      0.000      -0.096      -0.032
-S2_GRD_6TO7          -0.0630      0.024     -2.574      0.010      -0.111      -0.015
-S2_BEST_GRD          -0.0035      0.001     -2.480      0.013      -0.006      -0.001
-SchoolRegion_1       -0.3138      0.120     -2.611      0.009      -0.550      -0.078
-EdTypeCode_1         -0.0669      0.057     -1.183      0.237      -0.178       0.044
-SchoolType_1          0.1382      0.073      1.884      0.060      -0.006       0.282
-SchoolType_2          0.1224      0.062      1.984      0.048       0.001       0.244
-SchoolType_4          0.1259      0.035      3.569      0.000       0.057       0.195
-MotherEd_1           -0.1323      0.069     -1.922      0.055      -0.268       0.003
-MotherEd_2           -0.1774      0.102     -1.733      0.084      -0.379       0.024
-MotherEd_3           -0.1821      0.070     -2.598      0.010      -0.320      -0.044
-MotherEd_4           -0.1979      0.087     -2.281      0.023      -0.368      -0.027
-MotherEd_5           -0.2697      0.104     -2.605      0.009      -0.473      -0.066
-MotherEd_6           -0.1379      0.077     -1.786      0.075      -0.290       0.014
-MotherEd_7           -0.1815      0.080     -2.274      0.023      -0.338      -0.025
-Campus_1              0.2791      0.112      2.496      0.013       0.059       0.499
-PostulationType_1     0.1520      0.067      2.263      0.024       0.020       0.284
+NEMScr                0.0006      0.001      0.666      0.505      -0.001       0.002
+Ranking              -0.0004      0.001     -0.627      0.531      -0.002       0.001
+LangScr               0.0003      0.000      1.582      0.114   -8.37e-05       0.001
+S1_DRP                0.0225      0.013      1.671      0.095      -0.004       0.049
+S1_GRD_1TO19          0.0436      0.025      1.746      0.081      -0.005       0.093
+S1_GRD_4TO49         -0.0573      0.013     -4.292      0.000      -0.084      -0.031
+S1_GRD_5TO59         -0.0320      0.015     -2.139      0.033      -0.061      -0.003
+S2_BAD                0.0126      0.011      1.128      0.260      -0.009       0.035
+S2_CVL               -0.0263      0.019     -1.392      0.165      -0.064       0.011
+S2_GRD_1TO19         -0.0473      0.031     -1.550      0.122      -0.107       0.013
+S2_GRD_3TO39         -0.0522      0.018     -2.841      0.005      -0.088      -0.016
+S2_GRD_4TO49         -0.0716      0.016     -4.351      0.000      -0.104      -0.039
+S2_GRD_5TO59         -0.0569      0.017     -3.276      0.001      -0.091      -0.023
+S2_GRD_6TO7          -0.0620      0.025     -2.450      0.015      -0.112      -0.012
+S2_BEST_GRD          -0.0023      0.002     -1.338      0.182      -0.006       0.001
+S2_VS_S1             -0.0027      0.002     -1.387      0.166      -0.006       0.001
+SchoolRegion_1        0.2982      0.108      2.773      0.006       0.087       0.509
+SchoolRegion_2        0.3557      0.102      3.484      0.001       0.155       0.556
+SchoolRegion_3        0.2833      0.127      2.235      0.026       0.034       0.532
+EdTypeCode_1          0.0897      0.082      1.092      0.275      -0.072       0.251
+SchoolType_2         -0.1254      0.034     -3.638      0.000      -0.193      -0.058
+MotherEd_4            0.0560      0.036      1.576      0.116      -0.014       0.126
+MotherEd_5            0.0439      0.050      0.875      0.382      -0.055       0.142
+MotherEd_6           -0.0840      0.085     -0.989      0.323      -0.251       0.083
+MotherEd_7            0.1865      0.067      2.780      0.006       0.055       0.318
+Campus_1              0.2710      0.101      2.679      0.008       0.072       0.470
+PostulationType_1     0.1702      0.065      2.630      0.009       0.043       0.297
 ==============================================================================
-Omnibus:                       32.816   Durbin-Watson:                   1.925
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               49.433
-Skew:                           0.465   Prob(JB):                     1.84e-11
-Kurtosis:                       4.159   Cond. No.                     7.84e+03
+Omnibus:                       32.398   Durbin-Watson:                   1.940
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               48.824
+Skew:                           0.460   Prob(JB):                     2.50e-11
+Kurtosis:                       4.155   Cond. No.                     1.34e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 7.84e+03. This might indicate that there are
+[2] The condition number is large, 1.34e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.495
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     20.04
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.26e-60
-Time:                        23:10:00   Log-Likelihood:                -157.43
-No. Observations:                 537   AIC:                             366.9
-Df Residuals:                     511   BIC:                             478.3
-Df Model:                          25                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
+Model:                            OLS   Adj. R-squared (uncentered):              0.629
+Method:                 Least Squares   F-statistic:                              36.05
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.04e-98
+Time:                        20:51:34   Log-Likelihood:                         -155.46
+No. Observations:                 537   AIC:                                      362.9
+Df Residuals:                     511   BIC:                                      474.4
+Df Model:                          26                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6530      0.174      3.745      0.000       0.310       0.996
-LangScr               0.0003      0.000      1.247      0.213      -0.000       0.001
-S1_GRD_1TO19          0.0350      0.024      1.477      0.140      -0.012       0.082
-S1_GRD_4TO49         -0.0548      0.012     -4.482      0.000      -0.079      -0.031
-S1_GRD_5TO59         -0.0240      0.013     -1.859      0.064      -0.049       0.001
-S2_CVL               -0.0238      0.019     -1.250      0.212      -0.061       0.014
-S2_GRD_1TO19         -0.0443      0.030     -1.478      0.140      -0.103       0.015
-S2_GRD_3TO39         -0.0581      0.017     -3.350      0.001      -0.092      -0.024
-S2_GRD_4TO49         -0.0800      0.015     -5.175      0.000      -0.110      -0.050
-S2_GRD_5TO59         -0.0626      0.016     -3.827      0.000      -0.095      -0.030
-S2_GRD_6TO7          -0.0603      0.024     -2.476      0.014      -0.108      -0.012
-S2_BEST_GRD          -0.0038      0.001     -2.809      0.005      -0.006      -0.001
-SchoolRegion_1       -0.3094      0.120     -2.576      0.010      -0.545      -0.073
-EdTypeCode_1         -0.0665      0.057     -1.176      0.240      -0.178       0.045
-SchoolType_1          0.1397      0.073      1.905      0.057      -0.004       0.284
-SchoolType_2          0.1205      0.062      1.954      0.051      -0.001       0.242
-SchoolType_4          0.1259      0.035      3.567      0.000       0.057       0.195
-MotherEd_1           -0.1409      0.068     -2.062      0.040      -0.275      -0.007
-MotherEd_2           -0.1812      0.102     -1.771      0.077      -0.382       0.020
-MotherEd_3           -0.1887      0.070     -2.703      0.007      -0.326      -0.052
-MotherEd_4           -0.2023      0.087     -2.334      0.020      -0.373      -0.032
-MotherEd_5           -0.2796      0.103     -2.713      0.007      -0.482      -0.077
-MotherEd_6           -0.1426      0.077     -1.851      0.065      -0.294       0.009
-MotherEd_7           -0.1883      0.080     -2.366      0.018      -0.345      -0.032
-Campus_1              0.2817      0.112      2.520      0.012       0.062       0.501
-PostulationType_1     0.1410      0.066      2.125      0.034       0.011       0.271
+NEMScr             4.855e-05      0.000      0.240      0.810      -0.000       0.000
+LangScr               0.0004      0.000      1.722      0.086   -5.22e-05       0.001
+S1_DRP                0.0240      0.013      1.812      0.071      -0.002       0.050
+S1_GRD_1TO19          0.0412      0.025      1.671      0.095      -0.007       0.090
+S1_GRD_4TO49         -0.0572      0.013     -4.291      0.000      -0.083      -0.031
+S1_GRD_5TO59         -0.0316      0.015     -2.116      0.035      -0.061      -0.002
+S2_BAD                0.0137      0.011      1.246      0.213      -0.008       0.035
+S2_CVL               -0.0261      0.019     -1.380      0.168      -0.063       0.011
+S2_GRD_1TO19         -0.0473      0.031     -1.551      0.122      -0.107       0.013
+S2_GRD_3TO39         -0.0520      0.018     -2.833      0.005      -0.088      -0.016
+S2_GRD_4TO49         -0.0712      0.016     -4.330      0.000      -0.103      -0.039
+S2_GRD_5TO59         -0.0567      0.017     -3.266      0.001      -0.091      -0.023
+S2_GRD_6TO7          -0.0618      0.025     -2.442      0.015      -0.111      -0.012
+S2_BEST_GRD          -0.0022      0.002     -1.275      0.203      -0.006       0.001
+S2_VS_S1             -0.0027      0.002     -1.432      0.153      -0.007       0.001
+SchoolRegion_1        0.3103      0.106      2.935      0.003       0.103       0.518
+SchoolRegion_2        0.3695      0.100      3.709      0.000       0.174       0.565
+SchoolRegion_3        0.2978      0.125      2.392      0.017       0.053       0.542
+EdTypeCode_1          0.0767      0.079      0.965      0.335      -0.079       0.233
+SchoolType_2         -0.1237      0.034     -3.602      0.000      -0.191      -0.056
+MotherEd_4            0.0550      0.035      1.549      0.122      -0.015       0.125
+MotherEd_5            0.0420      0.050      0.840      0.401      -0.056       0.140
+MotherEd_6           -0.0853      0.085     -1.005      0.315      -0.252       0.081
+MotherEd_7            0.1852      0.067      2.764      0.006       0.054       0.317
+Campus_1              0.2831      0.099      2.853      0.004       0.088       0.478
+PostulationType_1     0.1735      0.064      2.692      0.007       0.047       0.300
 ==============================================================================
-Omnibus:                       31.015   Durbin-Watson:                   1.929
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               46.950
-Skew:                           0.443   Prob(JB):                     6.38e-11
-Kurtosis:                       4.147   Cond. No.                     7.71e+03
+Omnibus:                       32.510   Durbin-Watson:                   1.937
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               48.874
+Skew:                           0.463   Prob(JB):                     2.44e-11
+Kurtosis:                       4.153   Cond. No.                     1.06e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 7.71e+03. This might indicate that there are
+[2] The condition number is large, 1.06e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.494
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     20.80
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           9.45e-61
-Time:                        23:10:00   Log-Likelihood:                -158.16
-No. Observations:                 537   AIC:                             366.3
-Df Residuals:                     512   BIC:                             473.5
-Df Model:                          24                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
+Model:                            OLS   Adj. R-squared (uncentered):              0.630
+Method:                 Least Squares   F-statistic:                              37.56
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    5.05e-99
+Time:                        20:51:35   Log-Likelihood:                         -155.49
+No. Observations:                 537   AIC:                                      361.0
+Df Residuals:                     512   BIC:                                      468.1
+Df Model:                          25                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.5991      0.168      3.560      0.000       0.269       0.930
-LangScr               0.0003      0.000      1.222      0.222      -0.000       0.001
-S1_GRD_1TO19          0.0352      0.024      1.483      0.139      -0.011       0.082
-S1_GRD_4TO49         -0.0548      0.012     -4.475      0.000      -0.079      -0.031
-S1_GRD_5TO59         -0.0239      0.013     -1.847      0.065      -0.049       0.002
-S2_CVL               -0.0242      0.019     -1.267      0.206      -0.062       0.013
-S2_GRD_1TO19         -0.0454      0.030     -1.515      0.130      -0.104       0.013
-S2_GRD_3TO39         -0.0579      0.017     -3.339      0.001      -0.092      -0.024
-S2_GRD_4TO49         -0.0801      0.015     -5.178      0.000      -0.111      -0.050
-S2_GRD_5TO59         -0.0627      0.016     -3.829      0.000      -0.095      -0.031
-S2_GRD_6TO7          -0.0610      0.024     -2.507      0.012      -0.109      -0.013
-S2_BEST_GRD          -0.0038      0.001     -2.812      0.005      -0.006      -0.001
-SchoolRegion_1       -0.3236      0.120     -2.706      0.007      -0.558      -0.089
-SchoolType_1          0.1352      0.073      1.845      0.066      -0.009       0.279
-SchoolType_2          0.1214      0.062      1.969      0.049       0.000       0.243
-SchoolType_4          0.1273      0.035      3.608      0.000       0.058       0.197
-MotherEd_1           -0.1420      0.068     -2.077      0.038      -0.276      -0.008
-MotherEd_2           -0.1769      0.102     -1.730      0.084      -0.378       0.024
-MotherEd_3           -0.1910      0.070     -2.736      0.006      -0.328      -0.054
-MotherEd_4           -0.2023      0.087     -2.334      0.020      -0.373      -0.032
-MotherEd_5           -0.2776      0.103     -2.693      0.007      -0.480      -0.075
-MotherEd_6           -0.1485      0.077     -1.930      0.054      -0.300       0.003
-MotherEd_7           -0.1922      0.080     -2.417      0.016      -0.349      -0.036
-Campus_1              0.2966      0.111      2.669      0.008       0.078       0.515
-PostulationType_1     0.1376      0.066      2.076      0.038       0.007       0.268
+LangScr               0.0004      0.000      1.988      0.047    4.62e-06       0.001
+S1_DRP                0.0246      0.013      1.893      0.059      -0.001       0.050
+S1_GRD_1TO19          0.0415      0.025      1.683      0.093      -0.007       0.090
+S1_GRD_4TO49         -0.0572      0.013     -4.291      0.000      -0.083      -0.031
+S1_GRD_5TO59         -0.0314      0.015     -2.109      0.035      -0.061      -0.002
+S2_BAD                0.0140      0.011      1.277      0.202      -0.008       0.036
+S2_CVL               -0.0261      0.019     -1.383      0.167      -0.063       0.011
+S2_GRD_1TO19         -0.0472      0.030     -1.549      0.122      -0.107       0.013
+S2_GRD_3TO39         -0.0519      0.018     -2.834      0.005      -0.088      -0.016
+S2_GRD_4TO49         -0.0708      0.016     -4.332      0.000      -0.103      -0.039
+S2_GRD_5TO59         -0.0559      0.017     -3.278      0.001      -0.089      -0.022
+S2_GRD_6TO7          -0.0608      0.025     -2.439      0.015      -0.110      -0.012
+S2_BEST_GRD          -0.0022      0.002     -1.265      0.207      -0.006       0.001
+S2_VS_S1             -0.0028      0.002     -1.486      0.138      -0.007       0.001
+SchoolRegion_1        0.3162      0.103      3.078      0.002       0.114       0.518
+SchoolRegion_2        0.3759      0.096      3.920      0.000       0.188       0.564
+SchoolRegion_3        0.3045      0.121      2.511      0.012       0.066       0.543
+EdTypeCode_1          0.0783      0.079      0.991      0.322      -0.077       0.234
+SchoolType_2         -0.1241      0.034     -3.619      0.000      -0.191      -0.057
+MotherEd_4            0.0566      0.035      1.627      0.104      -0.012       0.125
+MotherEd_5            0.0423      0.050      0.846      0.398      -0.056       0.140
+MotherEd_6           -0.0866      0.085     -1.023      0.307      -0.253       0.080
+MotherEd_7            0.1875      0.066      2.827      0.005       0.057       0.318
+Campus_1              0.2881      0.097      2.971      0.003       0.098       0.479
+PostulationType_1     0.1771      0.063      2.829      0.005       0.054       0.300
 ==============================================================================
-Omnibus:                       31.391   Durbin-Watson:                   1.949
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               46.883
-Skew:                           0.452   Prob(JB):                     6.60e-11
-Kurtosis:                       4.131   Cond. No.                     7.60e+03
+Omnibus:                       32.171   Durbin-Watson:                   1.937
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               48.220
+Skew:                           0.460   Prob(JB):                     3.38e-11
+Kurtosis:                       4.145   Cond. No.                     7.43e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 7.6e+03. This might indicate that there are
+[2] The condition number is large, 7.43e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.492
-Model:                            OLS   Adj. R-squared:                  0.469
-Method:                 Least Squares   F-statistic:                     21.62
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.09e-61
-Time:                        23:10:00   Log-Likelihood:                -158.94
-No. Observations:                 537   AIC:                             365.9
-Df Residuals:                     513   BIC:                             468.7
-Df Model:                          23                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
+Model:                            OLS   Adj. R-squared (uncentered):              0.630
+Method:                 Least Squares   F-statistic:                              39.12
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.13e-99
+Time:                        20:51:35   Log-Likelihood:                         -155.87
+No. Observations:                 537   AIC:                                      359.7
+Df Residuals:                     513   BIC:                                      462.6
+Df Model:                          24                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7633      0.101      7.524      0.000       0.564       0.963
-S1_GRD_1TO19          0.0340      0.024      1.434      0.152      -0.013       0.081
-S1_GRD_4TO49         -0.0553      0.012     -4.517      0.000      -0.079      -0.031
-S1_GRD_5TO59         -0.0232      0.013     -1.793      0.073      -0.049       0.002
-S2_CVL               -0.0206      0.019     -1.091      0.276      -0.058       0.016
-S2_GRD_1TO19         -0.0482      0.030     -1.609      0.108      -0.107       0.011
-S2_GRD_3TO39         -0.0592      0.017     -3.420      0.001      -0.093      -0.025
-S2_GRD_4TO49         -0.0827      0.015     -5.390      0.000      -0.113      -0.053
-S2_GRD_5TO59         -0.0631      0.016     -3.856      0.000      -0.095      -0.031
-S2_GRD_6TO7          -0.0591      0.024     -2.430      0.015      -0.107      -0.011
-S2_BEST_GRD          -0.0037      0.001     -2.746      0.006      -0.006      -0.001
-SchoolRegion_1       -0.3124      0.119     -2.619      0.009      -0.547      -0.078
-SchoolType_1          0.1386      0.073      1.892      0.059      -0.005       0.283
-SchoolType_2          0.1231      0.062      1.996      0.046       0.002       0.244
-SchoolType_4          0.1274      0.035      3.608      0.000       0.058       0.197
-MotherEd_1           -0.1367      0.068     -2.003      0.046      -0.271      -0.003
-MotherEd_2           -0.1769      0.102     -1.729      0.084      -0.378       0.024
-MotherEd_3           -0.1891      0.070     -2.709      0.007      -0.326      -0.052
-MotherEd_4           -0.1975      0.087     -2.279      0.023      -0.368      -0.027
-MotherEd_5           -0.2701      0.103     -2.623      0.009      -0.472      -0.068
-MotherEd_6           -0.1388      0.077     -1.813      0.070      -0.289       0.012
-MotherEd_7           -0.1892      0.080     -2.378      0.018      -0.345      -0.033
-Campus_1              0.2839      0.111      2.565      0.011       0.066       0.501
-PostulationType_1     0.1388      0.066      2.093      0.037       0.009       0.269
+LangScr               0.0004      0.000      2.102      0.036    2.69e-05       0.001
+S1_DRP                0.0250      0.013      1.927      0.055      -0.000       0.050
+S1_GRD_1TO19          0.0405      0.025      1.647      0.100      -0.008       0.089
+S1_GRD_4TO49         -0.0576      0.013     -4.325      0.000      -0.084      -0.031
+S1_GRD_5TO59         -0.0316      0.015     -2.121      0.034      -0.061      -0.002
+S2_BAD                0.0142      0.011      1.295      0.196      -0.007       0.036
+S2_CVL               -0.0264      0.019     -1.398      0.163      -0.064       0.011
+S2_GRD_1TO19         -0.0488      0.030     -1.606      0.109      -0.109       0.011
+S2_GRD_3TO39         -0.0522      0.018     -2.850      0.005      -0.088      -0.016
+S2_GRD_4TO49         -0.0712      0.016     -4.359      0.000      -0.103      -0.039
+S2_GRD_5TO59         -0.0569      0.017     -3.344      0.001      -0.090      -0.023
+S2_GRD_6TO7          -0.0610      0.025     -2.450      0.015      -0.110      -0.012
+S2_BEST_GRD          -0.0021      0.002     -1.225      0.221      -0.005       0.001
+S2_VS_S1             -0.0029      0.002     -1.512      0.131      -0.007       0.001
+SchoolRegion_1        0.3127      0.103      3.048      0.002       0.111       0.514
+SchoolRegion_2        0.3721      0.096      3.885      0.000       0.184       0.560
+SchoolRegion_3        0.3028      0.121      2.497      0.013       0.065       0.541
+EdTypeCode_1          0.0746      0.079      0.946      0.345      -0.080       0.230
+SchoolType_2         -0.1187      0.034     -3.524      0.000      -0.185      -0.053
+MotherEd_4            0.0471      0.033      1.431      0.153      -0.018       0.112
+MotherEd_6           -0.0961      0.084     -1.146      0.252      -0.261       0.069
+MotherEd_7            0.1781      0.065      2.724      0.007       0.050       0.307
+Campus_1              0.2851      0.097      2.944      0.003       0.095       0.475
+PostulationType_1     0.1778      0.063      2.840      0.005       0.055       0.301
 ==============================================================================
-Omnibus:                       33.806   Durbin-Watson:                   1.945
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.849
-Skew:                           0.477   Prob(JB):                     9.08e-12
-Kurtosis:                       4.167   Cond. No.                         664.
+Omnibus:                       32.666   Durbin-Watson:                   1.939
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               48.850
+Skew:                           0.466   Prob(JB):                     2.47e-11
+Kurtosis:                       4.146   Cond. No.                     7.43e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.491
-Model:                            OLS   Adj. R-squared:                  0.469
-Method:                 Least Squares   F-statistic:                     22.54
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.50e-61
-Time:                        23:10:00   Log-Likelihood:                -159.56
-No. Observations:                 537   AIC:                             365.1
-Df Residuals:                     514   BIC:                             463.7
-Df Model:                          22                                         
-Covariance Type:            nonrobust                                         
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 7.43e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.646
+Model:                            OLS   Adj. R-squared (uncentered):              0.630
+Method:                 Least Squares   F-statistic:                              40.79
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   2.71e-100
+Time:                        20:51:35   Log-Likelihood:                         -156.33
+No. Observations:                 537   AIC:                                      358.7
+Df Residuals:                     514   BIC:                                      457.2
+Df Model:                          23                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7545      0.101      7.460      0.000       0.556       0.953
-S1_GRD_1TO19          0.0346      0.024      1.458      0.145      -0.012       0.081
-S1_GRD_4TO49         -0.0553      0.012     -4.515      0.000      -0.079      -0.031
-S1_GRD_5TO59         -0.0222      0.013     -1.719      0.086      -0.048       0.003
-S2_GRD_1TO19         -0.0497      0.030     -1.661      0.097      -0.108       0.009
-S2_GRD_3TO39         -0.0587      0.017     -3.391      0.001      -0.093      -0.025
-S2_GRD_4TO49         -0.0834      0.015     -5.446      0.000      -0.114      -0.053
-S2_GRD_5TO59         -0.0634      0.016     -3.873      0.000      -0.096      -0.031
-S2_GRD_6TO7          -0.0616      0.024     -2.547      0.011      -0.109      -0.014
-S2_BEST_GRD          -0.0038      0.001     -2.788      0.005      -0.006      -0.001
-SchoolRegion_1       -0.3097      0.119     -2.597      0.010      -0.544      -0.075
-SchoolType_1          0.1401      0.073      1.911      0.057      -0.004       0.284
-SchoolType_2          0.1243      0.062      2.016      0.044       0.003       0.246
-SchoolType_4          0.1306      0.035      3.714      0.000       0.062       0.200
-MotherEd_1           -0.1367      0.068     -2.002      0.046      -0.271      -0.003
-MotherEd_2           -0.1804      0.102     -1.764      0.078      -0.381       0.021
-MotherEd_3           -0.1888      0.070     -2.704      0.007      -0.326      -0.052
-MotherEd_4           -0.1968      0.087     -2.271      0.024      -0.367      -0.027
-MotherEd_5           -0.2725      0.103     -2.646      0.008      -0.475      -0.070
-MotherEd_6           -0.1387      0.077     -1.811      0.071      -0.289       0.012
-MotherEd_7           -0.1888      0.080     -2.372      0.018      -0.345      -0.032
-Campus_1              0.2862      0.111      2.586      0.010       0.069       0.504
-PostulationType_1     0.1452      0.066      2.198      0.028       0.015       0.275
+LangScr               0.0004      0.000      2.101      0.036    2.68e-05       0.001
+S1_DRP                0.0246      0.013      1.901      0.058      -0.001       0.050
+S1_GRD_1TO19          0.0392      0.025      1.597      0.111      -0.009       0.087
+S1_GRD_4TO49         -0.0580      0.013     -4.356      0.000      -0.084      -0.032
+S1_GRD_5TO59         -0.0316      0.015     -2.119      0.035      -0.061      -0.002
+S2_BAD                0.0138      0.011      1.259      0.209      -0.008       0.035
+S2_CVL               -0.0261      0.019     -1.385      0.167      -0.063       0.011
+S2_GRD_1TO19         -0.0502      0.030     -1.652      0.099      -0.110       0.009
+S2_GRD_3TO39         -0.0517      0.018     -2.822      0.005      -0.088      -0.016
+S2_GRD_4TO49         -0.0714      0.016     -4.371      0.000      -0.103      -0.039
+S2_GRD_5TO59         -0.0575      0.017     -3.379      0.001      -0.091      -0.024
+S2_GRD_6TO7          -0.0613      0.025     -2.463      0.014      -0.110      -0.012
+S2_BEST_GRD          -0.0021      0.002     -1.232      0.218      -0.005       0.001
+S2_VS_S1             -0.0028      0.002     -1.458      0.145      -0.006       0.001
+SchoolRegion_1        0.3206      0.102      3.136      0.002       0.120       0.522
+SchoolRegion_2        0.3799      0.095      3.981      0.000       0.192       0.567
+SchoolRegion_3        0.3118      0.121      2.581      0.010       0.074       0.549
+SchoolType_2         -0.1223      0.033     -3.656      0.000      -0.188      -0.057
+MotherEd_4            0.0471      0.033      1.432      0.153      -0.018       0.112
+MotherEd_6           -0.0942      0.084     -1.124      0.262      -0.259       0.070
+MotherEd_7            0.1774      0.065      2.715      0.007       0.049       0.306
+Campus_1              0.2903      0.097      3.003      0.003       0.100       0.480
+PostulationType_1     0.1768      0.063      2.826      0.005       0.054       0.300
 ==============================================================================
-Omnibus:                       35.260   Durbin-Watson:                   1.942
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               53.822
-Skew:                           0.489   Prob(JB):                     2.05e-12
-Kurtosis:                       4.204   Cond. No.                         664.
+Omnibus:                       33.877   Durbin-Watson:                   1.948
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.557
+Skew:                           0.481   Prob(JB):                     1.05e-11
+Kurtosis:                       4.155   Cond. No.                     7.40e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.489
-Model:                            OLS   Adj. R-squared:                  0.468
-Method:                 Least Squares   F-statistic:                     23.46
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           8.46e-62
-Time:                        23:10:00   Log-Likelihood:                -160.67
-No. Observations:                 537   AIC:                             365.3
-Df Residuals:                     515   BIC:                             459.6
-Df Model:                          21                                         
-Covariance Type:            nonrobust                                         
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 7.4e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.645
+Model:                            OLS   Adj. R-squared (uncentered):              0.630
+Method:                 Least Squares   F-statistic:                              42.56
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   7.59e-101
+Time:                        20:51:35   Log-Likelihood:                         -156.99
+No. Observations:                 537   AIC:                                      358.0
+Df Residuals:                     515   BIC:                                      452.3
+Df Model:                          22                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7753      0.100      7.735      0.000       0.578       0.972
-S1_GRD_4TO49         -0.0587      0.012     -4.884      0.000      -0.082      -0.035
-S1_GRD_5TO59         -0.0244      0.013     -1.902      0.058      -0.050       0.001
-S2_GRD_1TO19         -0.0458      0.030     -1.535      0.125      -0.104       0.013
-S2_GRD_3TO39         -0.0600      0.017     -3.467      0.001      -0.094      -0.026
-S2_GRD_4TO49         -0.0843      0.015     -5.499      0.000      -0.114      -0.054
-S2_GRD_5TO59         -0.0651      0.016     -3.977      0.000      -0.097      -0.033
-S2_GRD_6TO7          -0.0621      0.024     -2.563      0.011      -0.110      -0.014
-S2_BEST_GRD          -0.0039      0.001     -2.891      0.004      -0.007      -0.001
-SchoolRegion_1       -0.3373      0.118     -2.862      0.004      -0.569      -0.106
-SchoolType_1          0.1420      0.073      1.936      0.053      -0.002       0.286
-SchoolType_2          0.1235      0.062      1.999      0.046       0.002       0.245
-SchoolType_4          0.1316      0.035      3.739      0.000       0.062       0.201
-MotherEd_1           -0.1314      0.068     -1.925      0.055      -0.266       0.003
-MotherEd_2           -0.1834      0.102     -1.791      0.074      -0.385       0.018
-MotherEd_3           -0.1826      0.070     -2.617      0.009      -0.320      -0.046
-MotherEd_4           -0.1961      0.087     -2.260      0.024      -0.367      -0.026
-MotherEd_5           -0.2656      0.103     -2.580      0.010      -0.468      -0.063
-MotherEd_6           -0.1373      0.077     -1.791      0.074      -0.288       0.013
-MotherEd_7           -0.1813      0.079     -2.281      0.023      -0.337      -0.025
-Campus_1              0.3174      0.109      2.919      0.004       0.104       0.531
-PostulationType_1     0.1432      0.066      2.166      0.031       0.013       0.273
+LangScr               0.0004      0.000      2.028      0.043    1.23e-05       0.001
+S1_DRP                0.0249      0.013      1.924      0.055      -0.001       0.050
+S1_GRD_1TO19          0.0394      0.025      1.602      0.110      -0.009       0.088
+S1_GRD_4TO49         -0.0574      0.013     -4.316      0.000      -0.084      -0.031
+S1_GRD_5TO59         -0.0310      0.015     -2.081      0.038      -0.060      -0.002
+S2_BAD                0.0126      0.011      1.156      0.248      -0.009       0.034
+S2_CVL               -0.0266      0.019     -1.407      0.160      -0.064       0.011
+S2_GRD_1TO19         -0.0508      0.030     -1.674      0.095      -0.110       0.009
+S2_GRD_3TO39         -0.0529      0.018     -2.897      0.004      -0.089      -0.017
+S2_GRD_4TO49         -0.0726      0.016     -4.458      0.000      -0.105      -0.041
+S2_GRD_5TO59         -0.0578      0.017     -3.402      0.001      -0.091      -0.024
+S2_GRD_6TO7          -0.0608      0.025     -2.441      0.015      -0.110      -0.012
+S2_BEST_GRD          -0.0021      0.002     -1.222      0.222      -0.005       0.001
+S2_VS_S1             -0.0028      0.002     -1.473      0.141      -0.006       0.001
+SchoolRegion_1        0.3255      0.102      3.185      0.002       0.125       0.526
+SchoolRegion_2        0.3844      0.095      4.031      0.000       0.197       0.572
+SchoolRegion_3        0.3152      0.121      2.608      0.009       0.078       0.553
+SchoolType_2         -0.1222      0.033     -3.651      0.000      -0.188      -0.056
+MotherEd_4            0.0528      0.033      1.623      0.105      -0.011       0.117
+MotherEd_7            0.1822      0.065      2.792      0.005       0.054       0.310
+Campus_1              0.2910      0.097      3.009      0.003       0.101       0.481
+PostulationType_1     0.1768      0.063      2.825      0.005       0.054       0.300
 ==============================================================================
-Omnibus:                       33.638   Durbin-Watson:                   1.929
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.909
-Skew:                           0.473   Prob(JB):                     8.82e-12
-Kurtosis:                       4.174   Cond. No.                         664.
+Omnibus:                       34.497   Durbin-Watson:                   1.948
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.198
+Skew:                           0.490   Prob(JB):                     7.63e-12
+Kurtosis:                       4.152   Cond. No.                     7.39e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.487
-Model:                            OLS   Adj. R-squared:                  0.467
-Method:                 Least Squares   F-statistic:                     24.45
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.22e-62
-Time:                        23:10:00   Log-Likelihood:                -161.90
-No. Observations:                 537   AIC:                             365.8
-Df Residuals:                     516   BIC:                             455.8
-Df Model:                          20                                         
-Covariance Type:            nonrobust                                         
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 7.39e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.644
+Model:                            OLS   Adj. R-squared (uncentered):              0.630
+Method:                 Least Squares   F-statistic:                              44.50
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   2.16e-101
+Time:                        20:51:35   Log-Likelihood:                         -157.69
+No. Observations:                 537   AIC:                                      357.4
+Df Residuals:                     516   BIC:                                      447.4
+Df Model:                          21                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7810      0.100      7.787      0.000       0.584       0.978
-S1_GRD_4TO49         -0.0586      0.012     -4.865      0.000      -0.082      -0.035
-S1_GRD_5TO59         -0.0253      0.013     -1.974      0.049      -0.051      -0.000
-S2_GRD_3TO39         -0.0525      0.017     -3.156      0.002      -0.085      -0.020
-S2_GRD_4TO49         -0.0756      0.014     -5.300      0.000      -0.104      -0.048
-S2_GRD_5TO59         -0.0543      0.015     -3.669      0.000      -0.083      -0.025
-S2_GRD_6TO7          -0.0507      0.023     -2.196      0.029      -0.096      -0.005
-S2_BEST_GRD          -0.0048      0.001     -3.860      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3381      0.118     -2.865      0.004      -0.570      -0.106
-SchoolType_1          0.1383      0.073      1.885      0.060      -0.006       0.283
-SchoolType_2          0.1166      0.062      1.892      0.059      -0.005       0.238
-SchoolType_4          0.1309      0.035      3.714      0.000       0.062       0.200
-MotherEd_1           -0.1396      0.068     -2.049      0.041      -0.274      -0.006
-MotherEd_2           -0.2002      0.102     -1.964      0.050      -0.400    9.33e-05
-MotherEd_3           -0.1897      0.070     -2.721      0.007      -0.327      -0.053
-MotherEd_4           -0.2019      0.087     -2.326      0.020      -0.372      -0.031
-MotherEd_5           -0.2723      0.103     -2.643      0.008      -0.475      -0.070
-MotherEd_6           -0.1392      0.077     -1.814      0.070      -0.290       0.012
-MotherEd_7           -0.1872      0.080     -2.355      0.019      -0.343      -0.031
-Campus_1              0.3137      0.109      2.882      0.004       0.100       0.528
-PostulationType_1     0.1392      0.066      2.104      0.036       0.009       0.269
+LangScr               0.0004      0.000      2.275      0.023    5.95e-05       0.001
+S1_DRP                0.0211      0.013      1.684      0.093      -0.004       0.046
+S1_GRD_1TO19          0.0443      0.024      1.831      0.068      -0.003       0.092
+S1_GRD_4TO49         -0.0576      0.013     -4.331      0.000      -0.084      -0.031
+S1_GRD_5TO59         -0.0299      0.015     -2.013      0.045      -0.059      -0.001
+S2_CVL               -0.0265      0.019     -1.402      0.161      -0.064       0.011
+S2_GRD_1TO19         -0.0537      0.030     -1.774      0.077      -0.113       0.006
+S2_GRD_3TO39         -0.0597      0.017     -3.449      0.001      -0.094      -0.026
+S2_GRD_4TO49         -0.0785      0.015     -5.067      0.000      -0.109      -0.048
+S2_GRD_5TO59         -0.0633      0.016     -3.876      0.000      -0.095      -0.031
+S2_GRD_6TO7          -0.0671      0.024     -2.758      0.006      -0.115      -0.019
+S2_BEST_GRD          -0.0020      0.002     -1.193      0.233      -0.005       0.001
+S2_VS_S1             -0.0025      0.002     -1.356      0.176      -0.006       0.001
+SchoolRegion_1        0.3375      0.102      3.319      0.001       0.138       0.537
+SchoolRegion_2        0.3891      0.095      4.084      0.000       0.202       0.576
+SchoolRegion_3        0.3291      0.120      2.736      0.006       0.093       0.565
+SchoolType_2         -0.1208      0.033     -3.611      0.000      -0.187      -0.055
+MotherEd_4            0.0529      0.033      1.626      0.105      -0.011       0.117
+MotherEd_7            0.1838      0.065      2.817      0.005       0.056       0.312
+Campus_1              0.2969      0.097      3.073      0.002       0.107       0.487
+PostulationType_1     0.1765      0.063      2.819      0.005       0.053       0.300
 ==============================================================================
-Omnibus:                       32.232   Durbin-Watson:                   1.928
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               49.654
-Skew:                           0.451   Prob(JB):                     1.65e-11
-Kurtosis:                       4.186   Cond. No.                         662.
+Omnibus:                       34.210   Durbin-Watson:                   1.947
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               49.698
+Skew:                           0.494   Prob(JB):                     1.61e-11
+Kurtosis:                       4.115   Cond. No.                     7.36e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.483
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     25.45
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.94e-62
-Time:                        23:10:00   Log-Likelihood:                -163.60
-No. Observations:                 537   AIC:                             367.2
-Df Residuals:                     517   BIC:                             452.9
-Df Model:                          19                                         
-Covariance Type:            nonrobust                                         
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 7.36e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.643
+Model:                            OLS   Adj. R-squared (uncentered):              0.629
+Method:                 Least Squares   F-statistic:                              46.61
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   6.25e-102
+Time:                        20:51:35   Log-Likelihood:                         -158.43
+No. Observations:                 537   AIC:                                      356.9
+Df Residuals:                     517   BIC:                                      442.6
+Df Model:                          20                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6854      0.086      8.015      0.000       0.517       0.853
-S1_GRD_4TO49         -0.0571      0.012     -4.743      0.000      -0.081      -0.033
-S1_GRD_5TO59         -0.0255      0.013     -1.986      0.048      -0.051      -0.000
-S2_GRD_3TO39         -0.0513      0.017     -3.084      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0745      0.014     -5.211      0.000      -0.103      -0.046
-S2_GRD_5TO59         -0.0533      0.015     -3.595      0.000      -0.082      -0.024
-S2_GRD_6TO7          -0.0511      0.023     -2.208      0.028      -0.097      -0.006
-S2_BEST_GRD          -0.0049      0.001     -3.945      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3459      0.118     -2.926      0.004      -0.578      -0.114
-SchoolType_1          0.1464      0.073      1.995      0.047       0.002       0.291
-SchoolType_2          0.1334      0.061      2.182      0.030       0.013       0.253
-SchoolType_4          0.1354      0.035      3.841      0.000       0.066       0.205
-MotherEd_1           -0.0462      0.045     -1.033      0.302      -0.134       0.042
-MotherEd_2           -0.1074      0.088     -1.215      0.225      -0.281       0.066
-MotherEd_3           -0.0973      0.048     -2.039      0.042      -0.191      -0.004
-MotherEd_4           -0.1103      0.071     -1.559      0.120      -0.249       0.029
-MotherEd_5           -0.1787      0.089     -2.000      0.046      -0.354      -0.003
-MotherEd_7           -0.0925      0.060     -1.539      0.124      -0.210       0.026
-Campus_1              0.3175      0.109      2.911      0.004       0.103       0.532
-PostulationType_1     0.1367      0.066      2.062      0.040       0.006       0.267
+LangScr               0.0004      0.000      2.020      0.044    1.03e-05       0.001
+S1_DRP                0.0273      0.011      2.395      0.017       0.005       0.050
+S1_GRD_1TO19          0.0487      0.024      2.034      0.042       0.002       0.096
+S1_GRD_4TO49         -0.0630      0.013     -5.034      0.000      -0.088      -0.038
+S1_GRD_5TO59         -0.0351      0.014     -2.465      0.014      -0.063      -0.007
+S2_CVL               -0.0267      0.019     -1.414      0.158      -0.064       0.010
+S2_GRD_1TO19         -0.0690      0.027     -2.512      0.012      -0.123      -0.015
+S2_GRD_3TO39         -0.0703      0.015     -4.729      0.000      -0.100      -0.041
+S2_GRD_4TO49         -0.0862      0.014     -6.124      0.000      -0.114      -0.059
+S2_GRD_5TO59         -0.0723      0.015     -4.975      0.000      -0.101      -0.044
+S2_GRD_6TO7          -0.0830      0.020     -4.084      0.000      -0.123      -0.043
+S2_VS_S1             -0.0039      0.002     -2.565      0.011      -0.007      -0.001
+SchoolRegion_1        0.3185      0.100      3.170      0.002       0.121       0.516
+SchoolRegion_2        0.3700      0.094      3.938      0.000       0.185       0.555
+SchoolRegion_3        0.3091      0.119      2.594      0.010       0.075       0.543
+SchoolType_2         -0.1257      0.033     -3.785      0.000      -0.191      -0.060
+MotherEd_4            0.0545      0.033      1.677      0.094      -0.009       0.118
+MotherEd_7            0.1845      0.065      2.826      0.005       0.056       0.313
+Campus_1              0.2807      0.096      2.934      0.003       0.093       0.469
+PostulationType_1     0.1828      0.062      2.929      0.004       0.060       0.305
 ==============================================================================
-Omnibus:                       33.929   Durbin-Watson:                   1.926
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               53.816
-Skew:                           0.460   Prob(JB):                     2.06e-12
-Kurtosis:                       4.248   Cond. No.                         550.
+Omnibus:                       31.358   Durbin-Watson:                   1.938
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               43.292
+Skew:                           0.480   Prob(JB):                     3.97e-10
+Kurtosis:                       4.007   Cond. No.                     7.24e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.482
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     26.81
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.57e-62
-Time:                        23:10:00   Log-Likelihood:                -164.16
-No. Observations:                 537   AIC:                             366.3
-Df Residuals:                     518   BIC:                             447.8
-Df Model:                          18                                         
-Covariance Type:            nonrobust                                         
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 7.24e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.640
+Model:                            OLS   Adj. R-squared (uncentered):              0.627
+Method:                 Least Squares   F-statistic:                              51.23
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   1.33e-102
+Time:                        20:51:35   Log-Likelihood:                         -160.96
+No. Observations:                 537   AIC:                                      357.9
+Df Residuals:                     519   BIC:                                      435.1
+Df Model:                          18                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6383      0.072      8.823      0.000       0.496       0.780
-S1_GRD_4TO49         -0.0556      0.012     -4.652      0.000      -0.079      -0.032
-S1_GRD_5TO59         -0.0234      0.013     -1.847      0.065      -0.048       0.001
-S2_GRD_3TO39         -0.0514      0.017     -3.086      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0757      0.014     -5.319      0.000      -0.104      -0.048
-S2_GRD_5TO59         -0.0558      0.015     -3.820      0.000      -0.085      -0.027
-S2_GRD_6TO7          -0.0508      0.023     -2.195      0.029      -0.096      -0.005
-S2_BEST_GRD          -0.0048      0.001     -3.908      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3467      0.118     -2.932      0.004      -0.579      -0.114
-SchoolType_1          0.1433      0.073      1.953      0.051      -0.001       0.287
-SchoolType_2          0.1295      0.061      2.123      0.034       0.010       0.249
-SchoolType_4          0.1329      0.035      3.779      0.000       0.064       0.202
-MotherEd_2           -0.0758      0.083     -0.914      0.361      -0.239       0.087
-MotherEd_3           -0.0672      0.038     -1.778      0.076      -0.142       0.007
-MotherEd_4           -0.0802      0.064     -1.244      0.214      -0.207       0.046
-MotherEd_5           -0.1484      0.084     -1.758      0.079      -0.314       0.017
-MotherEd_7           -0.0638      0.053     -1.198      0.232      -0.169       0.041
-Campus_1              0.3196      0.109      2.931      0.004       0.105       0.534
-PostulationType_1     0.1526      0.064      2.366      0.018       0.026       0.279
+LangScr               0.0004      0.000      2.140      0.033    3.18e-05       0.001
+S1_DRP                0.0278      0.011      2.425      0.016       0.005       0.050
+S1_GRD_1TO19          0.0502      0.024      2.092      0.037       0.003       0.097
+S1_GRD_4TO49         -0.0665      0.012     -5.375      0.000      -0.091      -0.042
+S1_GRD_5TO59         -0.0389      0.014     -2.793      0.005      -0.066      -0.012
+S2_GRD_1TO19         -0.0699      0.027     -2.544      0.011      -0.124      -0.016
+S2_GRD_3TO39         -0.0700      0.015     -4.694      0.000      -0.099      -0.041
+S2_GRD_4TO49         -0.0846      0.014     -6.062      0.000      -0.112      -0.057
+S2_GRD_5TO59         -0.0677      0.014     -4.758      0.000      -0.096      -0.040
+S2_GRD_6TO7          -0.0864      0.020     -4.267      0.000      -0.126      -0.047
+S2_VS_S1             -0.0042      0.002     -2.767      0.006      -0.007      -0.001
+SchoolRegion_1        0.3466      0.100      3.472      0.001       0.150       0.543
+SchoolRegion_2        0.3874      0.094      4.129      0.000       0.203       0.572
+SchoolRegion_3        0.3460      0.118      2.927      0.004       0.114       0.578
+SchoolType_2         -0.1259      0.033     -3.800      0.000      -0.191      -0.061
+MotherEd_7            0.1667      0.065      2.577      0.010       0.040       0.294
+Campus_1              0.3059      0.095      3.211      0.001       0.119       0.493
+PostulationType_1     0.1655      0.060      2.770      0.006       0.048       0.283
 ==============================================================================
-Omnibus:                       34.452   Durbin-Watson:                   1.930
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.282
-Skew:                           0.462   Prob(JB):                     9.90e-13
-Kurtosis:                       4.271   Cond. No.                         549.
+Omnibus:                       33.746   Durbin-Watson:                   1.926
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               46.596
+Skew:                           0.508   Prob(JB):                     7.62e-11
+Kurtosis:                       4.025   Cond. No.                     7.16e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.481
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     28.34
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.34e-63
-Time:                        23:10:00   Log-Likelihood:                -164.59
-No. Observations:                 537   AIC:                             365.2
-Df Residuals:                     519   BIC:                             442.3
-Df Model:                          17                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6396      0.072      8.845      0.000       0.498       0.782
-S1_GRD_4TO49         -0.0549      0.012     -4.607      0.000      -0.078      -0.032
-S1_GRD_5TO59         -0.0240      0.013     -1.893      0.059      -0.049       0.001
-S2_GRD_3TO39         -0.0513      0.017     -3.080      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0752      0.014     -5.286      0.000      -0.103      -0.047
-S2_GRD_5TO59         -0.0553      0.015     -3.786      0.000      -0.084      -0.027
-S2_GRD_6TO7          -0.0495      0.023     -2.144      0.032      -0.095      -0.004
-S2_BEST_GRD          -0.0048      0.001     -3.921      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3488      0.118     -2.952      0.003      -0.581      -0.117
-SchoolType_1          0.1424      0.073      1.941      0.053      -0.002       0.286
-SchoolType_2          0.1251      0.061      2.058      0.040       0.006       0.245
-SchoolType_4          0.1281      0.035      3.684      0.000       0.060       0.196
-MotherEd_3           -0.0619      0.037     -1.658      0.098      -0.135       0.011
-MotherEd_4           -0.0753      0.064     -1.173      0.241      -0.202       0.051
-MotherEd_5           -0.1433      0.084     -1.702      0.089      -0.309       0.022
-MotherEd_7           -0.0593      0.053     -1.118      0.264      -0.164       0.045
-Campus_1              0.3204      0.109      2.939      0.003       0.106       0.535
-PostulationType_1     0.1483      0.064      2.305      0.022       0.022       0.275
-==============================================================================
-Omnibus:                       34.726   Durbin-Watson:                   1.931
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.684
-Skew:                           0.466   Prob(JB):                     8.10e-13
-Kurtosis:                       4.273   Cond. No.                         549.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.480
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     30.02
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.42e-63
-Time:                        23:10:00   Log-Likelihood:                -165.24
-No. Observations:                 537   AIC:                             364.5
-Df Residuals:                     520   BIC:                             437.3
-Df Model:                          16                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6419      0.072      8.878      0.000       0.500       0.784
-S1_GRD_4TO49         -0.0557      0.012     -4.676      0.000      -0.079      -0.032
-S1_GRD_5TO59         -0.0254      0.013     -2.013      0.045      -0.050      -0.001
-S2_GRD_3TO39         -0.0515      0.017     -3.091      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0750      0.014     -5.275      0.000      -0.103      -0.047
-S2_GRD_5TO59         -0.0538      0.015     -3.701      0.000      -0.082      -0.025
-S2_GRD_6TO7          -0.0491      0.023     -2.125      0.034      -0.094      -0.004
-S2_BEST_GRD          -0.0049      0.001     -3.958      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3474      0.118     -2.939      0.003      -0.580      -0.115
-SchoolType_1          0.1484      0.073      2.029      0.043       0.005       0.292
-SchoolType_2          0.1299      0.061      2.141      0.033       0.011       0.249
-SchoolType_4          0.1295      0.035      3.727      0.000       0.061       0.198
-MotherEd_3           -0.0533      0.037     -1.458      0.145      -0.125       0.019
-MotherEd_4           -0.0667      0.064     -1.046      0.296      -0.192       0.059
-MotherEd_5           -0.1345      0.084     -1.604      0.109      -0.299       0.030
-Campus_1              0.3161      0.109      2.900      0.004       0.102       0.530
-PostulationType_1     0.1393      0.064      2.182      0.030       0.014       0.265
-==============================================================================
-Omnibus:                       35.037   Durbin-Watson:                   1.932
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.544
-Skew:                           0.467   Prob(JB):                     5.27e-13
-Kurtosis:                       4.286   Cond. No.                         549.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.479
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     31.94
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.20e-64
-Time:                        23:10:00   Log-Likelihood:                -165.80
-No. Observations:                 537   AIC:                             363.6
-Df Residuals:                     521   BIC:                             432.2
-Df Model:                          15                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6467      0.072      8.961      0.000       0.505       0.788
-S1_GRD_4TO49         -0.0567      0.012     -4.779      0.000      -0.080      -0.033
-S1_GRD_5TO59         -0.0255      0.013     -2.018      0.044      -0.050      -0.001
-S2_GRD_3TO39         -0.0519      0.017     -3.119      0.002      -0.085      -0.019
-S2_GRD_4TO49         -0.0750      0.014     -5.270      0.000      -0.103      -0.047
-S2_GRD_5TO59         -0.0537      0.015     -3.689      0.000      -0.082      -0.025
-S2_GRD_6TO7          -0.0502      0.023     -2.175      0.030      -0.096      -0.005
-S2_BEST_GRD          -0.0049      0.001     -3.962      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3454      0.118     -2.922      0.004      -0.578      -0.113
-SchoolType_1          0.1409      0.073      1.935      0.053      -0.002       0.284
-SchoolType_2          0.1258      0.061      2.077      0.038       0.007       0.245
-SchoolType_4          0.1259      0.035      3.640      0.000       0.058       0.194
-MotherEd_3           -0.0465      0.036     -1.293      0.197      -0.117       0.024
-MotherEd_5           -0.1284      0.084     -1.535      0.126      -0.293       0.036
-Campus_1              0.3134      0.109      2.876      0.004       0.099       0.527
-PostulationType_1     0.1341      0.064      2.107      0.036       0.009       0.259
-==============================================================================
-Omnibus:                       35.580   Durbin-Watson:                   1.933
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.543
-Skew:                           0.472   Prob(JB):                     3.20e-13
-Kurtosis:                       4.296   Cond. No.                         549.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.477
-Model:                            OLS   Adj. R-squared:                  0.463
-Method:                 Least Squares   F-statistic:                     34.06
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.59e-64
-Time:                        23:10:00   Log-Likelihood:                -166.66
-No. Observations:                 537   AIC:                             363.3
-Df Residuals:                     522   BIC:                             427.6
-Df Model:                          14                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6546      0.072      9.097      0.000       0.513       0.796
-S1_GRD_4TO49         -0.0578      0.012     -4.883      0.000      -0.081      -0.035
-S1_GRD_5TO59         -0.0268      0.013     -2.132      0.033      -0.052      -0.002
-S2_GRD_3TO39         -0.0509      0.017     -3.058      0.002      -0.084      -0.018
-S2_GRD_4TO49         -0.0736      0.014     -5.187      0.000      -0.102      -0.046
-S2_GRD_5TO59         -0.0525      0.015     -3.615      0.000      -0.081      -0.024
-S2_GRD_6TO7          -0.0500      0.023     -2.164      0.031      -0.095      -0.005
-S2_BEST_GRD          -0.0050      0.001     -4.028      0.000      -0.007      -0.003
-SchoolRegion_1       -0.3383      0.118     -2.863      0.004      -0.570      -0.106
-SchoolType_1          0.1318      0.073      1.817      0.070      -0.011       0.274
-SchoolType_2          0.1178      0.060      1.955      0.051      -0.001       0.236
-SchoolType_4          0.1188      0.034      3.478      0.001       0.052       0.186
-MotherEd_5           -0.1171      0.083     -1.407      0.160      -0.281       0.046
-Campus_1              0.3062      0.109      2.812      0.005       0.092       0.520
-PostulationType_1     0.1233      0.063      1.953      0.051      -0.001       0.247
-==============================================================================
-Omnibus:                       37.612   Durbin-Watson:                   1.927
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               59.932
-Skew:                           0.500   Prob(JB):                     9.68e-14
-Kurtosis:                       4.295   Cond. No.                         548.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.475
-Model:                            OLS   Adj. R-squared:                  0.462
-Method:                 Least Squares   F-statistic:                     36.46
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.74e-65
-Time:                        23:10:00   Log-Likelihood:                -167.68
-No. Observations:                 537   AIC:                             363.4
-Df Residuals:                     523   BIC:                             423.4
-Df Model:                          13                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6556      0.072      9.104      0.000       0.514       0.797
-S1_GRD_4TO49         -0.0572      0.012     -4.830      0.000      -0.081      -0.034
-S1_GRD_5TO59         -0.0264      0.013     -2.099      0.036      -0.051      -0.002
-S2_GRD_3TO39         -0.0514      0.017     -3.088      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0739      0.014     -5.201      0.000      -0.102      -0.046
-S2_GRD_5TO59         -0.0517      0.015     -3.559      0.000      -0.080      -0.023
-S2_GRD_6TO7          -0.0484      0.023     -2.095      0.037      -0.094      -0.003
-S2_BEST_GRD          -0.0050      0.001     -4.084      0.000      -0.007      -0.003
-SchoolRegion_1       -0.3474      0.118     -2.942      0.003      -0.579      -0.115
-SchoolType_1          0.1259      0.072      1.737      0.083      -0.016       0.268
-SchoolType_2          0.1180      0.060      1.956      0.051      -0.000       0.237
-SchoolType_4          0.1186      0.034      3.467      0.001       0.051       0.186
-Campus_1              0.3099      0.109      2.844      0.005       0.096       0.524
-PostulationType_1     0.1200      0.063      1.900      0.058      -0.004       0.244
-==============================================================================
-Omnibus:                       38.382   Durbin-Watson:                   1.926
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               60.715
-Skew:                           0.511   Prob(JB):                     6.54e-14
-Kurtosis:                       4.291   Cond. No.                         548.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.472
-Model:                            OLS   Adj. R-squared:                  0.460
-Method:                 Least Squares   F-statistic:                     39.10
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.58e-65
-Time:                        23:10:00   Log-Likelihood:                -169.22
-No. Observations:                 537   AIC:                             364.4
-Df Residuals:                     524   BIC:                             420.2
-Df Model:                          12                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6702      0.072      9.351      0.000       0.529       0.811
-S1_GRD_4TO49         -0.0570      0.012     -4.805      0.000      -0.080      -0.034
-S1_GRD_5TO59         -0.0260      0.013     -2.058      0.040      -0.051      -0.001
-S2_GRD_3TO39         -0.0509      0.017     -3.053      0.002      -0.084      -0.018
-S2_GRD_4TO49         -0.0713      0.014     -5.039      0.000      -0.099      -0.044
-S2_GRD_5TO59         -0.0519      0.015     -3.565      0.000      -0.080      -0.023
-S2_GRD_6TO7          -0.0460      0.023     -1.994      0.047      -0.091      -0.001
-S2_BEST_GRD          -0.0052      0.001     -4.227      0.000      -0.008      -0.003
-SchoolRegion_1       -0.3606      0.118     -3.055      0.002      -0.593      -0.129
-SchoolType_2          0.0978      0.059      1.649      0.100      -0.019       0.214
-SchoolType_4          0.0988      0.032      3.058      0.002       0.035       0.162
-Campus_1              0.3192      0.109      2.927      0.004       0.105       0.533
-PostulationType_1     0.1281      0.063      2.030      0.043       0.004       0.252
-==============================================================================
-Omnibus:                       36.436   Durbin-Watson:                   1.926
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.886
-Skew:                           0.494   Prob(JB):                     4.44e-13
-Kurtosis:                       4.251   Cond. No.                         546.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.470
-Model:                            OLS   Adj. R-squared:                  0.459
-Method:                 Least Squares   F-statistic:                     42.27
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.59e-65
-Time:                        23:10:00   Log-Likelihood:                -170.61
-No. Observations:                 537   AIC:                             365.2
-Df Residuals:                     525   BIC:                             416.7
-Df Model:                          11                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6877      0.071      9.688      0.000       0.548       0.827
-S1_GRD_4TO49         -0.0572      0.012     -4.808      0.000      -0.081      -0.034
-S1_GRD_5TO59         -0.0263      0.013     -2.081      0.038      -0.051      -0.001
-S2_GRD_3TO39         -0.0496      0.017     -2.972      0.003      -0.082      -0.017
-S2_GRD_4TO49         -0.0706      0.014     -4.979      0.000      -0.098      -0.043
-S2_GRD_5TO59         -0.0501      0.015     -3.444      0.001      -0.079      -0.022
-S2_GRD_6TO7          -0.0416      0.023     -1.811      0.071      -0.087       0.004
-S2_BEST_GRD          -0.0054      0.001     -4.404      0.000      -0.008      -0.003
-SchoolRegion_1       -0.3738      0.118     -3.168      0.002      -0.606      -0.142
-SchoolType_4          0.0792      0.030      2.632      0.009       0.020       0.138
-Campus_1              0.3413      0.108      3.149      0.002       0.128       0.554
-PostulationType_1     0.1325      0.063      2.099      0.036       0.009       0.257
-==============================================================================
-Omnibus:                       38.198   Durbin-Watson:                   1.938
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               58.775
-Skew:                           0.519   Prob(JB):                     1.73e-13
-Kurtosis:                       4.245   Cond. No.                         544.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.466
-Model:                            OLS   Adj. R-squared:                  0.456
-Method:                 Least Squares   F-statistic:                     45.97
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.85e-65
-Time:                        23:10:01   Log-Likelihood:                -172.29
-No. Observations:                 537   AIC:                             366.6
-Df Residuals:                     526   BIC:                             413.7
-Df Model:                          10                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6942      0.071      9.771      0.000       0.555       0.834
-S1_GRD_4TO49         -0.0540      0.012     -4.581      0.000      -0.077      -0.031
-S1_GRD_5TO59         -0.0302      0.012     -2.425      0.016      -0.055      -0.006
-S2_GRD_3TO39         -0.0384      0.016     -2.471      0.014      -0.069      -0.008
-S2_GRD_4TO49         -0.0612      0.013     -4.628      0.000      -0.087      -0.035
-S2_GRD_5TO59         -0.0441      0.014     -3.108      0.002      -0.072      -0.016
-S2_BEST_GRD          -0.0067      0.001     -6.579      0.000      -0.009      -0.005
-SchoolRegion_1       -0.3882      0.118     -3.290      0.001      -0.620      -0.156
-SchoolType_4          0.0775      0.030      2.570      0.010       0.018       0.137
-Campus_1              0.3463      0.109      3.189      0.002       0.133       0.560
-PostulationType_1     0.1377      0.063      2.180      0.030       0.014       0.262
-==============================================================================
-Omnibus:                       43.509   Durbin-Watson:                   1.954
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               67.598
-Skew:                           0.574   Prob(JB):                     2.10e-15
-Kurtosis:                       4.306   Cond. No.                         543.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 7.16e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
   </si>
 </sst>
 </file>
@@ -2787,18 +2482,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="36" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="2"/>
@@ -2809,97 +2504,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>41</v>
@@ -2943,18 +2638,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9.140625" style="2"/>
@@ -2965,94 +2660,94 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>41</v>
@@ -3096,18 +2791,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="9.140625" style="2"/>
@@ -3118,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -3139,70 +2834,70 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>41</v>
@@ -3246,17 +2941,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="2"/>
@@ -3267,16 +2963,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -3288,67 +2984,67 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>41</v>
@@ -3392,17 +3088,17 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="2"/>
@@ -3413,85 +3109,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>41</v>
@@ -3535,17 +3231,17 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="31" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="2"/>
@@ -3556,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3571,67 +3267,67 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>41</v>
@@ -3675,16 +3371,17 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="30" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
@@ -3695,79 +3392,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>41</v>
@@ -3811,16 +3508,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="2"/>
@@ -3831,76 +3528,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>41</v>
@@ -3944,16 +3641,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9.140625" style="2"/>
@@ -3964,73 +3661,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>41</v>
@@ -4074,16 +3771,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="2"/>
@@ -4094,70 +3791,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>41</v>
@@ -4207,13 +3904,12 @@
     <col min="8" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="44" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -4273,61 +3969,61 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>37</v>
@@ -4383,15 +4079,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="2"/>
@@ -4402,67 +4099,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>41</v>
@@ -4507,13 +4204,15 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="2"/>
@@ -4524,64 +4223,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>41</v>
@@ -4625,14 +4324,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="2"/>
@@ -4643,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -4658,46 +4358,46 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>41</v>
@@ -4741,13 +4441,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="2"/>
@@ -4758,64 +4460,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>43</v>
@@ -4853,11 +4555,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="2"/>
@@ -4868,61 +4574,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>43</v>
@@ -4960,11 +4666,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
@@ -4975,61 +4685,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>44</v>
@@ -5064,11 +4774,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="2"/>
@@ -5079,58 +4793,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>44</v>
@@ -5165,11 +4879,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="2"/>
@@ -5180,55 +4898,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>44</v>
@@ -5263,11 +4981,13 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
@@ -5278,52 +4998,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>44</v>
@@ -5358,11 +5078,13 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="2"/>
@@ -5373,49 +5095,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>44</v>
@@ -5461,8 +5183,8 @@
     <col min="26" max="27" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="43" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="43" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="9.140625" style="2"/>
@@ -5575,13 +5297,13 @@
         <v>35</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>40</v>
@@ -5611,629 +5333,6 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6256,14 +5355,14 @@
     <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="16384" width="9.140625" style="2"/>
@@ -6316,73 +5415,73 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>41</v>
@@ -6429,16 +5528,16 @@
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="16384" width="9.140625" style="2"/>
@@ -6470,91 +5569,91 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>41</v>
@@ -6598,19 +5697,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="16384" width="9.140625" style="2"/>
@@ -6621,16 +5719,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -6639,91 +5737,91 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>41</v>
@@ -6767,18 +5865,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="39" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="2"/>
@@ -6789,106 +5887,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>41</v>
@@ -6932,18 +6030,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="38" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="9.140625" style="2"/>
@@ -6954,103 +6052,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>41</v>
@@ -7094,18 +6192,18 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="37" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="16384" width="9.140625" style="2"/>
@@ -7116,100 +6214,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>41</v>

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF76C83B-24FD-4478-9681-61F70B4C5826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EBFDD2-9F22-4EC5-80E3-0CABC0418C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 Model:                            OLS   Adj. R-squared:                  0.455
 Method:                 Least Squares   F-statistic:                     10.72
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.01e-49
-Time:                        20:51:34   Log-Likelihood:                -153.95
+Time:                        20:59:35   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             401.9
 Df Residuals:                     490   BIC:                             603.3
 Df Model:                          46                                         
@@ -273,7 +273,7 @@
 Model:                            OLS   Adj. R-squared:                  0.456
 Method:                 Least Squares   F-statistic:                     10.98
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.03e-50
-Time:                        20:51:34   Log-Likelihood:                -153.95
+Time:                        20:59:36   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             399.9
 Df Residuals:                     491   BIC:                             597.1
 Df Model:                          45                                         
@@ -345,7 +345,7 @@
 Model:                            OLS   Adj. R-squared:                  0.457
 Method:                 Least Squares   F-statistic:                     11.25
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.78e-50
-Time:                        20:51:34   Log-Likelihood:                -153.95
+Time:                        20:59:36   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             397.9
 Df Residuals:                     492   BIC:                             590.8
 Df Model:                          44                                         
@@ -416,7 +416,7 @@
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     11.54
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.22e-51
-Time:                        20:51:34   Log-Likelihood:                -153.95
+Time:                        20:59:36   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             395.9
 Df Residuals:                     493   BIC:                             584.5
 Df Model:                          43                                         
@@ -486,7 +486,7 @@
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     11.84
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.51e-51
-Time:                        20:51:34   Log-Likelihood:                -153.95
+Time:                        20:59:36   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             393.9
 Df Residuals:                     494   BIC:                             578.2
 Df Model:                          42                                         
@@ -555,7 +555,7 @@
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.15
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.31e-52
-Time:                        20:51:34   Log-Likelihood:                -153.96
+Time:                        20:59:36   Log-Likelihood:                -153.96
 No. Observations:                 537   AIC:                             391.9
 Df Residuals:                     495   BIC:                             571.9
 Df Model:                          41                                         
@@ -623,7 +623,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.620
 Method:                 Least Squares   F-statistic:                              22.38
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.29e-88
-Time:                        20:51:34   Log-Likelihood:                         -153.99
+Time:                        20:59:36   Log-Likelihood:                         -153.99
 No. Observations:                 537   AIC:                                      390.0
 Df Residuals:                     496   BIC:                                      565.7
 Df Model:                          41                                                  
@@ -690,7 +690,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.621
 Method:                 Least Squares   F-statistic:                              22.98
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.53e-88
-Time:                        20:51:34   Log-Likelihood:                         -154.01
+Time:                        20:59:36   Log-Likelihood:                         -154.01
 No. Observations:                 537   AIC:                                      388.0
 Df Residuals:                     497   BIC:                                      559.5
 Df Model:                          40                                                  
@@ -756,7 +756,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              23.61
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.22e-89
-Time:                        20:51:34   Log-Likelihood:                         -154.04
+Time:                        20:59:36   Log-Likelihood:                         -154.04
 No. Observations:                 537   AIC:                                      386.1
 Df Residuals:                     498   BIC:                                      553.2
 Df Model:                          39                                                  
@@ -821,7 +821,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              24.28
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    6.53e-90
-Time:                        20:51:34   Log-Likelihood:                         -154.05
+Time:                        20:59:36   Log-Likelihood:                         -154.05
 No. Observations:                 537   AIC:                                      384.1
 Df Residuals:                     499   BIC:                                      547.0
 Df Model:                          38                                                  
@@ -885,7 +885,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.623
 Method:                 Least Squares   F-statistic:                              24.99
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.33e-90
-Time:                        20:51:34   Log-Likelihood:                         -154.08
+Time:                        20:59:36   Log-Likelihood:                         -154.08
 No. Observations:                 537   AIC:                                      382.2
 Df Residuals:                     500   BIC:                                      540.7
 Df Model:                          37                                                  
@@ -948,7 +948,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              25.73
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.69e-91
-Time:                        20:51:34   Log-Likelihood:                         -154.12
+Time:                        20:59:36   Log-Likelihood:                         -154.12
 No. Observations:                 537   AIC:                                      380.2
 Df Residuals:                     501   BIC:                                      534.5
 Df Model:                          36                                                  
@@ -1010,7 +1010,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              26.51
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    5.36e-92
-Time:                        20:51:34   Log-Likelihood:                         -154.15
+Time:                        20:59:36   Log-Likelihood:                         -154.15
 No. Observations:                 537   AIC:                                      378.3
 Df Residuals:                     502   BIC:                                      528.3
 Df Model:                          35                                                  
@@ -1071,7 +1071,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.625
 Method:                 Least Squares   F-statistic:                              27.33
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.07e-92
-Time:                        20:51:34   Log-Likelihood:                         -154.21
+Time:                        20:59:36   Log-Likelihood:                         -154.21
 No. Observations:                 537   AIC:                                      376.4
 Df Residuals:                     503   BIC:                                      522.1
 Df Model:                          34                                                  
@@ -1131,7 +1131,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              28.21
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.11e-93
-Time:                        20:51:34   Log-Likelihood:                         -154.27
+Time:                        20:59:36   Log-Likelihood:                         -154.27
 No. Observations:                 537   AIC:                                      374.5
 Df Residuals:                     504   BIC:                                      516.0
 Df Model:                          33                                                  
@@ -1190,7 +1190,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              29.13
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    4.23e-94
-Time:                        20:51:34   Log-Likelihood:                         -154.37
+Time:                        20:59:36   Log-Likelihood:                         -154.37
 No. Observations:                 537   AIC:                                      372.7
 Df Residuals:                     505   BIC:                                      509.9
 Df Model:                          32                                                  
@@ -1248,7 +1248,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              30.11
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    8.41e-95
-Time:                        20:51:34   Log-Likelihood:                         -154.48
+Time:                        20:59:36   Log-Likelihood:                         -154.48
 No. Observations:                 537   AIC:                                      371.0
 Df Residuals:                     506   BIC:                                      503.8
 Df Model:                          31                                                  
@@ -1305,7 +1305,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              31.15
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.67e-95
-Time:                        20:51:34   Log-Likelihood:                         -154.60
+Time:                        20:59:36   Log-Likelihood:                         -154.60
 No. Observations:                 537   AIC:                                      369.2
 Df Residuals:                     507   BIC:                                      497.8
 Df Model:                          30                                                  
@@ -1361,7 +1361,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              32.27
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.27e-96
-Time:                        20:51:34   Log-Likelihood:                         -154.73
+Time:                        20:59:36   Log-Likelihood:                         -154.73
 No. Observations:                 537   AIC:                                      367.5
 Df Residuals:                     508   BIC:                                      491.7
 Df Model:                          29                                                  
@@ -1416,7 +1416,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              33.44
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.05e-97
-Time:                        20:51:34   Log-Likelihood:                         -154.98
+Time:                        20:59:36   Log-Likelihood:                         -154.98
 No. Observations:                 537   AIC:                                      366.0
 Df Residuals:                     509   BIC:                                      486.0
 Df Model:                          28                                                  
@@ -1470,7 +1470,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              34.69
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.53e-97
-Time:                        20:51:34   Log-Likelihood:                         -155.25
+Time:                        20:59:36   Log-Likelihood:                         -155.25
 No. Observations:                 537   AIC:                                      364.5
 Df Residuals:                     510   BIC:                                      480.2
 Df Model:                          27                                                  
@@ -1523,7 +1523,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              36.05
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.04e-98
-Time:                        20:51:34   Log-Likelihood:                         -155.46
+Time:                        20:59:36   Log-Likelihood:                         -155.46
 No. Observations:                 537   AIC:                                      362.9
 Df Residuals:                     511   BIC:                                      474.4
 Df Model:                          26                                                  
@@ -1575,7 +1575,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              37.56
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    5.05e-99
-Time:                        20:51:35   Log-Likelihood:                         -155.49
+Time:                        20:59:36   Log-Likelihood:                         -155.49
 No. Observations:                 537   AIC:                                      361.0
 Df Residuals:                     512   BIC:                                      468.1
 Df Model:                          25                                                  
@@ -1626,7 +1626,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              39.12
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.13e-99
-Time:                        20:51:35   Log-Likelihood:                         -155.87
+Time:                        20:59:36   Log-Likelihood:                         -155.87
 No. Observations:                 537   AIC:                                      359.7
 Df Residuals:                     513   BIC:                                      462.6
 Df Model:                          24                                                  
@@ -1676,7 +1676,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              40.79
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   2.71e-100
-Time:                        20:51:35   Log-Likelihood:                         -156.33
+Time:                        20:59:36   Log-Likelihood:                         -156.33
 No. Observations:                 537   AIC:                                      358.7
 Df Residuals:                     514   BIC:                                      457.2
 Df Model:                          23                                                  
@@ -1725,7 +1725,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              42.56
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   7.59e-101
-Time:                        20:51:35   Log-Likelihood:                         -156.99
+Time:                        20:59:36   Log-Likelihood:                         -156.99
 No. Observations:                 537   AIC:                                      358.0
 Df Residuals:                     515   BIC:                                      452.3
 Df Model:                          22                                                  
@@ -1773,7 +1773,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              44.50
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   2.16e-101
-Time:                        20:51:35   Log-Likelihood:                         -157.69
+Time:                        20:59:36   Log-Likelihood:                         -157.69
 No. Observations:                 537   AIC:                                      357.4
 Df Residuals:                     516   BIC:                                      447.4
 Df Model:                          21                                                  
@@ -1820,7 +1820,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              46.61
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   6.25e-102
-Time:                        20:51:35   Log-Likelihood:                         -158.43
+Time:                        20:59:36   Log-Likelihood:                         -158.43
 No. Observations:                 537   AIC:                                      356.9
 Df Residuals:                     517   BIC:                                      442.6
 Df Model:                          20                                                  
@@ -1866,7 +1866,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              51.23
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   1.33e-102
-Time:                        20:51:35   Log-Likelihood:                         -160.96
+Time:                        20:59:36   Log-Likelihood:                         -160.96
 No. Observations:                 537   AIC:                                      357.9
 Df Residuals:                     519   BIC:                                      435.1
 Df Model:                          18                                                  

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EBFDD2-9F22-4EC5-80E3-0CABC0418C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32C4AE-2DB1-4C90-9CFE-52F98F4FE0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,8 +199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.455
 Method:                 Least Squares   F-statistic:                     10.72
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.01e-49
-Time:                        20:59:35   Log-Likelihood:                -153.95
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.01e-49
+Time:                        16:11:01   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             401.9
 Df Residuals:                     490   BIC:                             603.3
 Df Model:                          46                                         
@@ -272,8 +272,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.456
 Method:                 Least Squares   F-statistic:                     10.98
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.03e-50
-Time:                        20:59:36   Log-Likelihood:                -153.95
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.03e-50
+Time:                        16:11:01   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             399.9
 Df Residuals:                     491   BIC:                             597.1
 Df Model:                          45                                         
@@ -344,8 +344,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.457
 Method:                 Least Squares   F-statistic:                     11.25
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.78e-50
-Time:                        20:59:36   Log-Likelihood:                -153.95
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.78e-50
+Time:                        16:11:01   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             397.9
 Df Residuals:                     492   BIC:                             590.8
 Df Model:                          44                                         
@@ -415,8 +415,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     11.54
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.22e-51
-Time:                        20:59:36   Log-Likelihood:                -153.95
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.22e-51
+Time:                        16:11:01   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             395.9
 Df Residuals:                     493   BIC:                             584.5
 Df Model:                          43                                         
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     11.84
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.51e-51
-Time:                        20:59:36   Log-Likelihood:                -153.95
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.51e-51
+Time:                        16:11:01   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             393.9
 Df Residuals:                     494   BIC:                             578.2
 Df Model:                          42                                         
@@ -554,8 +554,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.15
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.31e-52
-Time:                        20:59:36   Log-Likelihood:                -153.96
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.31e-52
+Time:                        16:11:01   Log-Likelihood:                -153.96
 No. Observations:                 537   AIC:                             391.9
 Df Residuals:                     495   BIC:                             571.9
 Df Model:                          41                                         
@@ -622,8 +622,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.620
 Method:                 Least Squares   F-statistic:                              22.38
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.29e-88
-Time:                        20:59:36   Log-Likelihood:                         -153.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    7.29e-88
+Time:                        16:11:01   Log-Likelihood:                         -153.99
 No. Observations:                 537   AIC:                                      390.0
 Df Residuals:                     496   BIC:                                      565.7
 Df Model:                          41                                                  
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.621
 Method:                 Least Squares   F-statistic:                              22.98
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.53e-88
-Time:                        20:59:36   Log-Likelihood:                         -154.01
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.53e-88
+Time:                        16:11:01   Log-Likelihood:                         -154.01
 No. Observations:                 537   AIC:                                      388.0
 Df Residuals:                     497   BIC:                                      559.5
 Df Model:                          40                                                  
@@ -755,8 +755,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              23.61
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.22e-89
-Time:                        20:59:36   Log-Likelihood:                         -154.04
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.22e-89
+Time:                        16:11:01   Log-Likelihood:                         -154.04
 No. Observations:                 537   AIC:                                      386.1
 Df Residuals:                     498   BIC:                                      553.2
 Df Model:                          39                                                  
@@ -820,8 +820,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              24.28
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    6.53e-90
-Time:                        20:59:36   Log-Likelihood:                         -154.05
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    6.53e-90
+Time:                        16:11:01   Log-Likelihood:                         -154.05
 No. Observations:                 537   AIC:                                      384.1
 Df Residuals:                     499   BIC:                                      547.0
 Df Model:                          38                                                  
@@ -884,8 +884,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.623
 Method:                 Least Squares   F-statistic:                              24.99
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.33e-90
-Time:                        20:59:36   Log-Likelihood:                         -154.08
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.33e-90
+Time:                        16:11:01   Log-Likelihood:                         -154.08
 No. Observations:                 537   AIC:                                      382.2
 Df Residuals:                     500   BIC:                                      540.7
 Df Model:                          37                                                  
@@ -947,8 +947,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              25.73
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.69e-91
-Time:                        20:59:36   Log-Likelihood:                         -154.12
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    2.69e-91
+Time:                        16:11:01   Log-Likelihood:                         -154.12
 No. Observations:                 537   AIC:                                      380.2
 Df Residuals:                     501   BIC:                                      534.5
 Df Model:                          36                                                  
@@ -1009,8 +1009,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              26.51
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    5.36e-92
-Time:                        20:59:36   Log-Likelihood:                         -154.15
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    5.36e-92
+Time:                        16:11:01   Log-Likelihood:                         -154.15
 No. Observations:                 537   AIC:                                      378.3
 Df Residuals:                     502   BIC:                                      528.3
 Df Model:                          35                                                  
@@ -1070,8 +1070,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.625
 Method:                 Least Squares   F-statistic:                              27.33
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.07e-92
-Time:                        20:59:36   Log-Likelihood:                         -154.21
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.07e-92
+Time:                        16:11:02   Log-Likelihood:                         -154.21
 No. Observations:                 537   AIC:                                      376.4
 Df Residuals:                     503   BIC:                                      522.1
 Df Model:                          34                                                  
@@ -1130,8 +1130,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              28.21
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.11e-93
-Time:                        20:59:36   Log-Likelihood:                         -154.27
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    2.11e-93
+Time:                        16:11:02   Log-Likelihood:                         -154.27
 No. Observations:                 537   AIC:                                      374.5
 Df Residuals:                     504   BIC:                                      516.0
 Df Model:                          33                                                  
@@ -1189,8 +1189,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              29.13
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    4.23e-94
-Time:                        20:59:36   Log-Likelihood:                         -154.37
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    4.23e-94
+Time:                        16:11:02   Log-Likelihood:                         -154.37
 No. Observations:                 537   AIC:                                      372.7
 Df Residuals:                     505   BIC:                                      509.9
 Df Model:                          32                                                  
@@ -1247,8 +1247,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              30.11
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    8.41e-95
-Time:                        20:59:36   Log-Likelihood:                         -154.48
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    8.41e-95
+Time:                        16:11:02   Log-Likelihood:                         -154.48
 No. Observations:                 537   AIC:                                      371.0
 Df Residuals:                     506   BIC:                                      503.8
 Df Model:                          31                                                  
@@ -1304,8 +1304,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              31.15
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.67e-95
-Time:                        20:59:36   Log-Likelihood:                         -154.60
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.67e-95
+Time:                        16:11:02   Log-Likelihood:                         -154.60
 No. Observations:                 537   AIC:                                      369.2
 Df Residuals:                     507   BIC:                                      497.8
 Df Model:                          30                                                  
@@ -1360,8 +1360,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              32.27
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.27e-96
-Time:                        20:59:36   Log-Likelihood:                         -154.73
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.27e-96
+Time:                        16:11:02   Log-Likelihood:                         -154.73
 No. Observations:                 537   AIC:                                      367.5
 Df Residuals:                     508   BIC:                                      491.7
 Df Model:                          29                                                  
@@ -1415,8 +1415,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              33.44
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.05e-97
-Time:                        20:59:36   Log-Likelihood:                         -154.98
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    7.05e-97
+Time:                        16:11:02   Log-Likelihood:                         -154.98
 No. Observations:                 537   AIC:                                      366.0
 Df Residuals:                     509   BIC:                                      486.0
 Df Model:                          28                                                  
@@ -1469,8 +1469,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              34.69
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.53e-97
-Time:                        20:59:36   Log-Likelihood:                         -155.25
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.53e-97
+Time:                        16:11:02   Log-Likelihood:                         -155.25
 No. Observations:                 537   AIC:                                      364.5
 Df Residuals:                     510   BIC:                                      480.2
 Df Model:                          27                                                  
@@ -1522,8 +1522,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              36.05
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.04e-98
-Time:                        20:59:36   Log-Likelihood:                         -155.46
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.04e-98
+Time:                        16:11:02   Log-Likelihood:                         -155.46
 No. Observations:                 537   AIC:                                      362.9
 Df Residuals:                     511   BIC:                                      474.4
 Df Model:                          26                                                  
@@ -1574,8 +1574,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              37.56
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    5.05e-99
-Time:                        20:59:36   Log-Likelihood:                         -155.49
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    5.05e-99
+Time:                        16:11:02   Log-Likelihood:                         -155.49
 No. Observations:                 537   AIC:                                      361.0
 Df Residuals:                     512   BIC:                                      468.1
 Df Model:                          25                                                  
@@ -1625,8 +1625,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              39.12
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.13e-99
-Time:                        20:59:36   Log-Likelihood:                         -155.87
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.13e-99
+Time:                        16:11:02   Log-Likelihood:                         -155.87
 No. Observations:                 537   AIC:                                      359.7
 Df Residuals:                     513   BIC:                                      462.6
 Df Model:                          24                                                  
@@ -1675,8 +1675,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.646
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              40.79
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   2.71e-100
-Time:                        20:59:36   Log-Likelihood:                         -156.33
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   2.71e-100
+Time:                        16:11:02   Log-Likelihood:                         -156.33
 No. Observations:                 537   AIC:                                      358.7
 Df Residuals:                     514   BIC:                                      457.2
 Df Model:                          23                                                  
@@ -1724,8 +1724,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.645
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              42.56
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   7.59e-101
-Time:                        20:59:36   Log-Likelihood:                         -156.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   7.59e-101
+Time:                        16:11:02   Log-Likelihood:                         -156.99
 No. Observations:                 537   AIC:                                      358.0
 Df Residuals:                     515   BIC:                                      452.3
 Df Model:                          22                                                  
@@ -1772,8 +1772,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.644
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              44.50
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   2.16e-101
-Time:                        20:59:36   Log-Likelihood:                         -157.69
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   2.16e-101
+Time:                        16:11:02   Log-Likelihood:                         -157.69
 No. Observations:                 537   AIC:                                      357.4
 Df Residuals:                     516   BIC:                                      447.4
 Df Model:                          21                                                  
@@ -1819,8 +1819,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.643
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              46.61
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   6.25e-102
-Time:                        20:59:36   Log-Likelihood:                         -158.43
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   6.25e-102
+Time:                        16:11:02   Log-Likelihood:                         -158.43
 No. Observations:                 537   AIC:                                      356.9
 Df Residuals:                     517   BIC:                                      442.6
 Df Model:                          20                                                  
@@ -1865,8 +1865,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.640
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              51.23
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                   1.33e-102
-Time:                        20:59:36   Log-Likelihood:                         -160.96
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   1.33e-102
+Time:                        16:11:02   Log-Likelihood:                         -160.96
 No. Observations:                 537   AIC:                                      357.9
 Df Residuals:                     519   BIC:                                      435.1
 Df Model:                          18                                                  

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32C4AE-2DB1-4C90-9CFE-52F98F4FE0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE1EF92-5152-43ED-B113-C4D28AEA2E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,8 +199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.455
 Method:                 Least Squares   F-statistic:                     10.72
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.01e-49
-Time:                        16:11:01   Log-Likelihood:                -153.95
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.01e-49
+Time:                        23:18:40   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             401.9
 Df Residuals:                     490   BIC:                             603.3
 Df Model:                          46                                         
@@ -272,8 +272,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.456
 Method:                 Least Squares   F-statistic:                     10.98
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.03e-50
-Time:                        16:11:01   Log-Likelihood:                -153.95
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.03e-50
+Time:                        23:18:41   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             399.9
 Df Residuals:                     491   BIC:                             597.1
 Df Model:                          45                                         
@@ -344,8 +344,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.457
 Method:                 Least Squares   F-statistic:                     11.25
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.78e-50
-Time:                        16:11:01   Log-Likelihood:                -153.95
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.78e-50
+Time:                        23:18:41   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             397.9
 Df Residuals:                     492   BIC:                             590.8
 Df Model:                          44                                         
@@ -415,8 +415,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     11.54
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.22e-51
-Time:                        16:11:01   Log-Likelihood:                -153.95
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.22e-51
+Time:                        23:18:41   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             395.9
 Df Residuals:                     493   BIC:                             584.5
 Df Model:                          43                                         
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     11.84
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.51e-51
-Time:                        16:11:01   Log-Likelihood:                -153.95
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.51e-51
+Time:                        23:18:41   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             393.9
 Df Residuals:                     494   BIC:                             578.2
 Df Model:                          42                                         
@@ -554,8 +554,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.15
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.31e-52
-Time:                        16:11:01   Log-Likelihood:                -153.96
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.31e-52
+Time:                        23:18:41   Log-Likelihood:                -153.96
 No. Observations:                 537   AIC:                             391.9
 Df Residuals:                     495   BIC:                             571.9
 Df Model:                          41                                         
@@ -622,8 +622,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.620
 Method:                 Least Squares   F-statistic:                              22.38
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    7.29e-88
-Time:                        16:11:01   Log-Likelihood:                         -153.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    7.29e-88
+Time:                        23:18:41   Log-Likelihood:                         -153.99
 No. Observations:                 537   AIC:                                      390.0
 Df Residuals:                     496   BIC:                                      565.7
 Df Model:                          41                                                  
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.621
 Method:                 Least Squares   F-statistic:                              22.98
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.53e-88
-Time:                        16:11:01   Log-Likelihood:                         -154.01
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.53e-88
+Time:                        23:18:41   Log-Likelihood:                         -154.01
 No. Observations:                 537   AIC:                                      388.0
 Df Residuals:                     497   BIC:                                      559.5
 Df Model:                          40                                                  
@@ -755,8 +755,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              23.61
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.22e-89
-Time:                        16:11:01   Log-Likelihood:                         -154.04
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.22e-89
+Time:                        23:18:41   Log-Likelihood:                         -154.04
 No. Observations:                 537   AIC:                                      386.1
 Df Residuals:                     498   BIC:                                      553.2
 Df Model:                          39                                                  
@@ -820,8 +820,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              24.28
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    6.53e-90
-Time:                        16:11:01   Log-Likelihood:                         -154.05
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    6.53e-90
+Time:                        23:18:41   Log-Likelihood:                         -154.05
 No. Observations:                 537   AIC:                                      384.1
 Df Residuals:                     499   BIC:                                      547.0
 Df Model:                          38                                                  
@@ -884,8 +884,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.623
 Method:                 Least Squares   F-statistic:                              24.99
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.33e-90
-Time:                        16:11:01   Log-Likelihood:                         -154.08
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.33e-90
+Time:                        23:18:41   Log-Likelihood:                         -154.08
 No. Observations:                 537   AIC:                                      382.2
 Df Residuals:                     500   BIC:                                      540.7
 Df Model:                          37                                                  
@@ -947,8 +947,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              25.73
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    2.69e-91
-Time:                        16:11:01   Log-Likelihood:                         -154.12
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    2.69e-91
+Time:                        23:18:41   Log-Likelihood:                         -154.12
 No. Observations:                 537   AIC:                                      380.2
 Df Residuals:                     501   BIC:                                      534.5
 Df Model:                          36                                                  
@@ -1009,8 +1009,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              26.51
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    5.36e-92
-Time:                        16:11:01   Log-Likelihood:                         -154.15
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    5.36e-92
+Time:                        23:18:41   Log-Likelihood:                         -154.15
 No. Observations:                 537   AIC:                                      378.3
 Df Residuals:                     502   BIC:                                      528.3
 Df Model:                          35                                                  
@@ -1070,8 +1070,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.625
 Method:                 Least Squares   F-statistic:                              27.33
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.07e-92
-Time:                        16:11:02   Log-Likelihood:                         -154.21
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.07e-92
+Time:                        23:18:41   Log-Likelihood:                         -154.21
 No. Observations:                 537   AIC:                                      376.4
 Df Residuals:                     503   BIC:                                      522.1
 Df Model:                          34                                                  
@@ -1130,8 +1130,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              28.21
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    2.11e-93
-Time:                        16:11:02   Log-Likelihood:                         -154.27
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    2.11e-93
+Time:                        23:18:41   Log-Likelihood:                         -154.27
 No. Observations:                 537   AIC:                                      374.5
 Df Residuals:                     504   BIC:                                      516.0
 Df Model:                          33                                                  
@@ -1189,8 +1189,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              29.13
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    4.23e-94
-Time:                        16:11:02   Log-Likelihood:                         -154.37
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    4.23e-94
+Time:                        23:18:41   Log-Likelihood:                         -154.37
 No. Observations:                 537   AIC:                                      372.7
 Df Residuals:                     505   BIC:                                      509.9
 Df Model:                          32                                                  
@@ -1247,8 +1247,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              30.11
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    8.41e-95
-Time:                        16:11:02   Log-Likelihood:                         -154.48
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    8.41e-95
+Time:                        23:18:41   Log-Likelihood:                         -154.48
 No. Observations:                 537   AIC:                                      371.0
 Df Residuals:                     506   BIC:                                      503.8
 Df Model:                          31                                                  
@@ -1304,8 +1304,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              31.15
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.67e-95
-Time:                        16:11:02   Log-Likelihood:                         -154.60
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.67e-95
+Time:                        23:18:41   Log-Likelihood:                         -154.60
 No. Observations:                 537   AIC:                                      369.2
 Df Residuals:                     507   BIC:                                      497.8
 Df Model:                          30                                                  
@@ -1360,8 +1360,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              32.27
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.27e-96
-Time:                        16:11:02   Log-Likelihood:                         -154.73
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.27e-96
+Time:                        23:18:41   Log-Likelihood:                         -154.73
 No. Observations:                 537   AIC:                                      367.5
 Df Residuals:                     508   BIC:                                      491.7
 Df Model:                          29                                                  
@@ -1415,8 +1415,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              33.44
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    7.05e-97
-Time:                        16:11:02   Log-Likelihood:                         -154.98
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    7.05e-97
+Time:                        23:18:41   Log-Likelihood:                         -154.98
 No. Observations:                 537   AIC:                                      366.0
 Df Residuals:                     509   BIC:                                      486.0
 Df Model:                          28                                                  
@@ -1469,8 +1469,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              34.69
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.53e-97
-Time:                        16:11:02   Log-Likelihood:                         -155.25
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.53e-97
+Time:                        23:18:41   Log-Likelihood:                         -155.25
 No. Observations:                 537   AIC:                                      364.5
 Df Residuals:                     510   BIC:                                      480.2
 Df Model:                          27                                                  
@@ -1522,8 +1522,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              36.05
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.04e-98
-Time:                        16:11:02   Log-Likelihood:                         -155.46
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.04e-98
+Time:                        23:18:41   Log-Likelihood:                         -155.46
 No. Observations:                 537   AIC:                                      362.9
 Df Residuals:                     511   BIC:                                      474.4
 Df Model:                          26                                                  
@@ -1574,8 +1574,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              37.56
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    5.05e-99
-Time:                        16:11:02   Log-Likelihood:                         -155.49
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    5.05e-99
+Time:                        23:18:41   Log-Likelihood:                         -155.49
 No. Observations:                 537   AIC:                                      361.0
 Df Residuals:                     512   BIC:                                      468.1
 Df Model:                          25                                                  
@@ -1625,8 +1625,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              39.12
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.13e-99
-Time:                        16:11:02   Log-Likelihood:                         -155.87
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.13e-99
+Time:                        23:18:41   Log-Likelihood:                         -155.87
 No. Observations:                 537   AIC:                                      359.7
 Df Residuals:                     513   BIC:                                      462.6
 Df Model:                          24                                                  
@@ -1675,8 +1675,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.646
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              40.79
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   2.71e-100
-Time:                        16:11:02   Log-Likelihood:                         -156.33
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   2.71e-100
+Time:                        23:18:41   Log-Likelihood:                         -156.33
 No. Observations:                 537   AIC:                                      358.7
 Df Residuals:                     514   BIC:                                      457.2
 Df Model:                          23                                                  
@@ -1724,8 +1724,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.645
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              42.56
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   7.59e-101
-Time:                        16:11:02   Log-Likelihood:                         -156.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   7.59e-101
+Time:                        23:18:41   Log-Likelihood:                         -156.99
 No. Observations:                 537   AIC:                                      358.0
 Df Residuals:                     515   BIC:                                      452.3
 Df Model:                          22                                                  
@@ -1772,8 +1772,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.644
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              44.50
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   2.16e-101
-Time:                        16:11:02   Log-Likelihood:                         -157.69
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   2.16e-101
+Time:                        23:18:41   Log-Likelihood:                         -157.69
 No. Observations:                 537   AIC:                                      357.4
 Df Residuals:                     516   BIC:                                      447.4
 Df Model:                          21                                                  
@@ -1819,8 +1819,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.643
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              46.61
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   6.25e-102
-Time:                        16:11:02   Log-Likelihood:                         -158.43
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   6.25e-102
+Time:                        23:18:41   Log-Likelihood:                         -158.43
 No. Observations:                 537   AIC:                                      356.9
 Df Residuals:                     517   BIC:                                      442.6
 Df Model:                          20                                                  
@@ -1865,8 +1865,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.640
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              51.23
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                   1.33e-102
-Time:                        16:11:02   Log-Likelihood:                         -160.96
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   1.33e-102
+Time:                        23:18:41   Log-Likelihood:                         -160.96
 No. Observations:                 537   AIC:                                      357.9
 Df Residuals:                     519   BIC:                                      435.1
 Df Model:                          18                                                  

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE1EF92-5152-43ED-B113-C4D28AEA2E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7083045-7373-477C-B39E-E208D2EF1B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="46" sheetId="1" r:id="rId1"/>
@@ -199,8 +199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.455
 Method:                 Least Squares   F-statistic:                     10.72
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.01e-49
-Time:                        23:18:40   Log-Likelihood:                -153.95
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.01e-49
+Time:                        20:48:31   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             401.9
 Df Residuals:                     490   BIC:                             603.3
 Df Model:                          46                                         
@@ -272,8 +272,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.456
 Method:                 Least Squares   F-statistic:                     10.98
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.03e-50
-Time:                        23:18:41   Log-Likelihood:                -153.95
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.03e-50
+Time:                        20:48:31   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             399.9
 Df Residuals:                     491   BIC:                             597.1
 Df Model:                          45                                         
@@ -344,8 +344,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.457
 Method:                 Least Squares   F-statistic:                     11.25
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.78e-50
-Time:                        23:18:41   Log-Likelihood:                -153.95
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.78e-50
+Time:                        20:48:31   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             397.9
 Df Residuals:                     492   BIC:                             590.8
 Df Model:                          44                                         
@@ -415,8 +415,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     11.54
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.22e-51
-Time:                        23:18:41   Log-Likelihood:                -153.95
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.22e-51
+Time:                        20:48:31   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             395.9
 Df Residuals:                     493   BIC:                             584.5
 Df Model:                          43                                         
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     11.84
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.51e-51
-Time:                        23:18:41   Log-Likelihood:                -153.95
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.51e-51
+Time:                        20:48:31   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             393.9
 Df Residuals:                     494   BIC:                             578.2
 Df Model:                          42                                         
@@ -554,8 +554,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.15
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.31e-52
-Time:                        23:18:41   Log-Likelihood:                -153.96
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.31e-52
+Time:                        20:48:31   Log-Likelihood:                -153.96
 No. Observations:                 537   AIC:                             391.9
 Df Residuals:                     495   BIC:                             571.9
 Df Model:                          41                                         
@@ -622,8 +622,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.620
 Method:                 Least Squares   F-statistic:                              22.38
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    7.29e-88
-Time:                        23:18:41   Log-Likelihood:                         -153.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    7.29e-88
+Time:                        20:48:31   Log-Likelihood:                         -153.99
 No. Observations:                 537   AIC:                                      390.0
 Df Residuals:                     496   BIC:                                      565.7
 Df Model:                          41                                                  
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.621
 Method:                 Least Squares   F-statistic:                              22.98
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.53e-88
-Time:                        23:18:41   Log-Likelihood:                         -154.01
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.53e-88
+Time:                        20:48:31   Log-Likelihood:                         -154.01
 No. Observations:                 537   AIC:                                      388.0
 Df Residuals:                     497   BIC:                                      559.5
 Df Model:                          40                                                  
@@ -755,8 +755,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              23.61
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.22e-89
-Time:                        23:18:41   Log-Likelihood:                         -154.04
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.22e-89
+Time:                        20:48:31   Log-Likelihood:                         -154.04
 No. Observations:                 537   AIC:                                      386.1
 Df Residuals:                     498   BIC:                                      553.2
 Df Model:                          39                                                  
@@ -820,8 +820,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              24.28
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    6.53e-90
-Time:                        23:18:41   Log-Likelihood:                         -154.05
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    6.53e-90
+Time:                        20:48:31   Log-Likelihood:                         -154.05
 No. Observations:                 537   AIC:                                      384.1
 Df Residuals:                     499   BIC:                                      547.0
 Df Model:                          38                                                  
@@ -884,8 +884,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.623
 Method:                 Least Squares   F-statistic:                              24.99
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.33e-90
-Time:                        23:18:41   Log-Likelihood:                         -154.08
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.33e-90
+Time:                        20:48:31   Log-Likelihood:                         -154.08
 No. Observations:                 537   AIC:                                      382.2
 Df Residuals:                     500   BIC:                                      540.7
 Df Model:                          37                                                  
@@ -947,8 +947,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              25.73
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    2.69e-91
-Time:                        23:18:41   Log-Likelihood:                         -154.12
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    2.69e-91
+Time:                        20:48:31   Log-Likelihood:                         -154.12
 No. Observations:                 537   AIC:                                      380.2
 Df Residuals:                     501   BIC:                                      534.5
 Df Model:                          36                                                  
@@ -1009,8 +1009,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              26.51
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    5.36e-92
-Time:                        23:18:41   Log-Likelihood:                         -154.15
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    5.36e-92
+Time:                        20:48:32   Log-Likelihood:                         -154.15
 No. Observations:                 537   AIC:                                      378.3
 Df Residuals:                     502   BIC:                                      528.3
 Df Model:                          35                                                  
@@ -1070,8 +1070,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.625
 Method:                 Least Squares   F-statistic:                              27.33
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.07e-92
-Time:                        23:18:41   Log-Likelihood:                         -154.21
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.07e-92
+Time:                        20:48:32   Log-Likelihood:                         -154.21
 No. Observations:                 537   AIC:                                      376.4
 Df Residuals:                     503   BIC:                                      522.1
 Df Model:                          34                                                  
@@ -1130,8 +1130,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              28.21
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    2.11e-93
-Time:                        23:18:41   Log-Likelihood:                         -154.27
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    2.11e-93
+Time:                        20:48:32   Log-Likelihood:                         -154.27
 No. Observations:                 537   AIC:                                      374.5
 Df Residuals:                     504   BIC:                                      516.0
 Df Model:                          33                                                  
@@ -1189,8 +1189,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              29.13
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    4.23e-94
-Time:                        23:18:41   Log-Likelihood:                         -154.37
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    4.23e-94
+Time:                        20:48:32   Log-Likelihood:                         -154.37
 No. Observations:                 537   AIC:                                      372.7
 Df Residuals:                     505   BIC:                                      509.9
 Df Model:                          32                                                  
@@ -1247,8 +1247,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              30.11
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    8.41e-95
-Time:                        23:18:41   Log-Likelihood:                         -154.48
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    8.41e-95
+Time:                        20:48:32   Log-Likelihood:                         -154.48
 No. Observations:                 537   AIC:                                      371.0
 Df Residuals:                     506   BIC:                                      503.8
 Df Model:                          31                                                  
@@ -1304,8 +1304,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              31.15
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.67e-95
-Time:                        23:18:41   Log-Likelihood:                         -154.60
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.67e-95
+Time:                        20:48:32   Log-Likelihood:                         -154.60
 No. Observations:                 537   AIC:                                      369.2
 Df Residuals:                     507   BIC:                                      497.8
 Df Model:                          30                                                  
@@ -1360,8 +1360,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              32.27
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.27e-96
-Time:                        23:18:41   Log-Likelihood:                         -154.73
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.27e-96
+Time:                        20:48:32   Log-Likelihood:                         -154.73
 No. Observations:                 537   AIC:                                      367.5
 Df Residuals:                     508   BIC:                                      491.7
 Df Model:                          29                                                  
@@ -1415,8 +1415,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              33.44
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    7.05e-97
-Time:                        23:18:41   Log-Likelihood:                         -154.98
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    7.05e-97
+Time:                        20:48:32   Log-Likelihood:                         -154.98
 No. Observations:                 537   AIC:                                      366.0
 Df Residuals:                     509   BIC:                                      486.0
 Df Model:                          28                                                  
@@ -1469,8 +1469,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              34.69
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.53e-97
-Time:                        23:18:41   Log-Likelihood:                         -155.25
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.53e-97
+Time:                        20:48:32   Log-Likelihood:                         -155.25
 No. Observations:                 537   AIC:                                      364.5
 Df Residuals:                     510   BIC:                                      480.2
 Df Model:                          27                                                  
@@ -1522,8 +1522,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              36.05
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.04e-98
-Time:                        23:18:41   Log-Likelihood:                         -155.46
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.04e-98
+Time:                        20:48:32   Log-Likelihood:                         -155.46
 No. Observations:                 537   AIC:                                      362.9
 Df Residuals:                     511   BIC:                                      474.4
 Df Model:                          26                                                  
@@ -1574,8 +1574,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              37.56
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    5.05e-99
-Time:                        23:18:41   Log-Likelihood:                         -155.49
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    5.05e-99
+Time:                        20:48:32   Log-Likelihood:                         -155.49
 No. Observations:                 537   AIC:                                      361.0
 Df Residuals:                     512   BIC:                                      468.1
 Df Model:                          25                                                  
@@ -1625,8 +1625,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              39.12
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.13e-99
-Time:                        23:18:41   Log-Likelihood:                         -155.87
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.13e-99
+Time:                        20:48:32   Log-Likelihood:                         -155.87
 No. Observations:                 537   AIC:                                      359.7
 Df Residuals:                     513   BIC:                                      462.6
 Df Model:                          24                                                  
@@ -1675,8 +1675,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.646
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              40.79
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   2.71e-100
-Time:                        23:18:41   Log-Likelihood:                         -156.33
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   2.71e-100
+Time:                        20:48:32   Log-Likelihood:                         -156.33
 No. Observations:                 537   AIC:                                      358.7
 Df Residuals:                     514   BIC:                                      457.2
 Df Model:                          23                                                  
@@ -1724,8 +1724,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.645
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              42.56
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   7.59e-101
-Time:                        23:18:41   Log-Likelihood:                         -156.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   7.59e-101
+Time:                        20:48:32   Log-Likelihood:                         -156.99
 No. Observations:                 537   AIC:                                      358.0
 Df Residuals:                     515   BIC:                                      452.3
 Df Model:                          22                                                  
@@ -1772,8 +1772,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.644
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              44.50
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   2.16e-101
-Time:                        23:18:41   Log-Likelihood:                         -157.69
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   2.16e-101
+Time:                        20:48:32   Log-Likelihood:                         -157.69
 No. Observations:                 537   AIC:                                      357.4
 Df Residuals:                     516   BIC:                                      447.4
 Df Model:                          21                                                  
@@ -1819,8 +1819,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.643
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              46.61
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   6.25e-102
-Time:                        23:18:41   Log-Likelihood:                         -158.43
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   6.25e-102
+Time:                        20:48:32   Log-Likelihood:                         -158.43
 No. Observations:                 537   AIC:                                      356.9
 Df Residuals:                     517   BIC:                                      442.6
 Df Model:                          20                                                  
@@ -1865,8 +1865,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.640
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              51.23
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                   1.33e-102
-Time:                        23:18:41   Log-Likelihood:                         -160.96
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   1.33e-102
+Time:                        20:48:32   Log-Likelihood:                         -160.96
 No. Observations:                 537   AIC:                                      357.9
 Df Residuals:                     519   BIC:                                      435.1
 Df Model:                          18                                                  

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7083045-7373-477C-B39E-E208D2EF1B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B6990-E96A-4958-B32F-779FD3311608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,8 +199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.455
 Method:                 Least Squares   F-statistic:                     10.72
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.01e-49
-Time:                        20:48:31   Log-Likelihood:                -153.95
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.01e-49
+Time:                        21:22:09   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             401.9
 Df Residuals:                     490   BIC:                             603.3
 Df Model:                          46                                         
@@ -272,8 +272,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.456
 Method:                 Least Squares   F-statistic:                     10.98
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.03e-50
-Time:                        20:48:31   Log-Likelihood:                -153.95
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.03e-50
+Time:                        21:22:09   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             399.9
 Df Residuals:                     491   BIC:                             597.1
 Df Model:                          45                                         
@@ -344,8 +344,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.457
 Method:                 Least Squares   F-statistic:                     11.25
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.78e-50
-Time:                        20:48:31   Log-Likelihood:                -153.95
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.78e-50
+Time:                        21:22:09   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             397.9
 Df Residuals:                     492   BIC:                             590.8
 Df Model:                          44                                         
@@ -415,8 +415,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     11.54
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.22e-51
-Time:                        20:48:31   Log-Likelihood:                -153.95
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.22e-51
+Time:                        21:22:09   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             395.9
 Df Residuals:                     493   BIC:                             584.5
 Df Model:                          43                                         
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     11.84
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.51e-51
-Time:                        20:48:31   Log-Likelihood:                -153.95
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.51e-51
+Time:                        21:22:09   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             393.9
 Df Residuals:                     494   BIC:                             578.2
 Df Model:                          42                                         
@@ -554,8 +554,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.15
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.31e-52
-Time:                        20:48:31   Log-Likelihood:                -153.96
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.31e-52
+Time:                        21:22:09   Log-Likelihood:                -153.96
 No. Observations:                 537   AIC:                             391.9
 Df Residuals:                     495   BIC:                             571.9
 Df Model:                          41                                         
@@ -622,8 +622,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.620
 Method:                 Least Squares   F-statistic:                              22.38
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    7.29e-88
-Time:                        20:48:31   Log-Likelihood:                         -153.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    7.29e-88
+Time:                        21:22:09   Log-Likelihood:                         -153.99
 No. Observations:                 537   AIC:                                      390.0
 Df Residuals:                     496   BIC:                                      565.7
 Df Model:                          41                                                  
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.621
 Method:                 Least Squares   F-statistic:                              22.98
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.53e-88
-Time:                        20:48:31   Log-Likelihood:                         -154.01
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.53e-88
+Time:                        21:22:09   Log-Likelihood:                         -154.01
 No. Observations:                 537   AIC:                                      388.0
 Df Residuals:                     497   BIC:                                      559.5
 Df Model:                          40                                                  
@@ -755,8 +755,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              23.61
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.22e-89
-Time:                        20:48:31   Log-Likelihood:                         -154.04
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.22e-89
+Time:                        21:22:09   Log-Likelihood:                         -154.04
 No. Observations:                 537   AIC:                                      386.1
 Df Residuals:                     498   BIC:                                      553.2
 Df Model:                          39                                                  
@@ -820,8 +820,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              24.28
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    6.53e-90
-Time:                        20:48:31   Log-Likelihood:                         -154.05
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    6.53e-90
+Time:                        21:22:09   Log-Likelihood:                         -154.05
 No. Observations:                 537   AIC:                                      384.1
 Df Residuals:                     499   BIC:                                      547.0
 Df Model:                          38                                                  
@@ -884,8 +884,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.623
 Method:                 Least Squares   F-statistic:                              24.99
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.33e-90
-Time:                        20:48:31   Log-Likelihood:                         -154.08
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.33e-90
+Time:                        21:22:09   Log-Likelihood:                         -154.08
 No. Observations:                 537   AIC:                                      382.2
 Df Residuals:                     500   BIC:                                      540.7
 Df Model:                          37                                                  
@@ -947,8 +947,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              25.73
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    2.69e-91
-Time:                        20:48:31   Log-Likelihood:                         -154.12
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    2.69e-91
+Time:                        21:22:09   Log-Likelihood:                         -154.12
 No. Observations:                 537   AIC:                                      380.2
 Df Residuals:                     501   BIC:                                      534.5
 Df Model:                          36                                                  
@@ -1009,8 +1009,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              26.51
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    5.36e-92
-Time:                        20:48:32   Log-Likelihood:                         -154.15
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    5.36e-92
+Time:                        21:22:09   Log-Likelihood:                         -154.15
 No. Observations:                 537   AIC:                                      378.3
 Df Residuals:                     502   BIC:                                      528.3
 Df Model:                          35                                                  
@@ -1070,8 +1070,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.625
 Method:                 Least Squares   F-statistic:                              27.33
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.07e-92
-Time:                        20:48:32   Log-Likelihood:                         -154.21
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.07e-92
+Time:                        21:22:09   Log-Likelihood:                         -154.21
 No. Observations:                 537   AIC:                                      376.4
 Df Residuals:                     503   BIC:                                      522.1
 Df Model:                          34                                                  
@@ -1130,8 +1130,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              28.21
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    2.11e-93
-Time:                        20:48:32   Log-Likelihood:                         -154.27
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    2.11e-93
+Time:                        21:22:10   Log-Likelihood:                         -154.27
 No. Observations:                 537   AIC:                                      374.5
 Df Residuals:                     504   BIC:                                      516.0
 Df Model:                          33                                                  
@@ -1189,8 +1189,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              29.13
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    4.23e-94
-Time:                        20:48:32   Log-Likelihood:                         -154.37
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    4.23e-94
+Time:                        21:22:10   Log-Likelihood:                         -154.37
 No. Observations:                 537   AIC:                                      372.7
 Df Residuals:                     505   BIC:                                      509.9
 Df Model:                          32                                                  
@@ -1247,8 +1247,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              30.11
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    8.41e-95
-Time:                        20:48:32   Log-Likelihood:                         -154.48
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    8.41e-95
+Time:                        21:22:10   Log-Likelihood:                         -154.48
 No. Observations:                 537   AIC:                                      371.0
 Df Residuals:                     506   BIC:                                      503.8
 Df Model:                          31                                                  
@@ -1304,8 +1304,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              31.15
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.67e-95
-Time:                        20:48:32   Log-Likelihood:                         -154.60
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.67e-95
+Time:                        21:22:10   Log-Likelihood:                         -154.60
 No. Observations:                 537   AIC:                                      369.2
 Df Residuals:                     507   BIC:                                      497.8
 Df Model:                          30                                                  
@@ -1360,8 +1360,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              32.27
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.27e-96
-Time:                        20:48:32   Log-Likelihood:                         -154.73
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.27e-96
+Time:                        21:22:10   Log-Likelihood:                         -154.73
 No. Observations:                 537   AIC:                                      367.5
 Df Residuals:                     508   BIC:                                      491.7
 Df Model:                          29                                                  
@@ -1415,8 +1415,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              33.44
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    7.05e-97
-Time:                        20:48:32   Log-Likelihood:                         -154.98
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    7.05e-97
+Time:                        21:22:10   Log-Likelihood:                         -154.98
 No. Observations:                 537   AIC:                                      366.0
 Df Residuals:                     509   BIC:                                      486.0
 Df Model:                          28                                                  
@@ -1469,8 +1469,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              34.69
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.53e-97
-Time:                        20:48:32   Log-Likelihood:                         -155.25
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.53e-97
+Time:                        21:22:10   Log-Likelihood:                         -155.25
 No. Observations:                 537   AIC:                                      364.5
 Df Residuals:                     510   BIC:                                      480.2
 Df Model:                          27                                                  
@@ -1522,8 +1522,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              36.05
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.04e-98
-Time:                        20:48:32   Log-Likelihood:                         -155.46
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.04e-98
+Time:                        21:22:10   Log-Likelihood:                         -155.46
 No. Observations:                 537   AIC:                                      362.9
 Df Residuals:                     511   BIC:                                      474.4
 Df Model:                          26                                                  
@@ -1574,8 +1574,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              37.56
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    5.05e-99
-Time:                        20:48:32   Log-Likelihood:                         -155.49
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    5.05e-99
+Time:                        21:22:10   Log-Likelihood:                         -155.49
 No. Observations:                 537   AIC:                                      361.0
 Df Residuals:                     512   BIC:                                      468.1
 Df Model:                          25                                                  
@@ -1625,8 +1625,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              39.12
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.13e-99
-Time:                        20:48:32   Log-Likelihood:                         -155.87
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.13e-99
+Time:                        21:22:10   Log-Likelihood:                         -155.87
 No. Observations:                 537   AIC:                                      359.7
 Df Residuals:                     513   BIC:                                      462.6
 Df Model:                          24                                                  
@@ -1675,8 +1675,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.646
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              40.79
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   2.71e-100
-Time:                        20:48:32   Log-Likelihood:                         -156.33
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   2.71e-100
+Time:                        21:22:10   Log-Likelihood:                         -156.33
 No. Observations:                 537   AIC:                                      358.7
 Df Residuals:                     514   BIC:                                      457.2
 Df Model:                          23                                                  
@@ -1724,8 +1724,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.645
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              42.56
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   7.59e-101
-Time:                        20:48:32   Log-Likelihood:                         -156.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   7.59e-101
+Time:                        21:22:10   Log-Likelihood:                         -156.99
 No. Observations:                 537   AIC:                                      358.0
 Df Residuals:                     515   BIC:                                      452.3
 Df Model:                          22                                                  
@@ -1772,8 +1772,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.644
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              44.50
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   2.16e-101
-Time:                        20:48:32   Log-Likelihood:                         -157.69
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   2.16e-101
+Time:                        21:22:10   Log-Likelihood:                         -157.69
 No. Observations:                 537   AIC:                                      357.4
 Df Residuals:                     516   BIC:                                      447.4
 Df Model:                          21                                                  
@@ -1819,8 +1819,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.643
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              46.61
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   6.25e-102
-Time:                        20:48:32   Log-Likelihood:                         -158.43
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   6.25e-102
+Time:                        21:22:10   Log-Likelihood:                         -158.43
 No. Observations:                 537   AIC:                                      356.9
 Df Residuals:                     517   BIC:                                      442.6
 Df Model:                          20                                                  
@@ -1865,8 +1865,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.640
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              51.23
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                   1.33e-102
-Time:                        20:48:32   Log-Likelihood:                         -160.96
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   1.33e-102
+Time:                        21:22:10   Log-Likelihood:                         -160.96
 No. Observations:                 537   AIC:                                      357.9
 Df Residuals:                     519   BIC:                                      435.1
 Df Model:                          18                                                  

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B6990-E96A-4958-B32F-779FD3311608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F60C1-9EBC-41F4-9B35-5617CAE25D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="46" sheetId="1" r:id="rId1"/>
@@ -199,8 +199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.455
 Method:                 Least Squares   F-statistic:                     10.72
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.01e-49
-Time:                        21:22:09   Log-Likelihood:                -153.95
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.01e-49
+Time:                        19:07:15   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             401.9
 Df Residuals:                     490   BIC:                             603.3
 Df Model:                          46                                         
@@ -272,8 +272,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.456
 Method:                 Least Squares   F-statistic:                     10.98
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.03e-50
-Time:                        21:22:09   Log-Likelihood:                -153.95
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           6.03e-50
+Time:                        19:07:15   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             399.9
 Df Residuals:                     491   BIC:                             597.1
 Df Model:                          45                                         
@@ -344,8 +344,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.457
 Method:                 Least Squares   F-statistic:                     11.25
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.78e-50
-Time:                        21:22:09   Log-Likelihood:                -153.95
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.78e-50
+Time:                        19:07:15   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             397.9
 Df Residuals:                     492   BIC:                             590.8
 Df Model:                          44                                         
@@ -415,8 +415,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     11.54
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.22e-51
-Time:                        21:22:09   Log-Likelihood:                -153.95
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.22e-51
+Time:                        19:07:15   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             395.9
 Df Residuals:                     493   BIC:                             584.5
 Df Model:                          43                                         
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     11.84
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.51e-51
-Time:                        21:22:09   Log-Likelihood:                -153.95
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.51e-51
+Time:                        19:07:15   Log-Likelihood:                -153.95
 No. Observations:                 537   AIC:                             393.9
 Df Residuals:                     494   BIC:                             578.2
 Df Model:                          42                                         
@@ -554,8 +554,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.502
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.15
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.31e-52
-Time:                        21:22:09   Log-Likelihood:                -153.96
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.31e-52
+Time:                        19:07:15   Log-Likelihood:                -153.96
 No. Observations:                 537   AIC:                             391.9
 Df Residuals:                     495   BIC:                             571.9
 Df Model:                          41                                         
@@ -622,8 +622,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.620
 Method:                 Least Squares   F-statistic:                              22.38
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    7.29e-88
-Time:                        21:22:09   Log-Likelihood:                         -153.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    7.29e-88
+Time:                        19:07:15   Log-Likelihood:                         -153.99
 No. Observations:                 537   AIC:                                      390.0
 Df Residuals:                     496   BIC:                                      565.7
 Df Model:                          41                                                  
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.621
 Method:                 Least Squares   F-statistic:                              22.98
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.53e-88
-Time:                        21:22:09   Log-Likelihood:                         -154.01
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.53e-88
+Time:                        19:07:15   Log-Likelihood:                         -154.01
 No. Observations:                 537   AIC:                                      388.0
 Df Residuals:                     497   BIC:                                      559.5
 Df Model:                          40                                                  
@@ -755,8 +755,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              23.61
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.22e-89
-Time:                        21:22:09   Log-Likelihood:                         -154.04
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    3.22e-89
+Time:                        19:07:15   Log-Likelihood:                         -154.04
 No. Observations:                 537   AIC:                                      386.1
 Df Residuals:                     498   BIC:                                      553.2
 Df Model:                          39                                                  
@@ -820,8 +820,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.622
 Method:                 Least Squares   F-statistic:                              24.28
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    6.53e-90
-Time:                        21:22:09   Log-Likelihood:                         -154.05
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    6.53e-90
+Time:                        19:07:15   Log-Likelihood:                         -154.05
 No. Observations:                 537   AIC:                                      384.1
 Df Residuals:                     499   BIC:                                      547.0
 Df Model:                          38                                                  
@@ -884,8 +884,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.623
 Method:                 Least Squares   F-statistic:                              24.99
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.33e-90
-Time:                        21:22:09   Log-Likelihood:                         -154.08
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.33e-90
+Time:                        19:07:15   Log-Likelihood:                         -154.08
 No. Observations:                 537   AIC:                                      382.2
 Df Residuals:                     500   BIC:                                      540.7
 Df Model:                          37                                                  
@@ -947,8 +947,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              25.73
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    2.69e-91
-Time:                        21:22:09   Log-Likelihood:                         -154.12
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    2.69e-91
+Time:                        19:07:15   Log-Likelihood:                         -154.12
 No. Observations:                 537   AIC:                                      380.2
 Df Residuals:                     501   BIC:                                      534.5
 Df Model:                          36                                                  
@@ -1009,8 +1009,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.624
 Method:                 Least Squares   F-statistic:                              26.51
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    5.36e-92
-Time:                        21:22:09   Log-Likelihood:                         -154.15
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    5.36e-92
+Time:                        19:07:15   Log-Likelihood:                         -154.15
 No. Observations:                 537   AIC:                                      378.3
 Df Residuals:                     502   BIC:                                      528.3
 Df Model:                          35                                                  
@@ -1070,8 +1070,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.625
 Method:                 Least Squares   F-statistic:                              27.33
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.07e-92
-Time:                        21:22:09   Log-Likelihood:                         -154.21
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.07e-92
+Time:                        19:07:15   Log-Likelihood:                         -154.21
 No. Observations:                 537   AIC:                                      376.4
 Df Residuals:                     503   BIC:                                      522.1
 Df Model:                          34                                                  
@@ -1130,8 +1130,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              28.21
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    2.11e-93
-Time:                        21:22:10   Log-Likelihood:                         -154.27
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    2.11e-93
+Time:                        19:07:15   Log-Likelihood:                         -154.27
 No. Observations:                 537   AIC:                                      374.5
 Df Residuals:                     504   BIC:                                      516.0
 Df Model:                          33                                                  
@@ -1189,8 +1189,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.649
 Model:                            OLS   Adj. R-squared (uncentered):              0.626
 Method:                 Least Squares   F-statistic:                              29.13
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    4.23e-94
-Time:                        21:22:10   Log-Likelihood:                         -154.37
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    4.23e-94
+Time:                        19:07:15   Log-Likelihood:                         -154.37
 No. Observations:                 537   AIC:                                      372.7
 Df Residuals:                     505   BIC:                                      509.9
 Df Model:                          32                                                  
@@ -1247,8 +1247,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              30.11
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    8.41e-95
-Time:                        21:22:10   Log-Likelihood:                         -154.48
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    8.41e-95
+Time:                        19:07:15   Log-Likelihood:                         -154.48
 No. Observations:                 537   AIC:                                      371.0
 Df Residuals:                     506   BIC:                                      503.8
 Df Model:                          31                                                  
@@ -1304,8 +1304,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              31.15
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.67e-95
-Time:                        21:22:10   Log-Likelihood:                         -154.60
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.67e-95
+Time:                        19:07:15   Log-Likelihood:                         -154.60
 No. Observations:                 537   AIC:                                      369.2
 Df Residuals:                     507   BIC:                                      497.8
 Df Model:                          30                                                  
@@ -1360,8 +1360,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              32.27
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.27e-96
-Time:                        21:22:10   Log-Likelihood:                         -154.73
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    3.27e-96
+Time:                        19:07:15   Log-Likelihood:                         -154.73
 No. Observations:                 537   AIC:                                      367.5
 Df Residuals:                     508   BIC:                                      491.7
 Df Model:                          29                                                  
@@ -1415,8 +1415,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.648
 Model:                            OLS   Adj. R-squared (uncentered):              0.628
 Method:                 Least Squares   F-statistic:                              33.44
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    7.05e-97
-Time:                        21:22:10   Log-Likelihood:                         -154.98
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    7.05e-97
+Time:                        19:07:15   Log-Likelihood:                         -154.98
 No. Observations:                 537   AIC:                                      366.0
 Df Residuals:                     509   BIC:                                      486.0
 Df Model:                          28                                                  
@@ -1469,8 +1469,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              34.69
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.53e-97
-Time:                        21:22:10   Log-Likelihood:                         -155.25
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.53e-97
+Time:                        19:07:16   Log-Likelihood:                         -155.25
 No. Observations:                 537   AIC:                                      364.5
 Df Residuals:                     510   BIC:                                      480.2
 Df Model:                          27                                                  
@@ -1522,8 +1522,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              36.05
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.04e-98
-Time:                        21:22:10   Log-Likelihood:                         -155.46
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    3.04e-98
+Time:                        19:07:16   Log-Likelihood:                         -155.46
 No. Observations:                 537   AIC:                                      362.9
 Df Residuals:                     511   BIC:                                      474.4
 Df Model:                          26                                                  
@@ -1574,8 +1574,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              37.56
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    5.05e-99
-Time:                        21:22:10   Log-Likelihood:                         -155.49
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    5.05e-99
+Time:                        19:07:16   Log-Likelihood:                         -155.49
 No. Observations:                 537   AIC:                                      361.0
 Df Residuals:                     512   BIC:                                      468.1
 Df Model:                          25                                                  
@@ -1625,8 +1625,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.647
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              39.12
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.13e-99
-Time:                        21:22:10   Log-Likelihood:                         -155.87
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.13e-99
+Time:                        19:07:16   Log-Likelihood:                         -155.87
 No. Observations:                 537   AIC:                                      359.7
 Df Residuals:                     513   BIC:                                      462.6
 Df Model:                          24                                                  
@@ -1675,8 +1675,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.646
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              40.79
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   2.71e-100
-Time:                        21:22:10   Log-Likelihood:                         -156.33
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                   2.71e-100
+Time:                        19:07:16   Log-Likelihood:                         -156.33
 No. Observations:                 537   AIC:                                      358.7
 Df Residuals:                     514   BIC:                                      457.2
 Df Model:                          23                                                  
@@ -1724,8 +1724,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.645
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              42.56
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   7.59e-101
-Time:                        21:22:10   Log-Likelihood:                         -156.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                   7.59e-101
+Time:                        19:07:16   Log-Likelihood:                         -156.99
 No. Observations:                 537   AIC:                                      358.0
 Df Residuals:                     515   BIC:                                      452.3
 Df Model:                          22                                                  
@@ -1772,8 +1772,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.644
 Model:                            OLS   Adj. R-squared (uncentered):              0.630
 Method:                 Least Squares   F-statistic:                              44.50
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   2.16e-101
-Time:                        21:22:10   Log-Likelihood:                         -157.69
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                   2.16e-101
+Time:                        19:07:16   Log-Likelihood:                         -157.69
 No. Observations:                 537   AIC:                                      357.4
 Df Residuals:                     516   BIC:                                      447.4
 Df Model:                          21                                                  
@@ -1819,8 +1819,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.643
 Model:                            OLS   Adj. R-squared (uncentered):              0.629
 Method:                 Least Squares   F-statistic:                              46.61
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   6.25e-102
-Time:                        21:22:10   Log-Likelihood:                         -158.43
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                   6.25e-102
+Time:                        19:07:16   Log-Likelihood:                         -158.43
 No. Observations:                 537   AIC:                                      356.9
 Df Residuals:                     517   BIC:                                      442.6
 Df Model:                          20                                                  
@@ -1865,8 +1865,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.640
 Model:                            OLS   Adj. R-squared (uncentered):              0.627
 Method:                 Least Squares   F-statistic:                              51.23
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                   1.33e-102
-Time:                        21:22:10   Log-Likelihood:                         -160.96
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                   1.33e-102
+Time:                        19:07:16   Log-Likelihood:                         -160.96
 No. Observations:                 537   AIC:                                      357.9
 Df Residuals:                     519   BIC:                                      435.1
 Df Model:                          18                                                  
